--- a/lib/assets/Diffusion_Marketplace.xlsx
+++ b/lib/assets/Diffusion_Marketplace.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="1501">
   <si>
     <t>Respondent ID</t>
   </si>
@@ -966,6 +966,276 @@
     <t>Publication Link 3</t>
   </si>
   <si>
+    <t>152.133.6.14</t>
+  </si>
+  <si>
+    <t>keith.mcinnes@va.gov</t>
+  </si>
+  <si>
+    <t>Keith.McInnes@va.gov</t>
+  </si>
+  <si>
+    <t>Post-Incarceration Engagement (PIE)</t>
+  </si>
+  <si>
+    <t>Re-entry Peers Help Veterans with Post-Incarceration Transitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peers supplement and extend the services of VA’s Health Care for Re-entry Veterans program.  Greater linkage to Mental Health, Substance Use Treatment, and Housing Services than Comparison Group </t>
+  </si>
+  <si>
+    <t>Veterans leaving incarceration face many challenges.   The Post Incarceration Engagement (PIE) program is a peer-support intervention that supplements the VA’s Health Care for Reentry Veterans (HCRV) services. Linkage and referral efforts focus on helping Veterans connect to and stay engaged in appropriate VA primary care, mental health and substance use treatment services. It also includes active support accessing housing, employment, benefits, legal services and community-based resources. Re-entry peers meet frequently with justice-involved Veterans to help prioritize goals and identify steps to achieve them.  Peers provide mentoring and role modeling to help Veterans reestablish their lives during a challenging adjustment period.</t>
+  </si>
+  <si>
+    <t>Keith McInnes\Principal Investigator</t>
+  </si>
+  <si>
+    <t>Justeen Hyde\Co-Investigator</t>
+  </si>
+  <si>
+    <t>Beth Ann Petrakis\Project Manager</t>
+  </si>
+  <si>
+    <t>Carly Wilson\HCRV Social Worker</t>
+  </si>
+  <si>
+    <t>Michael Kane\Re-entry Peer Specialist</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>1. Pilot - This practice is in the process of initial implementation to assess feasibility and impact at no more than 1-5 facilities.</t>
+  </si>
+  <si>
+    <t>3-6 months</t>
+  </si>
+  <si>
+    <t>Obtain Veteran Justice Programs (VJP) and Homeless Programs support for PIE initiative at your facility.</t>
+  </si>
+  <si>
+    <t>Month 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify supervisor (and champion for the program) who will manage PIE and supervise the peer </t>
+  </si>
+  <si>
+    <t>Peer(s) identified at VA facility who can take on new PIE peer role and duties transferred (or funds are secured to hire a new peer(s) for the PIE peer role and peer(s) hired)</t>
+  </si>
+  <si>
+    <t>Months 2-5</t>
+  </si>
+  <si>
+    <t>Adjust the PIE manual and worksheets to reflect conditions and resources at your VA, and the relationships with your state Department of Corrections (DOC) and county correctional facilities</t>
+  </si>
+  <si>
+    <t>Months 2-4</t>
+  </si>
+  <si>
+    <t>Conduct meetings with reentry specialists at state DOC and/or county correctional facilities to obtain buy-in and cooperation with the PIE initiative</t>
+  </si>
+  <si>
+    <t>Month 2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peer(s)  trained with PIE manual, shadow another peer and HCRV social worker and complete any DOC or county trainings to permit entrance to correctional facilities.  </t>
+  </si>
+  <si>
+    <t>Months 5-6</t>
+  </si>
+  <si>
+    <t>Peer(s) begin re-entry work with Veterans</t>
+  </si>
+  <si>
+    <t>Month 6</t>
+  </si>
+  <si>
+    <t>Veterans Justice Programs\Homeless Programs\Health Care for Re-entry Veterans Program</t>
+  </si>
+  <si>
+    <t>VA Facility lacks resources to hire a new peer or repurpose an existing peer.</t>
+  </si>
+  <si>
+    <t>Meet with leadership early on – especially services lines for mental health, social work, homelessness. Also contact suicide prevention teams and opioid teams because of their potential interest in this kind of initiative working with a high risk population.</t>
+  </si>
+  <si>
+    <t>VA facility prefers peers to have primarily an on-campus role.  This limits the PIE peer’s ability to interact with Veterans in the correctional facilities, on day of release, and on other days to help the Veteran meet correctional supervision conditions such as parole and probation, or to provide Veterans with initial housing options if they are not interested in a VA program such as domiciliary.</t>
+  </si>
+  <si>
+    <t>Provide data from PIE (reports and publications) indicating the benefits of being equally active in the community as on the VA medical center campus.</t>
+  </si>
+  <si>
+    <t>State Department of Correction (DOC) and/or county correctional programs do not share data on Veteran inmates which would allow the peer (with the HCRV program) to easily link with these Veterans prior to their release.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduct meetings with DOC and county officials early on, and continue to foster those relationships. </t>
+  </si>
+  <si>
+    <t>3. $50,000 - $250,000</t>
+  </si>
+  <si>
+    <t>2. Some complexity</t>
+  </si>
+  <si>
+    <t>2. Two departments</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Modification of an established process</t>
+  </si>
+  <si>
+    <t>Peer Support Specialist</t>
+  </si>
+  <si>
+    <t>Social Worker</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Use of fleet vehicles</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>VA cell phone</t>
+  </si>
+  <si>
+    <t>The state Department of Correction and/or county-level correctional agencies; HCRV specialist provides PIE training</t>
+  </si>
+  <si>
+    <t>Peer support specialist</t>
+  </si>
+  <si>
+    <t>1 week (35-40 hours)</t>
+  </si>
+  <si>
+    <t>Usually it is in person but may also include preparatory readings or videos</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>coffee and snacks for weekly re-entry Veterans group</t>
+  </si>
+  <si>
+    <t>materials for re-entry kits if not provided by homeless or voluntary services</t>
+  </si>
+  <si>
+    <t>Mcinnes.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Reentry: Serving Veterans Behind and Beyond the Wall </t>
+  </si>
+  <si>
+    <t>Our facility data systems improved and enabled the identification of Veterans who had less than 12 months before release. The HCRV specialist tried to meet with each Veteran prior to their release, but sheer numbers, and geographic spread of prisons/jails made this impossible.  A solution was seen in peer support specialists who could be an extension of the HCRV specialist; peers also brought the advantages of lived experience as a Veteran, in recovery, and with knowledge of the criminal justice system, which helped in relationship and trust-building with re-entry Veterans.</t>
+  </si>
+  <si>
+    <t>Reentry mtg 5-21_19_IMG_20190521_092539765_HDR.jpg</t>
+  </si>
+  <si>
+    <t>Re-entry Support Group – led by HCRV social worker and PIE peer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Re-entry Support Group is a weekly drop in group open exclusively to HCRV veterans.  Veterans who attend this group are able to share their experiences since being released from incarceration, learn about resources available to them through the VA and outside the VA, and develop a network of support from other veterans who have incarceration experience.  It is a place they can comfortably share some of their common background as well as the problems they face, such as meeting probation stipulations and strategies for finding work or housing if you have a bad CORI or how to get an ID or driver’s license.  Participants use the time to connect with the HCRV specialist and the peer to arrange appointments or to complete paperwork or to learn about upcoming events they may want to attend. </t>
+  </si>
+  <si>
+    <t>reentry backpack from volunteer services_PIE_Bedford MA .jpg</t>
+  </si>
+  <si>
+    <t>HCRV Re-entry Kit</t>
+  </si>
+  <si>
+    <t>Veterans leaving incarceration through the PIE Program are each given a re-entry kit.  A typical re-entry kit provides things a newly released Veteran will need to get started  – weather appropriate clothing, toiletries, shoes, gift cards, agenda book (for appointments), and a backpack.  This reentry kit meets some of the most basic needs of Veterans coming back into the community and the reintegrating Veteran has a concrete and tangible sign of the comprehensive care available at VA including the services of the HCRV specialist and the PIE peer.</t>
+  </si>
+  <si>
+    <t>BethAnn.Petrakis@va.gov</t>
+  </si>
+  <si>
+    <t>Michael Kane\PIE Peer Support Specialist</t>
+  </si>
+  <si>
+    <t>Beth Ann Petrakis\Program Manager</t>
+  </si>
+  <si>
+    <t>Keith McInnes\Research Investigator</t>
+  </si>
+  <si>
+    <t>Justeen Hyde\Research Investigator</t>
+  </si>
+  <si>
+    <t>Wilson.jpg</t>
+  </si>
+  <si>
+    <t>Kane.jpg</t>
+  </si>
+  <si>
+    <t>Petrakis.png</t>
+  </si>
+  <si>
+    <t>Hyde.jpg</t>
+  </si>
+  <si>
+    <t>Domiciliary Residential Treatment Program</t>
+  </si>
+  <si>
+    <t>Substance Use Disorder Treatment</t>
+  </si>
+  <si>
+    <t>Pathway: Exploration of Mission, Aspiration and Purpose</t>
+  </si>
+  <si>
+    <t>Problems Related to Release from Prison</t>
+  </si>
+  <si>
+    <t>Homelessness</t>
+  </si>
+  <si>
+    <t>Substance Use Disorder</t>
+  </si>
+  <si>
+    <t>Legal Problem</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Health Care for Re-entry Veterans\Veterans Justice Outreach</t>
+  </si>
+  <si>
+    <t>Fleet Vehicle</t>
+  </si>
+  <si>
+    <t>Peer support specialist\Social worker\Healthcare for Re-Entry Veterans Outreach Specialist\Veterans Justice Outreach (VJO) Specialist</t>
+  </si>
+  <si>
+    <t>PIE logo.PNG</t>
+  </si>
+  <si>
+    <t>Preliminary PIE Manual_Peer Companion_v 10-31-18.docx</t>
+  </si>
+  <si>
+    <t>Simmons et al_BMC Health Services Research_2017.pdf</t>
+  </si>
+  <si>
+    <t>Kim et al_Health &amp; Justice_2019.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12913-017-2572-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40352-019-0085-x</t>
+  </si>
+  <si>
+    <t>Connecticut VA is currently implementing PIE - the second state to implement this practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 27 is missing from the survey monkey form.  </t>
+  </si>
+  <si>
     <t>152.133.8.202</t>
   </si>
   <si>
@@ -996,9 +1266,6 @@
     <t>3. National Diffusion - Endorsed by a national program office for national dissemination and/or has been implemented at greater than 20% of VA facilities or other defined target market.</t>
   </si>
   <si>
-    <t>3-6 months</t>
-  </si>
-  <si>
     <t>Lack of data collection from field</t>
   </si>
   <si>
@@ -1014,15 +1281,6 @@
     <t>1. Little to no complexity</t>
   </si>
   <si>
-    <t>2. Two departments</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Modification of an established process</t>
-  </si>
-  <si>
     <t>Nursing Staff</t>
   </si>
   <si>
@@ -1035,7 +1293,7 @@
     <t>At most $300 for oral care supplies, no development or sustainment cost</t>
   </si>
   <si>
-    <t>Happen_PracticeOrigin.jpg</t>
+    <t>Happen_PracticeOrigin.png</t>
   </si>
   <si>
     <t>A life-saving initiative called Project HAPPEN (Hospital Acquired Pneumonia Prevention by Engaging Nurses) first took root seven years ago with VHA’s Dr. Shannon Munro’s idea: prevention. Plaque on a patient’s teeth acts like “sticky sandpaper” irritating the mouth and producing bacteria that can easily travel down the throat and into the lungs causing pneumonia.    Leading this prevention effort and ensuring its adoption and diffusion across VHA has accelerated the past two years in VHA’s imbedded culture of innovation. Project HAPPEN is an Innovation Ecosystem success story illustrative of VHA’s transition into a high reliability organization best exemplified by Calvin Crane, a 102-year-old World War II Veteran. Munro fondly recalls Crane in his wheelchair being wheeled down a Salem (Virginia) VA Medical Center hallway when he spied a Project HAPPEN poster on a wall. “I have to hurry back to my room to brush my teeth, so I don’t get pneumonia,” he says. It was a gratifying moment to see an idea in motion, especially because Munro knows that hospital-acquired pneumonia is a significant risk for patients—particularly elderly ones.</t>
@@ -1107,9 +1365,6 @@
     <t>Vha_691</t>
   </si>
   <si>
-    <t>1. Pilot - This practice is in the process of initial implementation to assess feasibility and impact at no more than 1-5 facilities.</t>
-  </si>
-  <si>
     <t>6-12 months</t>
   </si>
   <si>
@@ -1170,15 +1425,9 @@
     <t>2. $10,000 - $50,000</t>
   </si>
   <si>
-    <t>2. Some complexity</t>
-  </si>
-  <si>
     <t>3. Three departments</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>New Clinical Approach or New Process</t>
   </si>
   <si>
@@ -1422,9 +1671,6 @@
     <t>Program provides communication templates in consultation for health IT challenges</t>
   </si>
   <si>
-    <t>3. $50,000 - $250,000</t>
-  </si>
-  <si>
     <t>1. Single department</t>
   </si>
   <si>
@@ -1443,9 +1689,6 @@
     <t>as needed</t>
   </si>
   <si>
-    <t>Permanent</t>
-  </si>
-  <si>
     <t>Duration will vary as appropriate</t>
   </si>
   <si>
@@ -2634,57 +2877,6 @@
     <t xml:space="preserve">Any clinical staff can do REACH VA, either as a adjunct duty or a gull-time job.  For that reason, the questions on time and money required were difficult to answer. </t>
   </si>
   <si>
-    <t>Healthy Mouth. Healthy Body: Regular tooth brushing lowers the number of germs</t>
-  </si>
-  <si>
-    <t>Brushing your teeth lowers your chances of developing hospital acquired pneumonia by 40-60%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To reduce the risk of pneumonia, Project HAPPEN encourages staff to assist Veterans in tooth brushing for and with Veterans. Project HAPPEN stands for Hospital-Acquired Pneumonia Prevention by Engaging Nurses to complete oral care. This oral care practice is low cost to implement and saves the VA money by avoiding long hospital stays and reducing deaths. By encouraging tooth brushing, Project HAPPEN can decrease hospital acquired pneumonia by more than 40% and reduce costs by $40,000 per case. In addition to saving the VA money, Project HAPPEN is saving Veteran lives. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shannon Munro - Creator of the Practice </t>
-  </si>
-  <si>
-    <t>01/01/2016</t>
-  </si>
-  <si>
-    <t>https://www.va.gov/find-locations/facility/vha_658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office of Nursing Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistent data collection </t>
-  </si>
-  <si>
-    <t>Mitigate risk by working with National Stakeholders to establish a directive for all new implementation sites to collect data for at least 12 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care Supplies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A life-saving initiative called Project HAPPEN (Hospital Acquired Pneumonia Prevention by Engaging Nurses) first took root seven years ago with VHA’s Dr. Shannon Munro’s idea: prevention. Plaque on a patient’s teeth acts like “sticky sandpaper” irritating the mouth and producing bacteria that can easily travel down the throat and into the lungs causing pneumonia.  Leading this prevention effort and ensuring its adoption and diffusion across VHA has accelerated the past two years in VHA’s imbedded culture of innovation. Project HAPPEN is an Innovation Ecosystem success story illustrative of VHA’s transition into a high reliability organization best exemplified by Calvin Crane, a 102-year-old World War II Veteran. Munro fondly recalls Crane in his wheelchair being wheeled down a Salem (Virginia) VA Medical Center hallway when he spied a Project HAPPEN poster on a wall. “I have to hurry back to my room to brush my teeth, so I don’t get pneumonia,” he says. It was a gratifying moment to see an idea in motion, especially because Munro knows that hospital-acquired pneumonia is a significant risk for patients—particularly elderly ones.  </t>
-  </si>
-  <si>
-    <t>PIc_Impact1_edited.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devin Harrison/Diffusion Specialist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiela Sullivan/Office of Nursing Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medial Surgical Units </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentist </t>
-  </si>
-  <si>
     <t>76.240.37.244</t>
   </si>
   <si>
@@ -2718,9 +2910,6 @@
     <t>Identify Practice Champion and implementation team</t>
   </si>
   <si>
-    <t>Month 1</t>
-  </si>
-  <si>
     <t>Define project scope (e.g., via Project Charter)</t>
   </si>
   <si>
@@ -3153,37 +3342,43 @@
     <t>Depends on local facility policy</t>
   </si>
   <si>
+    <t>RapidNaloxone_PracticeOrigin.png</t>
+  </si>
+  <si>
+    <t>Pam Bellino started with one AED cabinet in 2016, and kept adding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was at least 10 minutes from the time a housekeeper pushed into a bathroom on the Brockton VA campus and found a man on the floor to the time paramedics arrived.    They used naloxone, common brand name Narcan, to reverse the man's opioid overdose. Brain damage can begin after just five minutes without oxygen. Pam Bellino, patient safety manager for VA Boston, which includes Brockton, read the incident report back in December 2015 with alarm.    "That was the tipping point for us to say, 'We need to get this naloxone immediately available, without locking it up,' " she said.    The easiest way to make naloxone immediately available, Bellino reasoned, would be to add the drug to AED cabinets — those metal boxes on the walls of VA cafeterias, gyms, warehouses, clinic waiting rooms and some rehab housing.  https://www.wbur.org/commonhealth/2018/09/19/boston-va-narcan-aed-boxes  </t>
+  </si>
+  <si>
+    <t>Impact1_Naloxone.png</t>
+  </si>
+  <si>
+    <t>vharapidnaloxone@va.gov</t>
+  </si>
+  <si>
+    <t>Pam Bellino \ Patient Safety Manager</t>
+  </si>
+  <si>
+    <t>Mary Burkhardt \ Pharmacy Executive National Center for Patient Safety</t>
+  </si>
+  <si>
+    <t>Dr. Jennifer Burden \ Deputy Director, MH RRTP</t>
+  </si>
+  <si>
+    <t>Carl McCoy \ Diffusion Specialist</t>
+  </si>
+  <si>
+    <t>Olivia_SquareHeadshot.png</t>
+  </si>
+  <si>
     <t>Pam Bellino.jpg</t>
   </si>
   <si>
-    <t>Pam Bellino started with one AED cabinet in 2016, and kept adding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was at least 10 minutes from the time a housekeeper pushed into a bathroom on the Brockton VA campus and found a man on the floor to the time paramedics arrived.    They used naloxone, common brand name Narcan, to reverse the man's opioid overdose. Brain damage can begin after just five minutes without oxygen. Pam Bellino, patient safety manager for VA Boston, which includes Brockton, read the incident report back in December 2015 with alarm.    "That was the tipping point for us to say, 'We need to get this naloxone immediately available, without locking it up,' " she said.    The easiest way to make naloxone immediately available, Bellino reasoned, would be to add the drug to AED cabinets — those metal boxes on the walls of VA cafeterias, gyms, warehouses, clinic waiting rooms and some rehab housing.  https://www.wbur.org/commonhealth/2018/09/19/boston-va-narcan-aed-boxes  </t>
-  </si>
-  <si>
-    <t>vharapidnaloxone@va.gov</t>
-  </si>
-  <si>
-    <t>Pam Bellino \ Patient Safety Manager</t>
-  </si>
-  <si>
-    <t>Mary Burkhardt \ Pharmacy Executive National Center for Patient Safety</t>
-  </si>
-  <si>
-    <t>Dr. Jennifer Burden \ Deputy Director, MH RRTP</t>
-  </si>
-  <si>
-    <t>Carl McCoy \ Diffusion Specialist</t>
-  </si>
-  <si>
-    <t>Oliva.jpg</t>
-  </si>
-  <si>
     <t>Mary Burkhardt.jpg</t>
   </si>
   <si>
-    <t>Profile.jpg</t>
+    <t>CarlMcCoy_SquareHeadshot.png</t>
   </si>
   <si>
     <t>Opioid Abuse</t>
@@ -4321,62 +4516,6 @@
   </si>
   <si>
     <t>https://www.vapulse.net/groups/flow3</t>
-  </si>
-  <si>
-    <t>66.41.83.211</t>
-  </si>
-  <si>
-    <t>tom@skylight.digital</t>
-  </si>
-  <si>
-    <t>HAPPEN</t>
-  </si>
-  <si>
-    <t>Prevent pneumonia with oral care</t>
-  </si>
-  <si>
-    <t>Preventing non-ventilator associated hospital-acquired pneumonia (NV-HAP)</t>
-  </si>
-  <si>
-    <t>This practice ensures inpatient, non-ventilator Veterans receive oral care by providing consistent staff training, educating patients on oral care and its association with pneumonia, and standardizing the procurement process for obtaining oral care supplies. HAPPEN is low cost to implement (less than $5.00 per patient for oral care supplies), has a high return on investment, and enhances the quality of care provided to Veterans. Nurses. By engaging Veterans in proper oral care practices, nurses can teach Veterans about the importance of good oral hygiene, and its ability to reduce Veterans’ hospital stays, while reducing the risk of readmission.</t>
-  </si>
-  <si>
-    <t>Dr. Shannon Munro/Team Lead</t>
-  </si>
-  <si>
-    <t>Sheila Cox Sullivan, PHD RN/Director, Research EBP &amp; Analytics</t>
-  </si>
-  <si>
-    <t>Devin Harrison/Diffusion Specialist</t>
-  </si>
-  <si>
-    <t>vha_658</t>
-  </si>
-  <si>
-    <t>Office of Nursing Services\VA Dentistry</t>
-  </si>
-  <si>
-    <t>Non reporting and inconsistencies in reporting can make it hard to tell if the practice is being used correctly</t>
-  </si>
-  <si>
-    <t>Utilize template to collect and report data. Requirement for diligent and transparent data collection</t>
-  </si>
-  <si>
-    <t>This can result in the practice not being diffused</t>
-  </si>
-  <si>
-    <t>Celebrate success to give relevance to the data</t>
-  </si>
-  <si>
-    <t>Project HAPPEN started at the Salem VAMC (Salem, VA) and has been replicated at the Michael E. DeBakey VAMC (Houston, TX) through facilitated implementation with the Diffusion of Excellence. It is currently being implemented across VISN 6 Community Living Center (CLC) and medical-surgical inpatient units. - -Shannon Munro is a Nurse Researcher and Family Nurse Practitioner at Salem VAMC. She’s been with VA for over 15 years, caring for Veterans and conducting research directed toward the improvement of Veteran healthcare.</t>
-  </si>
-  <si>
-    <t>Devin Harrison, Diffusion Specialist</t>
-  </si>
-  <si>
-    <t>https://www.vapulse.net/ groups/project-happen</t>
   </si>
 </sst>
 </file>
@@ -6059,124 +6198,265 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.0742843257E10</v>
+        <v>1.0749041409E10</v>
       </c>
       <c r="B3">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C3" s="2">
-        <v>43605.4338425926</v>
+        <v>43607.5493287037</v>
       </c>
       <c r="D3" s="2">
-        <v>43607.45122685185</v>
+        <v>43607.65381944444</v>
       </c>
       <c r="E3" t="s">
         <v>317</v>
       </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
       <c r="J3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O3" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="P3" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" t="s">
+        <v>328</v>
       </c>
       <c r="T3" t="s">
-        <v>324</v>
-      </c>
-      <c r="U3" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="U3">
+        <v>518.0</v>
       </c>
       <c r="V3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="W3">
-        <v>37.0</v>
+        <v>2.0</v>
       </c>
       <c r="X3">
         <v>0.0</v>
       </c>
       <c r="Y3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>110</v>
+        <v>331</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>344</v>
       </c>
       <c r="AS3" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" t="s">
-        <v>114</v>
+      <c r="BA3" t="s">
+        <v>345</v>
       </c>
       <c r="BB3" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="BC3" t="s">
-        <v>329</v>
+        <v>347</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>348</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>349</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>351</v>
       </c>
       <c r="BH3" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="BI3" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="BJ3" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="BK3" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM3" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN3" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="BO3" t="s">
-        <v>337</v>
+        <v>358</v>
+      </c>
+      <c r="BS3">
+        <v>40.0</v>
+      </c>
+      <c r="BT3">
+        <v>4.0</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>359</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>359</v>
       </c>
       <c r="CC3" t="s">
-        <v>338</v>
+        <v>360</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>361</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>362</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>363</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>364</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>365</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>366</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>367</v>
       </c>
       <c r="CQ3" t="s">
-        <v>339</v>
+        <v>368</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>369</v>
       </c>
       <c r="CW3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC3" t="s">
-        <v>340</v>
+        <v>370</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>371</v>
       </c>
       <c r="DE3" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="DF3" t="s">
-        <v>342</v>
+        <v>373</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>374</v>
       </c>
       <c r="DH3" t="s">
-        <v>343</v>
+        <v>375</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>376</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>377</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>378</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>379</v>
       </c>
       <c r="DP3" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="DQ3" t="s">
-        <v>345</v>
+        <v>380</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>383</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>384</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>386</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>370</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>387</v>
       </c>
       <c r="DZ3" t="s">
         <v>157</v>
@@ -6184,414 +6464,306 @@
       <c r="EA3" t="s">
         <v>158</v>
       </c>
-      <c r="EB3" t="s">
-        <v>159</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>165</v>
+      <c r="EC3" t="s">
+        <v>160</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>161</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>162</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>168</v>
       </c>
       <c r="EQ3" t="s">
-        <v>346</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>203</v>
-      </c>
-      <c r="GT3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FW3" t="s">
         <v>119</v>
       </c>
-      <c r="HG3" t="s">
-        <v>212</v>
-      </c>
-      <c r="HO3" t="s">
+      <c r="GE3" t="s">
+        <v>184</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>389</v>
+      </c>
+      <c r="HH3" t="s">
         <v>119</v>
       </c>
-      <c r="JQ3" t="s">
-        <v>261</v>
-      </c>
-      <c r="LO3" t="s">
-        <v>302</v>
-      </c>
-      <c r="LZ3" t="s">
-        <v>311</v>
+      <c r="HQ3" t="s">
+        <v>390</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>391</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>392</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>393</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>394</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>395</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>223</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>236</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>239</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>223</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>247</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>248</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>249</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>250</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>251</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>259</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>396</v>
+      </c>
+      <c r="LD3" t="s">
+        <v>295</v>
+      </c>
+      <c r="LM3" t="s">
+        <v>301</v>
+      </c>
+      <c r="LP3" t="s">
+        <v>397</v>
+      </c>
+      <c r="MA3" t="s">
+        <v>398</v>
       </c>
       <c r="MB3" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="MI3" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="MK3" t="s">
-        <v>349</v>
+        <v>355</v>
+      </c>
+      <c r="ML3" t="s">
+        <v>401</v>
+      </c>
+      <c r="MM3" t="s">
+        <v>402</v>
+      </c>
+      <c r="MN3" t="s">
+        <v>403</v>
+      </c>
+      <c r="MO3" t="s">
+        <v>404</v>
+      </c>
+      <c r="MS3" t="s">
+        <v>405</v>
+      </c>
+      <c r="MT3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.0739996834E10</v>
+        <v>1.0742843257E10</v>
       </c>
       <c r="B4">
-        <v>2.33326486E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C4" s="2">
-        <v>43603.49221064815</v>
+        <v>43605.4338425926</v>
       </c>
       <c r="D4" s="2">
-        <v>43607.36957175926</v>
+        <v>43607.61747685185</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="K4" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="L4" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="M4" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="N4" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="O4" t="s">
-        <v>357</v>
-      </c>
-      <c r="P4" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>359</v>
-      </c>
-      <c r="R4" t="s">
-        <v>360</v>
-      </c>
-      <c r="S4" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="T4" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="U4" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="V4" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="W4">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
       <c r="X4">
         <v>0.0</v>
       </c>
       <c r="Y4" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>373</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>375</v>
+        <v>331</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>110</v>
       </c>
       <c r="AS4" t="s">
         <v>113</v>
       </c>
-      <c r="BA4" t="s">
-        <v>377</v>
+      <c r="AT4" t="s">
+        <v>114</v>
       </c>
       <c r="BB4" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="BC4" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>381</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>382</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="BH4" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="BI4" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="BJ4" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="BK4" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="BL4" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="BM4" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="BN4" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="BO4" t="s">
-        <v>390</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>391</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>392</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>393</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>394</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>395</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>396</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>397</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>397</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>398</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>398</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>398</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>399</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="CC4" t="s">
-        <v>400</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>401</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>392</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>402</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>403</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="CQ4" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="CW4" t="s">
-        <v>334</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>405</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>406</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>407</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="DC4" t="s">
-        <v>409</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="DE4" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="DF4" t="s">
-        <v>412</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="DH4" t="s">
-        <v>414</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>415</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>416</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>417</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>418</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>419</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="DP4" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="DQ4" t="s">
-        <v>422</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>423</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="DZ4" t="s">
         <v>157</v>
       </c>
-      <c r="EC4" t="s">
-        <v>160</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>164</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>174</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>175</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>178</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>206</v>
+      <c r="EA4" t="s">
+        <v>158</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>165</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>432</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>203</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>119</v>
       </c>
       <c r="HG4" t="s">
         <v>212</v>
       </c>
-      <c r="HP4" t="s">
-        <v>218</v>
-      </c>
-      <c r="JE4" t="s">
-        <v>252</v>
+      <c r="HO4" t="s">
+        <v>119</v>
       </c>
       <c r="JQ4" t="s">
         <v>261</v>
       </c>
-      <c r="LD4" t="s">
-        <v>295</v>
-      </c>
-      <c r="LQ4" t="s">
-        <v>303</v>
-      </c>
-      <c r="LR4" t="s">
-        <v>304</v>
-      </c>
-      <c r="LT4" t="s">
-        <v>306</v>
+      <c r="LO4" t="s">
+        <v>302</v>
+      </c>
+      <c r="LZ4" t="s">
+        <v>311</v>
       </c>
       <c r="MB4" t="s">
-        <v>425</v>
-      </c>
-      <c r="MC4" t="s">
-        <v>426</v>
-      </c>
-      <c r="MD4" t="s">
-        <v>427</v>
-      </c>
-      <c r="ME4" t="s">
-        <v>428</v>
-      </c>
-      <c r="MF4" t="s">
-        <v>429</v>
-      </c>
-      <c r="MG4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="MI4" t="s">
-        <v>431</v>
-      </c>
-      <c r="MJ4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="MK4" t="s">
-        <v>433</v>
-      </c>
-      <c r="ML4" t="s">
-        <v>434</v>
-      </c>
-      <c r="MN4" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.0738602185E10</v>
+        <v>1.0739996834E10</v>
       </c>
       <c r="B5">
         <v>2.33326486E8</v>
       </c>
       <c r="C5" s="2">
-        <v>43602.46909722222</v>
+        <v>43603.49221064815</v>
       </c>
       <c r="D5" s="2">
-        <v>43607.43748842592</v>
+        <v>43607.36957175926</v>
       </c>
       <c r="E5" t="s">
         <v>436</v>
@@ -6636,13 +6808,13 @@
         <v>449</v>
       </c>
       <c r="V5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="W5">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="X5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5" t="s">
         <v>450</v>
@@ -6681,10 +6853,13 @@
         <v>461</v>
       </c>
       <c r="AL5" t="s">
+        <v>460</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA5" t="s">
         <v>462</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>109</v>
       </c>
       <c r="BB5" t="s">
         <v>463</v>
@@ -6708,82 +6883,88 @@
         <v>469</v>
       </c>
       <c r="BI5" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ5" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK5" t="s">
         <v>470</v>
       </c>
       <c r="BL5" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM5" t="s">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="BN5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BO5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BP5" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>475</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>476</v>
       </c>
       <c r="BS5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BT5" t="s">
+        <v>478</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>479</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>480</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>480</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>481</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>481</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>481</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>482</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>482</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>483</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>484</v>
+      </c>
+      <c r="CI5" t="s">
         <v>475</v>
       </c>
-      <c r="BU5" t="s">
-        <v>475</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>476</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>477</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>477</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>478</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>479</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>480</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>481</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>482</v>
-      </c>
-      <c r="CH5" t="s">
+      <c r="CN5" t="s">
+        <v>485</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>486</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>487</v>
+      </c>
+      <c r="CQ5" t="s">
         <v>483</v>
       </c>
-      <c r="CI5" t="s">
-        <v>484</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>456</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>485</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>486</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>487</v>
-      </c>
       <c r="CW5" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CX5" t="s">
         <v>488</v>
@@ -6794,43 +6975,43 @@
       <c r="CZ5" t="s">
         <v>490</v>
       </c>
+      <c r="DA5" t="s">
+        <v>491</v>
+      </c>
       <c r="DC5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="DD5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="DE5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="DF5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="DG5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="DH5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="DI5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="DJ5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="DK5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="DL5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="DM5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="DN5" t="s">
-        <v>502</v>
-      </c>
-      <c r="DO5" t="s">
         <v>503</v>
       </c>
       <c r="DP5" t="s">
@@ -6839,32 +7020,23 @@
       <c r="DQ5" t="s">
         <v>505</v>
       </c>
-      <c r="DR5" t="s">
+      <c r="DU5" t="s">
         <v>506</v>
       </c>
-      <c r="DU5" t="s">
+      <c r="DV5" t="s">
         <v>507</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>508</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>509</v>
       </c>
       <c r="DZ5" t="s">
         <v>157</v>
       </c>
-      <c r="EA5" t="s">
-        <v>158</v>
-      </c>
       <c r="EC5" t="s">
         <v>160</v>
       </c>
-      <c r="ED5" t="s">
-        <v>161</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>172</v>
+      <c r="EG5" t="s">
+        <v>164</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>168</v>
       </c>
       <c r="ES5" t="s">
         <v>174</v>
@@ -6872,26 +7044,17 @@
       <c r="ET5" t="s">
         <v>175</v>
       </c>
-      <c r="EU5" t="s">
-        <v>176</v>
-      </c>
       <c r="EW5" t="s">
         <v>178</v>
       </c>
-      <c r="FE5" t="s">
-        <v>186</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>193</v>
-      </c>
       <c r="GS5" t="s">
         <v>206</v>
       </c>
       <c r="HG5" t="s">
         <v>212</v>
       </c>
-      <c r="HJ5" t="s">
-        <v>213</v>
+      <c r="HP5" t="s">
+        <v>218</v>
       </c>
       <c r="JE5" t="s">
         <v>252</v>
@@ -6899,199 +7062,157 @@
       <c r="JQ5" t="s">
         <v>261</v>
       </c>
-      <c r="JT5" t="s">
-        <v>263</v>
-      </c>
-      <c r="KC5" t="s">
-        <v>272</v>
-      </c>
-      <c r="KD5" t="s">
-        <v>273</v>
-      </c>
-      <c r="KI5" t="s">
-        <v>278</v>
-      </c>
-      <c r="KR5" t="s">
-        <v>285</v>
-      </c>
-      <c r="KX5" t="s">
-        <v>291</v>
-      </c>
       <c r="LD5" t="s">
         <v>295</v>
       </c>
-      <c r="LE5" t="s">
-        <v>256</v>
-      </c>
-      <c r="LI5" t="s">
-        <v>299</v>
-      </c>
-      <c r="LM5" t="s">
-        <v>301</v>
-      </c>
       <c r="LQ5" t="s">
         <v>303</v>
       </c>
       <c r="LR5" t="s">
         <v>304</v>
       </c>
-      <c r="LS5" t="s">
-        <v>305</v>
-      </c>
       <c r="LT5" t="s">
         <v>306</v>
       </c>
-      <c r="LU5" t="s">
-        <v>307</v>
-      </c>
-      <c r="LV5" t="s">
-        <v>308</v>
-      </c>
-      <c r="LW5" t="s">
-        <v>309</v>
-      </c>
-      <c r="LX5" t="s">
-        <v>310</v>
-      </c>
       <c r="MB5" t="s">
+        <v>508</v>
+      </c>
+      <c r="MC5" t="s">
+        <v>509</v>
+      </c>
+      <c r="MD5" t="s">
         <v>510</v>
       </c>
-      <c r="MC5" t="s">
+      <c r="ME5" t="s">
         <v>511</v>
       </c>
-      <c r="MD5" t="s">
+      <c r="MF5" t="s">
         <v>512</v>
       </c>
-      <c r="ME5" t="s">
+      <c r="MG5" t="s">
         <v>513</v>
       </c>
-      <c r="MF5" t="s">
+      <c r="MI5" t="s">
         <v>514</v>
       </c>
-      <c r="MG5" t="s">
+      <c r="MJ5" t="s">
         <v>515</v>
       </c>
-      <c r="MH5" t="s">
+      <c r="MK5" t="s">
         <v>516</v>
       </c>
+      <c r="ML5" t="s">
+        <v>517</v>
+      </c>
       <c r="MN5" t="s">
-        <v>517</v>
-      </c>
-      <c r="MO5" t="s">
         <v>518</v>
-      </c>
-      <c r="MP5" t="s">
-        <v>519</v>
-      </c>
-      <c r="MQ5" t="s">
-        <v>520</v>
-      </c>
-      <c r="MS5" t="s">
-        <v>521</v>
-      </c>
-      <c r="MT5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.0737592918E10</v>
+        <v>1.0738602185E10</v>
       </c>
       <c r="B6">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C6" s="2">
-        <v>43602.23665509259</v>
+        <v>43602.46909722222</v>
       </c>
       <c r="D6" s="2">
-        <v>43607.44653935185</v>
+        <v>43607.43748842592</v>
       </c>
       <c r="E6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J6" t="s">
+        <v>521</v>
+      </c>
+      <c r="K6" t="s">
+        <v>522</v>
+      </c>
+      <c r="L6" t="s">
         <v>523</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>524</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>525</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>526</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>527</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>528</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>529</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>530</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>531</v>
       </c>
-      <c r="R6" t="s">
+      <c r="U6" t="s">
         <v>532</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
+        <v>416</v>
+      </c>
+      <c r="W6">
+        <v>11.0</v>
+      </c>
+      <c r="X6">
+        <v>1.0</v>
+      </c>
+      <c r="Y6" t="s">
         <v>533</v>
       </c>
-      <c r="T6" t="s">
-        <v>324</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>534</v>
       </c>
-      <c r="V6" t="s">
-        <v>326</v>
-      </c>
-      <c r="W6">
-        <v>44.0</v>
-      </c>
-      <c r="X6">
-        <v>5.0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>535</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>536</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>537</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>538</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>539</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>540</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>541</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>542</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>543</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>544</v>
       </c>
-      <c r="AS6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA6" t="s">
+      <c r="AL6" t="s">
         <v>545</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>109</v>
       </c>
       <c r="BB6" t="s">
         <v>546</v>
@@ -7112,172 +7233,184 @@
         <v>551</v>
       </c>
       <c r="BH6" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="BI6" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="BJ6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK6" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL6" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="BM6" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BO6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BP6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS6">
-        <v>4.0</v>
-      </c>
-      <c r="BT6">
-        <v>2.0</v>
-      </c>
-      <c r="BU6">
-        <v>2.0</v>
-      </c>
-      <c r="BV6">
-        <v>2.0</v>
-      </c>
-      <c r="BW6">
-        <v>2.0</v>
+        <v>555</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>556</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>557</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>557</v>
       </c>
       <c r="BX6" t="s">
-        <v>554</v>
+        <v>359</v>
       </c>
       <c r="BY6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="BZ6" t="s">
-        <v>554</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>554</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="CC6" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="CD6" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="CE6" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="CF6" t="s">
-        <v>558</v>
+        <v>562</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>563</v>
       </c>
       <c r="CH6" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="CI6" t="s">
-        <v>552</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>553</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>553</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>553</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="CN6" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="CO6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="CP6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="CQ6" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="CW6" t="s">
-        <v>334</v>
+        <v>355</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>569</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>570</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>571</v>
       </c>
       <c r="DC6" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="DD6" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="DE6" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="DF6" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="DG6" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="DH6" t="s">
-        <v>568</v>
+        <v>577</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>578</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>579</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>580</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>581</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>582</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>583</v>
       </c>
       <c r="DO6" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="DP6" t="s">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="DQ6" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="DR6" t="s">
-        <v>531</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>532</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
       <c r="DU6" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="DV6" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="DW6" t="s">
-        <v>572</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>573</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>574</v>
+        <v>590</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>157</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>158</v>
       </c>
       <c r="EC6" t="s">
         <v>160</v>
       </c>
+      <c r="ED6" t="s">
+        <v>161</v>
+      </c>
       <c r="EP6" t="s">
         <v>172</v>
       </c>
-      <c r="FV6" t="s">
-        <v>203</v>
+      <c r="ES6" t="s">
+        <v>174</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>175</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>178</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>186</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>193</v>
       </c>
       <c r="GS6" t="s">
         <v>206</v>
@@ -7285,8 +7418,8 @@
       <c r="HG6" t="s">
         <v>212</v>
       </c>
-      <c r="HP6" t="s">
-        <v>218</v>
+      <c r="HJ6" t="s">
+        <v>213</v>
       </c>
       <c r="JE6" t="s">
         <v>252</v>
@@ -7294,483 +7427,621 @@
       <c r="JQ6" t="s">
         <v>261</v>
       </c>
-      <c r="LO6" t="s">
-        <v>302</v>
-      </c>
-      <c r="LZ6" t="s">
-        <v>311</v>
+      <c r="JT6" t="s">
+        <v>263</v>
+      </c>
+      <c r="KC6" t="s">
+        <v>272</v>
+      </c>
+      <c r="KD6" t="s">
+        <v>273</v>
+      </c>
+      <c r="KI6" t="s">
+        <v>278</v>
+      </c>
+      <c r="KR6" t="s">
+        <v>285</v>
+      </c>
+      <c r="KX6" t="s">
+        <v>291</v>
+      </c>
+      <c r="LD6" t="s">
+        <v>295</v>
+      </c>
+      <c r="LE6" t="s">
+        <v>256</v>
+      </c>
+      <c r="LI6" t="s">
+        <v>299</v>
+      </c>
+      <c r="LM6" t="s">
+        <v>301</v>
+      </c>
+      <c r="LQ6" t="s">
+        <v>303</v>
+      </c>
+      <c r="LR6" t="s">
+        <v>304</v>
+      </c>
+      <c r="LS6" t="s">
+        <v>305</v>
+      </c>
+      <c r="LT6" t="s">
+        <v>306</v>
+      </c>
+      <c r="LU6" t="s">
+        <v>307</v>
+      </c>
+      <c r="LV6" t="s">
+        <v>308</v>
+      </c>
+      <c r="LW6" t="s">
+        <v>309</v>
+      </c>
+      <c r="LX6" t="s">
+        <v>310</v>
       </c>
       <c r="MB6" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="MC6" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="MD6" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="ME6" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="MF6" t="s">
-        <v>579</v>
-      </c>
-      <c r="MI6" t="s">
-        <v>580</v>
-      </c>
-      <c r="MJ6" t="s">
-        <v>581</v>
-      </c>
-      <c r="MK6" t="s">
-        <v>582</v>
-      </c>
-      <c r="ML6" t="s">
-        <v>583</v>
+        <v>595</v>
+      </c>
+      <c r="MG6" t="s">
+        <v>596</v>
+      </c>
+      <c r="MH6" t="s">
+        <v>597</v>
       </c>
       <c r="MN6" t="s">
-        <v>584</v>
+        <v>598</v>
+      </c>
+      <c r="MO6" t="s">
+        <v>599</v>
+      </c>
+      <c r="MP6" t="s">
+        <v>600</v>
       </c>
       <c r="MQ6" t="s">
-        <v>585</v>
-      </c>
-      <c r="MR6" t="s">
-        <v>586</v>
+        <v>601</v>
+      </c>
+      <c r="MS6" t="s">
+        <v>602</v>
+      </c>
+      <c r="MT6" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1.0737530206E10</v>
+        <v>1.0737592918E10</v>
       </c>
       <c r="B7">
         <v>2.26101601E8</v>
       </c>
       <c r="C7" s="2">
-        <v>43602.20869212963</v>
+        <v>43602.23665509259</v>
       </c>
       <c r="D7" s="2">
-        <v>43607.55125</v>
+        <v>43607.44653935185</v>
       </c>
       <c r="E7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="J7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="K7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="L7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="M7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="N7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="O7" t="s">
-        <v>593</v>
+        <v>610</v>
+      </c>
+      <c r="P7" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>612</v>
+      </c>
+      <c r="R7" t="s">
+        <v>613</v>
+      </c>
+      <c r="S7" t="s">
+        <v>614</v>
       </c>
       <c r="T7" t="s">
-        <v>594</v>
+        <v>414</v>
       </c>
       <c r="U7" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="V7" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
       <c r="W7">
-        <v>6.0</v>
+        <v>44.0</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y7" t="s">
         <v>450</v>
       </c>
       <c r="AA7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="AB7" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="AC7" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="AD7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="AE7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="AF7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="AG7" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="AH7" t="s">
-        <v>603</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>115</v>
+        <v>623</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>624</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>625</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>626</v>
       </c>
       <c r="BB7" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="BC7" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="BD7" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="BE7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="BF7" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="BG7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="BH7" t="s">
-        <v>330</v>
+        <v>469</v>
       </c>
       <c r="BI7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="BJ7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="BK7" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="BN7" t="s">
+        <v>633</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BS7">
+        <v>4.0</v>
+      </c>
+      <c r="BT7">
+        <v>2.0</v>
+      </c>
+      <c r="BU7">
+        <v>2.0</v>
+      </c>
+      <c r="BV7">
+        <v>2.0</v>
+      </c>
+      <c r="BW7">
+        <v>2.0</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>635</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>635</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>636</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>637</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>638</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>639</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>640</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>633</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>641</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>642</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>643</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>355</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>644</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>645</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>646</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>647</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>648</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>649</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>650</v>
+      </c>
+      <c r="DP7" t="s">
         <v>610</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="DQ7" t="s">
         <v>611</v>
       </c>
-      <c r="BX7" t="s">
-        <v>476</v>
-      </c>
-      <c r="CH7" t="s">
+      <c r="DR7" t="s">
         <v>612</v>
       </c>
-      <c r="CI7" t="s">
-        <v>610</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>600</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>334</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>334</v>
-      </c>
-      <c r="DD7" t="s">
+      <c r="DS7" t="s">
         <v>613</v>
       </c>
-      <c r="DE7" t="s">
+      <c r="DT7" t="s">
         <v>614</v>
       </c>
-      <c r="DF7" t="s">
-        <v>615</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>616</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>617</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>618</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>619</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>157</v>
+      <c r="DU7" t="s">
+        <v>651</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>652</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>653</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>654</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>655</v>
       </c>
       <c r="EC7" t="s">
         <v>160</v>
       </c>
-      <c r="EO7" t="s">
-        <v>119</v>
-      </c>
-      <c r="FW7" t="s">
-        <v>119</v>
-      </c>
-      <c r="GT7" t="s">
-        <v>119</v>
-      </c>
-      <c r="HH7" t="s">
-        <v>119</v>
-      </c>
-      <c r="HO7" t="s">
-        <v>119</v>
-      </c>
-      <c r="JF7" t="s">
-        <v>119</v>
-      </c>
-      <c r="JJ7" t="s">
-        <v>256</v>
-      </c>
-      <c r="JU7" t="s">
-        <v>264</v>
-      </c>
-      <c r="LC7" t="s">
-        <v>294</v>
-      </c>
-      <c r="LD7" t="s">
-        <v>295</v>
-      </c>
-      <c r="LE7" t="s">
-        <v>256</v>
-      </c>
-      <c r="LV7" t="s">
-        <v>308</v>
+      <c r="EP7" t="s">
+        <v>172</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>203</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>206</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>212</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>218</v>
+      </c>
+      <c r="JE7" t="s">
+        <v>252</v>
+      </c>
+      <c r="JQ7" t="s">
+        <v>261</v>
+      </c>
+      <c r="LO7" t="s">
+        <v>302</v>
+      </c>
+      <c r="LZ7" t="s">
+        <v>311</v>
+      </c>
+      <c r="MB7" t="s">
+        <v>656</v>
       </c>
       <c r="MC7" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="MD7" t="s">
-        <v>621</v>
+        <v>658</v>
+      </c>
+      <c r="ME7" t="s">
+        <v>659</v>
+      </c>
+      <c r="MF7" t="s">
+        <v>660</v>
+      </c>
+      <c r="MI7" t="s">
+        <v>661</v>
+      </c>
+      <c r="MJ7" t="s">
+        <v>662</v>
       </c>
       <c r="MK7" t="s">
-        <v>620</v>
+        <v>663</v>
+      </c>
+      <c r="ML7" t="s">
+        <v>664</v>
+      </c>
+      <c r="MN7" t="s">
+        <v>665</v>
+      </c>
+      <c r="MQ7" t="s">
+        <v>666</v>
+      </c>
+      <c r="MR7" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.0734974352E10</v>
+        <v>1.0737530206E10</v>
       </c>
       <c r="B8">
-        <v>2.33326486E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C8" s="2">
-        <v>43601.2716087963</v>
+        <v>43602.20869212963</v>
       </c>
       <c r="D8" s="2">
-        <v>43606.39302083333</v>
+        <v>43607.55125</v>
       </c>
       <c r="E8" t="s">
-        <v>622</v>
-      </c>
-      <c r="F8" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="J8" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="K8" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="L8" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="M8" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="N8" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="O8" t="s">
-        <v>628</v>
-      </c>
-      <c r="P8" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>630</v>
-      </c>
-      <c r="R8" t="s">
-        <v>631</v>
-      </c>
-      <c r="S8" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="T8" t="s">
-        <v>633</v>
-      </c>
-      <c r="U8">
-        <v>642.0</v>
+        <v>675</v>
+      </c>
+      <c r="U8" t="s">
+        <v>676</v>
       </c>
       <c r="V8" t="s">
-        <v>326</v>
+        <v>677</v>
       </c>
       <c r="W8">
-        <v>49.0</v>
+        <v>6.0</v>
       </c>
       <c r="X8">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="AA8" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="AB8" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="AC8" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="AD8" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="AE8" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="AF8" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="AG8" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="AH8" t="s">
-        <v>640</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>113</v>
+        <v>684</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>110</v>
       </c>
       <c r="AU8" t="s">
         <v>115</v>
       </c>
       <c r="BB8" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="BC8" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="BD8" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="BE8" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="BF8" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="BG8" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="BH8" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI8" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ8" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK8" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL8" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM8" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN8" t="s">
-        <v>647</v>
-      </c>
-      <c r="BS8">
-        <v>1.0</v>
+        <v>691</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>692</v>
       </c>
       <c r="BX8" t="s">
-        <v>476</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>648</v>
+        <v>359</v>
       </c>
       <c r="CH8" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="CI8" t="s">
-        <v>650</v>
+        <v>691</v>
       </c>
       <c r="CN8" t="s">
-        <v>651</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>652</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>648</v>
+        <v>681</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>355</v>
       </c>
       <c r="CW8" t="s">
-        <v>334</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>653</v>
+        <v>355</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>694</v>
       </c>
       <c r="DE8" t="s">
-        <v>654</v>
+        <v>695</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>696</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>697</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>698</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>699</v>
       </c>
       <c r="DP8" t="s">
-        <v>628</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>629</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>630</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>632</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>655</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>656</v>
+        <v>700</v>
       </c>
       <c r="DZ8" t="s">
         <v>157</v>
       </c>
-      <c r="EA8" t="s">
-        <v>158</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>159</v>
-      </c>
       <c r="EC8" t="s">
         <v>160</v>
       </c>
-      <c r="ED8" t="s">
-        <v>161</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>168</v>
-      </c>
-      <c r="FX8" t="s">
-        <v>657</v>
-      </c>
-      <c r="GK8" t="s">
-        <v>194</v>
-      </c>
-      <c r="GU8" t="s">
-        <v>657</v>
+      <c r="EO8" t="s">
+        <v>119</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>119</v>
+      </c>
+      <c r="GT8" t="s">
+        <v>119</v>
       </c>
       <c r="HH8" t="s">
         <v>119</v>
@@ -7778,139 +8049,130 @@
       <c r="HO8" t="s">
         <v>119</v>
       </c>
-      <c r="HR8" t="s">
-        <v>658</v>
-      </c>
-      <c r="HS8" t="s">
-        <v>659</v>
-      </c>
-      <c r="HT8" t="s">
-        <v>660</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>233</v>
-      </c>
-      <c r="JP8" t="s">
+      <c r="JF8" t="s">
         <v>119</v>
       </c>
-      <c r="LN8" t="s">
-        <v>119</v>
-      </c>
-      <c r="LQ8" t="s">
-        <v>303</v>
-      </c>
-      <c r="LR8" t="s">
-        <v>304</v>
-      </c>
-      <c r="MA8" t="s">
-        <v>661</v>
+      <c r="JJ8" t="s">
+        <v>256</v>
+      </c>
+      <c r="JU8" t="s">
+        <v>264</v>
+      </c>
+      <c r="LC8" t="s">
+        <v>294</v>
+      </c>
+      <c r="LD8" t="s">
+        <v>295</v>
+      </c>
+      <c r="LE8" t="s">
+        <v>256</v>
+      </c>
+      <c r="LV8" t="s">
+        <v>308</v>
       </c>
       <c r="MC8" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="MD8" t="s">
-        <v>663</v>
-      </c>
-      <c r="ME8" t="s">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="MK8" t="s">
-        <v>665</v>
-      </c>
-      <c r="MT8" t="s">
-        <v>666</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.0734653362E10</v>
+        <v>1.0734974352E10</v>
       </c>
       <c r="B9">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C9" s="2">
-        <v>43601.17997685185</v>
+        <v>43601.2716087963</v>
       </c>
       <c r="D9" s="2">
-        <v>43601.21366898148</v>
+        <v>43606.39302083333</v>
       </c>
       <c r="E9" t="s">
-        <v>667</v>
+        <v>703</v>
+      </c>
+      <c r="F9" t="s">
+        <v>704</v>
       </c>
       <c r="J9" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="K9" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="L9" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M9" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="N9" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="O9" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="P9" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="Q9" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="R9" t="s">
-        <v>676</v>
+        <v>712</v>
+      </c>
+      <c r="S9" t="s">
+        <v>713</v>
       </c>
       <c r="T9" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="U9">
-        <v>523.0</v>
+        <v>642.0</v>
       </c>
       <c r="V9" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
       <c r="W9">
-        <v>14.0</v>
+        <v>49.0</v>
       </c>
       <c r="X9">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y9" t="s">
-        <v>365</v>
+        <v>533</v>
       </c>
       <c r="AA9" t="s">
-        <v>678</v>
+        <v>715</v>
       </c>
       <c r="AB9" t="s">
-        <v>456</v>
+        <v>716</v>
       </c>
       <c r="AC9" t="s">
-        <v>679</v>
+        <v>717</v>
       </c>
       <c r="AD9" t="s">
-        <v>327</v>
+        <v>718</v>
       </c>
       <c r="AE9" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="AF9" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="AG9" t="s">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="AH9" t="s">
-        <v>458</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>683</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>684</v>
+        <v>721</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>109</v>
       </c>
       <c r="AR9" t="s">
         <v>112</v>
@@ -7918,149 +8180,98 @@
       <c r="AS9" t="s">
         <v>113</v>
       </c>
-      <c r="BA9" t="s">
-        <v>685</v>
+      <c r="AU9" t="s">
+        <v>115</v>
       </c>
       <c r="BB9" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="BC9" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="BD9" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="BE9" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="BF9" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="BG9" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="BH9" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="BI9" t="s">
-        <v>692</v>
+        <v>353</v>
       </c>
       <c r="BJ9" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="BK9" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="BL9" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM9" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN9" t="s">
-        <v>693</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>694</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>695</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>696</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="BS9">
-        <v>10.0</v>
-      </c>
-      <c r="BT9">
-        <v>10.0</v>
-      </c>
-      <c r="BU9">
-        <v>2.0</v>
-      </c>
-      <c r="BV9">
         <v>1.0</v>
       </c>
-      <c r="BW9">
-        <v>2.0</v>
-      </c>
       <c r="BX9" t="s">
-        <v>476</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>476</v>
-      </c>
-      <c r="BZ9">
-        <v>26.0</v>
-      </c>
-      <c r="CA9">
-        <v>26.0</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC9" t="s">
-        <v>698</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="CH9" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="CI9" t="s">
-        <v>700</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>701</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>702</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="CN9" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="CO9" t="s">
-        <v>705</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="CQ9" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="CW9" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CX9" t="s">
-        <v>708</v>
-      </c>
-      <c r="CY9" t="s">
+        <v>734</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>735</v>
+      </c>
+      <c r="DP9" t="s">
         <v>709</v>
       </c>
-      <c r="CZ9" t="s">
+      <c r="DQ9" t="s">
         <v>710</v>
       </c>
-      <c r="DD9" t="s">
+      <c r="DR9" t="s">
         <v>711</v>
       </c>
-      <c r="DE9" t="s">
-        <v>712</v>
-      </c>
-      <c r="DP9" t="s">
+      <c r="DS9" t="s">
         <v>713</v>
       </c>
-      <c r="DQ9" t="s">
-        <v>714</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>715</v>
+      <c r="DT9" t="s">
+        <v>736</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>737</v>
       </c>
       <c r="DZ9" t="s">
         <v>157</v>
@@ -8074,277 +8285,160 @@
       <c r="EC9" t="s">
         <v>160</v>
       </c>
-      <c r="EH9" t="s">
-        <v>165</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>167</v>
+      <c r="ED9" t="s">
+        <v>161</v>
       </c>
       <c r="EK9" t="s">
         <v>168</v>
       </c>
-      <c r="EL9" t="s">
-        <v>169</v>
-      </c>
       <c r="FX9" t="s">
-        <v>716</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>185</v>
-      </c>
-      <c r="GV9" t="s">
-        <v>207</v>
-      </c>
-      <c r="GW9" t="s">
-        <v>208</v>
-      </c>
-      <c r="GX9" t="s">
-        <v>209</v>
-      </c>
-      <c r="HA9" t="s">
-        <v>189</v>
-      </c>
-      <c r="HD9" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE9" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF9" t="s">
-        <v>202</v>
-      </c>
-      <c r="HQ9" t="s">
-        <v>717</v>
+        <v>738</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>194</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>738</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>119</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>119</v>
       </c>
       <c r="HR9" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="HS9" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="HT9" t="s">
-        <v>720</v>
-      </c>
-      <c r="HU9" t="s">
-        <v>721</v>
-      </c>
-      <c r="HV9" t="s">
-        <v>722</v>
-      </c>
-      <c r="HW9" t="s">
-        <v>185</v>
-      </c>
-      <c r="HY9" t="s">
-        <v>221</v>
-      </c>
-      <c r="HZ9" t="s">
-        <v>222</v>
-      </c>
-      <c r="IA9" t="s">
-        <v>223</v>
-      </c>
-      <c r="IC9" t="s">
-        <v>225</v>
-      </c>
-      <c r="ID9" t="s">
-        <v>226</v>
-      </c>
-      <c r="IE9" t="s">
-        <v>227</v>
-      </c>
-      <c r="IF9" t="s">
-        <v>228</v>
-      </c>
-      <c r="IH9" t="s">
-        <v>230</v>
-      </c>
-      <c r="II9" t="s">
-        <v>231</v>
-      </c>
-      <c r="IJ9" t="s">
-        <v>232</v>
+        <v>741</v>
       </c>
       <c r="IK9" t="s">
         <v>233</v>
       </c>
-      <c r="IL9" t="s">
-        <v>234</v>
-      </c>
-      <c r="IO9" t="s">
-        <v>237</v>
-      </c>
-      <c r="IR9" t="s">
-        <v>240</v>
-      </c>
-      <c r="IV9" t="s">
-        <v>244</v>
-      </c>
-      <c r="IW9" t="s">
-        <v>245</v>
-      </c>
-      <c r="JA9" t="s">
-        <v>248</v>
-      </c>
-      <c r="JB9" t="s">
-        <v>249</v>
-      </c>
-      <c r="JD9" t="s">
-        <v>251</v>
-      </c>
-      <c r="JJ9" t="s">
-        <v>256</v>
-      </c>
-      <c r="JK9" t="s">
-        <v>257</v>
-      </c>
-      <c r="JN9" t="s">
-        <v>259</v>
-      </c>
-      <c r="JR9" t="s">
-        <v>723</v>
-      </c>
-      <c r="KE9" t="s">
-        <v>274</v>
-      </c>
-      <c r="LG9" t="s">
-        <v>297</v>
-      </c>
-      <c r="LH9" t="s">
-        <v>298</v>
-      </c>
-      <c r="LI9" t="s">
-        <v>299</v>
-      </c>
-      <c r="LS9" t="s">
-        <v>305</v>
-      </c>
-      <c r="LT9" t="s">
-        <v>306</v>
-      </c>
-      <c r="LU9" t="s">
-        <v>307</v>
-      </c>
-      <c r="LV9" t="s">
-        <v>308</v>
-      </c>
-      <c r="LX9" t="s">
-        <v>310</v>
+      <c r="JP9" t="s">
+        <v>119</v>
+      </c>
+      <c r="LN9" t="s">
+        <v>119</v>
+      </c>
+      <c r="LQ9" t="s">
+        <v>303</v>
+      </c>
+      <c r="LR9" t="s">
+        <v>304</v>
+      </c>
+      <c r="MA9" t="s">
+        <v>742</v>
       </c>
       <c r="MC9" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="MD9" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="ME9" t="s">
-        <v>725</v>
-      </c>
-      <c r="MF9" t="s">
-        <v>726</v>
+        <v>745</v>
+      </c>
+      <c r="MK9" t="s">
+        <v>746</v>
       </c>
       <c r="MT9" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.0733356672E10</v>
+        <v>1.0734653362E10</v>
       </c>
       <c r="B10">
-        <v>2.33326486E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C10" s="2">
-        <v>43600.57394675926</v>
+        <v>43601.17997685185</v>
       </c>
       <c r="D10" s="2">
-        <v>43607.40217592593</v>
+        <v>43601.21366898148</v>
       </c>
       <c r="E10" t="s">
-        <v>728</v>
-      </c>
-      <c r="F10" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="J10" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="K10" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="L10" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="M10" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="N10" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="O10" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="P10" t="s">
-        <v>736</v>
+        <v>755</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>756</v>
+      </c>
+      <c r="R10" t="s">
+        <v>757</v>
       </c>
       <c r="T10" t="s">
-        <v>737</v>
-      </c>
-      <c r="U10" t="s">
-        <v>738</v>
+        <v>758</v>
+      </c>
+      <c r="U10">
+        <v>523.0</v>
       </c>
       <c r="V10" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W10">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="X10">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y10" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
       <c r="AA10" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="AB10" t="s">
-        <v>740</v>
+        <v>539</v>
       </c>
       <c r="AC10" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="AD10" t="s">
-        <v>740</v>
+        <v>331</v>
       </c>
       <c r="AE10" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="AF10" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="AG10" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="AH10" t="s">
-        <v>745</v>
+        <v>541</v>
       </c>
       <c r="AI10" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="AJ10" t="s">
-        <v>747</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>748</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>749</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>110</v>
+        <v>765</v>
       </c>
       <c r="AR10" t="s">
         <v>112</v>
@@ -8352,110 +8446,149 @@
       <c r="AS10" t="s">
         <v>113</v>
       </c>
-      <c r="AU10" t="s">
-        <v>115</v>
+      <c r="BA10" t="s">
+        <v>766</v>
       </c>
       <c r="BB10" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="BC10" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="BD10" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="BE10" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="BF10" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="BG10" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="BH10" t="s">
         <v>469</v>
       </c>
       <c r="BI10" t="s">
-        <v>385</v>
+        <v>773</v>
       </c>
       <c r="BJ10" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK10" t="s">
-        <v>333</v>
+        <v>470</v>
       </c>
       <c r="BL10" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="BM10" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN10" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="BO10" t="s">
-        <v>757</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>758</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>759</v>
+        <v>775</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>776</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>777</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>778</v>
+      </c>
+      <c r="BS10">
+        <v>10.0</v>
+      </c>
+      <c r="BT10">
+        <v>10.0</v>
+      </c>
+      <c r="BU10">
+        <v>2.0</v>
+      </c>
+      <c r="BV10">
+        <v>1.0</v>
+      </c>
+      <c r="BW10">
+        <v>2.0</v>
       </c>
       <c r="BX10" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY10" t="s">
-        <v>476</v>
+        <v>359</v>
+      </c>
+      <c r="BZ10">
+        <v>26.0</v>
+      </c>
+      <c r="CA10">
+        <v>26.0</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>359</v>
       </c>
       <c r="CC10" t="s">
-        <v>760</v>
+        <v>779</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>780</v>
       </c>
       <c r="CH10" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="CI10" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="CJ10" t="s">
-        <v>757</v>
+        <v>782</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>783</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>784</v>
       </c>
       <c r="CN10" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="CO10" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="CP10" t="s">
-        <v>334</v>
+        <v>787</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>788</v>
       </c>
       <c r="CW10" t="s">
-        <v>334</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>764</v>
+        <v>355</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>789</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>790</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>791</v>
       </c>
       <c r="DD10" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="DE10" t="s">
-        <v>766</v>
-      </c>
-      <c r="DF10" t="s">
-        <v>767</v>
-      </c>
-      <c r="DG10" t="s">
-        <v>768</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>769</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>730</v>
+        <v>793</v>
       </c>
       <c r="DP10" t="s">
-        <v>736</v>
+        <v>794</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>795</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>796</v>
       </c>
       <c r="DZ10" t="s">
         <v>157</v>
@@ -8469,142 +8602,277 @@
       <c r="EC10" t="s">
         <v>160</v>
       </c>
-      <c r="ED10" t="s">
-        <v>161</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>164</v>
+      <c r="EH10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>167</v>
       </c>
       <c r="EK10" t="s">
         <v>168</v>
       </c>
-      <c r="ES10" t="s">
-        <v>174</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>175</v>
-      </c>
-      <c r="FL10" t="s">
-        <v>193</v>
-      </c>
-      <c r="GB10" t="s">
-        <v>179</v>
-      </c>
-      <c r="HH10" t="s">
-        <v>119</v>
-      </c>
-      <c r="HO10" t="s">
-        <v>119</v>
+      <c r="EL10" t="s">
+        <v>169</v>
+      </c>
+      <c r="FX10" t="s">
+        <v>797</v>
+      </c>
+      <c r="GF10" t="s">
+        <v>185</v>
+      </c>
+      <c r="GV10" t="s">
+        <v>207</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>208</v>
+      </c>
+      <c r="GX10" t="s">
+        <v>209</v>
+      </c>
+      <c r="HA10" t="s">
+        <v>189</v>
+      </c>
+      <c r="HD10" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE10" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF10" t="s">
+        <v>202</v>
+      </c>
+      <c r="HQ10" t="s">
+        <v>798</v>
       </c>
       <c r="HR10" t="s">
-        <v>770</v>
-      </c>
-      <c r="IX10" t="s">
-        <v>246</v>
+        <v>799</v>
+      </c>
+      <c r="HS10" t="s">
+        <v>800</v>
+      </c>
+      <c r="HT10" t="s">
+        <v>801</v>
+      </c>
+      <c r="HU10" t="s">
+        <v>802</v>
+      </c>
+      <c r="HV10" t="s">
+        <v>803</v>
+      </c>
+      <c r="HW10" t="s">
+        <v>185</v>
+      </c>
+      <c r="HY10" t="s">
+        <v>221</v>
+      </c>
+      <c r="HZ10" t="s">
+        <v>222</v>
+      </c>
+      <c r="IA10" t="s">
+        <v>223</v>
+      </c>
+      <c r="IC10" t="s">
+        <v>225</v>
+      </c>
+      <c r="ID10" t="s">
+        <v>226</v>
+      </c>
+      <c r="IE10" t="s">
+        <v>227</v>
+      </c>
+      <c r="IF10" t="s">
+        <v>228</v>
+      </c>
+      <c r="IH10" t="s">
+        <v>230</v>
+      </c>
+      <c r="II10" t="s">
+        <v>231</v>
+      </c>
+      <c r="IJ10" t="s">
+        <v>232</v>
+      </c>
+      <c r="IK10" t="s">
+        <v>233</v>
+      </c>
+      <c r="IL10" t="s">
+        <v>234</v>
+      </c>
+      <c r="IO10" t="s">
+        <v>237</v>
+      </c>
+      <c r="IR10" t="s">
+        <v>240</v>
+      </c>
+      <c r="IV10" t="s">
+        <v>244</v>
+      </c>
+      <c r="IW10" t="s">
+        <v>245</v>
+      </c>
+      <c r="JA10" t="s">
+        <v>248</v>
+      </c>
+      <c r="JB10" t="s">
+        <v>249</v>
+      </c>
+      <c r="JD10" t="s">
+        <v>251</v>
       </c>
       <c r="JJ10" t="s">
         <v>256</v>
       </c>
+      <c r="JK10" t="s">
+        <v>257</v>
+      </c>
+      <c r="JN10" t="s">
+        <v>259</v>
+      </c>
       <c r="JR10" t="s">
-        <v>771</v>
-      </c>
-      <c r="LO10" t="s">
-        <v>302</v>
-      </c>
-      <c r="LQ10" t="s">
-        <v>303</v>
+        <v>804</v>
+      </c>
+      <c r="KE10" t="s">
+        <v>274</v>
+      </c>
+      <c r="LG10" t="s">
+        <v>297</v>
+      </c>
+      <c r="LH10" t="s">
+        <v>298</v>
+      </c>
+      <c r="LI10" t="s">
+        <v>299</v>
+      </c>
+      <c r="LS10" t="s">
+        <v>305</v>
+      </c>
+      <c r="LT10" t="s">
+        <v>306</v>
+      </c>
+      <c r="LU10" t="s">
+        <v>307</v>
       </c>
       <c r="LV10" t="s">
         <v>308</v>
       </c>
-      <c r="MB10" t="s">
-        <v>772</v>
+      <c r="LX10" t="s">
+        <v>310</v>
       </c>
       <c r="MC10" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="MD10" t="s">
-        <v>774</v>
-      </c>
-      <c r="MK10" t="s">
-        <v>773</v>
-      </c>
-      <c r="ML10" t="s">
-        <v>775</v>
-      </c>
-      <c r="MM10" t="s">
-        <v>776</v>
+        <v>802</v>
+      </c>
+      <c r="ME10" t="s">
+        <v>806</v>
+      </c>
+      <c r="MF10" t="s">
+        <v>807</v>
       </c>
       <c r="MT10" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.0732842487E10</v>
+        <v>1.0733356672E10</v>
       </c>
       <c r="B11">
         <v>2.33326486E8</v>
       </c>
       <c r="C11" s="2">
-        <v>43600.44827546296</v>
+        <v>43600.57394675926</v>
       </c>
       <c r="D11" s="2">
-        <v>43607.38542824074</v>
+        <v>43607.40217592593</v>
       </c>
       <c r="E11" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="F11" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="J11" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="K11" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="L11" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="M11" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="N11" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="O11" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="P11" t="s">
-        <v>784</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>785</v>
-      </c>
-      <c r="R11" t="s">
-        <v>786</v>
-      </c>
-      <c r="S11" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="T11" t="s">
-        <v>788</v>
-      </c>
-      <c r="U11">
-        <v>558.0</v>
+        <v>818</v>
+      </c>
+      <c r="U11" t="s">
+        <v>819</v>
       </c>
       <c r="V11" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="X11">
         <v>0.0</v>
       </c>
       <c r="Y11" t="s">
-        <v>450</v>
+        <v>331</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>820</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>821</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>822</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>823</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>824</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>825</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>826</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>827</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>828</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>829</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>830</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>110</v>
       </c>
       <c r="AR11" t="s">
         <v>112</v>
@@ -8612,597 +8880,600 @@
       <c r="AS11" t="s">
         <v>113</v>
       </c>
+      <c r="AU11" t="s">
+        <v>115</v>
+      </c>
       <c r="BB11" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="BC11" t="s">
-        <v>790</v>
+        <v>832</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>833</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>834</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>835</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>836</v>
       </c>
       <c r="BH11" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="BI11" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="BJ11" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="BK11" t="s">
-        <v>470</v>
+        <v>354</v>
       </c>
       <c r="BL11" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="BM11" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN11" t="s">
-        <v>791</v>
-      </c>
-      <c r="BS11">
-        <v>2.0</v>
+        <v>837</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>838</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>839</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>840</v>
       </c>
       <c r="BX11" t="s">
-        <v>476</v>
+        <v>359</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>359</v>
       </c>
       <c r="CC11" t="s">
-        <v>792</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>793</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>794</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>795</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>796</v>
+        <v>841</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>842</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>837</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>838</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>843</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>844</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>355</v>
       </c>
       <c r="CW11" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC11" t="s">
-        <v>797</v>
+        <v>845</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>846</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>847</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>848</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>849</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>850</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>811</v>
       </c>
       <c r="DP11" t="s">
-        <v>783</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>786</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>785</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>784</v>
-      </c>
-      <c r="DT11" t="s">
-        <v>787</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="DZ11" t="s">
         <v>157</v>
       </c>
+      <c r="EA11" t="s">
+        <v>158</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>159</v>
+      </c>
       <c r="EC11" t="s">
         <v>160</v>
       </c>
+      <c r="ED11" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>164</v>
+      </c>
       <c r="EK11" t="s">
         <v>168</v>
       </c>
-      <c r="FW11" t="s">
+      <c r="ES11" t="s">
+        <v>174</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>175</v>
+      </c>
+      <c r="FL11" t="s">
+        <v>193</v>
+      </c>
+      <c r="GB11" t="s">
+        <v>179</v>
+      </c>
+      <c r="HH11" t="s">
         <v>119</v>
-      </c>
-      <c r="GM11" t="s">
-        <v>196</v>
-      </c>
-      <c r="HA11" t="s">
-        <v>189</v>
       </c>
       <c r="HO11" t="s">
         <v>119</v>
       </c>
       <c r="HR11" t="s">
-        <v>799</v>
-      </c>
-      <c r="HS11" t="s">
-        <v>800</v>
-      </c>
-      <c r="IT11" t="s">
-        <v>242</v>
-      </c>
-      <c r="JK11" t="s">
-        <v>257</v>
-      </c>
-      <c r="JM11" t="s">
-        <v>258</v>
-      </c>
-      <c r="LD11" t="s">
-        <v>295</v>
-      </c>
-      <c r="MA11" t="s">
-        <v>791</v>
+        <v>851</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>246</v>
+      </c>
+      <c r="JJ11" t="s">
+        <v>256</v>
+      </c>
+      <c r="JR11" t="s">
+        <v>852</v>
+      </c>
+      <c r="LO11" t="s">
+        <v>302</v>
+      </c>
+      <c r="LQ11" t="s">
+        <v>303</v>
+      </c>
+      <c r="LV11" t="s">
+        <v>308</v>
+      </c>
+      <c r="MB11" t="s">
+        <v>853</v>
+      </c>
+      <c r="MC11" t="s">
+        <v>854</v>
+      </c>
+      <c r="MD11" t="s">
+        <v>855</v>
+      </c>
+      <c r="MK11" t="s">
+        <v>854</v>
       </c>
       <c r="ML11" t="s">
-        <v>801</v>
+        <v>856</v>
+      </c>
+      <c r="MM11" t="s">
+        <v>857</v>
+      </c>
+      <c r="MT11" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1.072978601E10</v>
+        <v>1.0732842487E10</v>
       </c>
       <c r="B12">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C12" s="2">
-        <v>43599.48371527778</v>
+        <v>43600.44827546296</v>
       </c>
       <c r="D12" s="2">
-        <v>43607.35056712963</v>
+        <v>43607.38542824074</v>
       </c>
       <c r="E12" t="s">
-        <v>802</v>
+        <v>809</v>
+      </c>
+      <c r="F12" t="s">
+        <v>859</v>
       </c>
       <c r="J12" t="s">
-        <v>803</v>
+        <v>859</v>
       </c>
       <c r="K12" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
       <c r="L12" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="M12" t="s">
-        <v>806</v>
+        <v>862</v>
       </c>
       <c r="N12" t="s">
-        <v>807</v>
+        <v>863</v>
       </c>
       <c r="O12" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
       <c r="P12" t="s">
-        <v>809</v>
+        <v>865</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>866</v>
+      </c>
+      <c r="R12" t="s">
+        <v>867</v>
+      </c>
+      <c r="S12" t="s">
+        <v>868</v>
       </c>
       <c r="T12" t="s">
-        <v>810</v>
-      </c>
-      <c r="U12" t="s">
-        <v>811</v>
+        <v>869</v>
+      </c>
+      <c r="U12">
+        <v>558.0</v>
       </c>
       <c r="V12" t="s">
-        <v>326</v>
+        <v>677</v>
       </c>
       <c r="W12">
-        <v>78.0</v>
+        <v>2.0</v>
       </c>
       <c r="X12">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>813</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>814</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>815</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>817</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>818</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>109</v>
+        <v>533</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>112</v>
       </c>
       <c r="AS12" t="s">
         <v>113</v>
       </c>
-      <c r="BA12" t="s">
-        <v>819</v>
-      </c>
       <c r="BB12" t="s">
-        <v>820</v>
+        <v>870</v>
       </c>
       <c r="BC12" t="s">
-        <v>821</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>822</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>823</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>824</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>825</v>
+        <v>871</v>
       </c>
       <c r="BH12" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI12" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ12" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK12" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL12" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM12" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN12" t="s">
-        <v>826</v>
+        <v>872</v>
       </c>
       <c r="BS12">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BX12" t="s">
-        <v>827</v>
+        <v>359</v>
       </c>
       <c r="CC12" t="s">
-        <v>828</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>829</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>830</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>831</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>832</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>404</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>827</v>
+        <v>873</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>874</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>875</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>876</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>877</v>
       </c>
       <c r="CW12" t="s">
-        <v>334</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>827</v>
+        <v>355</v>
       </c>
       <c r="DC12" t="s">
-        <v>833</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>834</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>835</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>836</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>837</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>838</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>839</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>840</v>
-      </c>
-      <c r="DK12" t="s">
-        <v>841</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>842</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>843</v>
-      </c>
-      <c r="DN12" t="s">
-        <v>844</v>
-      </c>
-      <c r="DO12" t="s">
-        <v>845</v>
+        <v>878</v>
       </c>
       <c r="DP12" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="DQ12" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="DR12" t="s">
-        <v>848</v>
+        <v>866</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>865</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>868</v>
       </c>
       <c r="DU12" t="s">
-        <v>849</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>850</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="DZ12" t="s">
         <v>157</v>
       </c>
-      <c r="EA12" t="s">
-        <v>158</v>
-      </c>
       <c r="EC12" t="s">
         <v>160</v>
       </c>
-      <c r="EF12" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>164</v>
-      </c>
       <c r="EK12" t="s">
         <v>168</v>
       </c>
-      <c r="ES12" t="s">
-        <v>174</v>
-      </c>
-      <c r="ET12" t="s">
-        <v>175</v>
-      </c>
-      <c r="FX12" t="s">
-        <v>852</v>
-      </c>
-      <c r="GE12" t="s">
-        <v>184</v>
-      </c>
-      <c r="GF12" t="s">
-        <v>185</v>
-      </c>
-      <c r="GU12" t="s">
-        <v>852</v>
-      </c>
-      <c r="HH12" t="s">
+      <c r="FW12" t="s">
         <v>119</v>
       </c>
-      <c r="HQ12" t="s">
-        <v>853</v>
+      <c r="GM12" t="s">
+        <v>196</v>
+      </c>
+      <c r="HA12" t="s">
+        <v>189</v>
+      </c>
+      <c r="HO12" t="s">
+        <v>119</v>
       </c>
       <c r="HR12" t="s">
-        <v>722</v>
+        <v>880</v>
       </c>
       <c r="HS12" t="s">
-        <v>854</v>
-      </c>
-      <c r="HT12" t="s">
-        <v>855</v>
-      </c>
-      <c r="HU12" t="s">
-        <v>856</v>
-      </c>
-      <c r="HV12" t="s">
-        <v>857</v>
-      </c>
-      <c r="HW12" t="s">
-        <v>185</v>
-      </c>
-      <c r="JB12" t="s">
-        <v>249</v>
-      </c>
-      <c r="JC12" t="s">
-        <v>250</v>
+        <v>881</v>
+      </c>
+      <c r="IT12" t="s">
+        <v>242</v>
+      </c>
+      <c r="JK12" t="s">
+        <v>257</v>
       </c>
       <c r="JM12" t="s">
         <v>258</v>
       </c>
-      <c r="JN12" t="s">
-        <v>259</v>
-      </c>
-      <c r="JR12" t="s">
-        <v>853</v>
-      </c>
-      <c r="JU12" t="s">
-        <v>264</v>
-      </c>
-      <c r="KC12" t="s">
-        <v>272</v>
-      </c>
-      <c r="KD12" t="s">
-        <v>273</v>
-      </c>
-      <c r="KE12" t="s">
-        <v>274</v>
-      </c>
-      <c r="LM12" t="s">
-        <v>301</v>
-      </c>
-      <c r="LP12" t="s">
-        <v>858</v>
-      </c>
-      <c r="LQ12" t="s">
-        <v>303</v>
-      </c>
-      <c r="LR12" t="s">
-        <v>304</v>
+      <c r="LD12" t="s">
+        <v>295</v>
       </c>
       <c r="MA12" t="s">
-        <v>859</v>
-      </c>
-      <c r="MB12" t="s">
-        <v>860</v>
-      </c>
-      <c r="MC12" t="s">
-        <v>861</v>
-      </c>
-      <c r="MD12" t="s">
-        <v>862</v>
-      </c>
-      <c r="ME12" t="s">
-        <v>863</v>
-      </c>
-      <c r="MF12" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="ML12" t="s">
-        <v>865</v>
-      </c>
-      <c r="MM12" t="s">
-        <v>866</v>
-      </c>
-      <c r="MN12" t="s">
-        <v>867</v>
-      </c>
-      <c r="MO12" t="s">
-        <v>868</v>
-      </c>
-      <c r="MQ12" t="s">
-        <v>869</v>
-      </c>
-      <c r="MR12" t="s">
-        <v>870</v>
-      </c>
-      <c r="MS12" t="s">
-        <v>871</v>
-      </c>
-      <c r="MT12" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1.0721911512E10</v>
+        <v>1.072978601E10</v>
       </c>
       <c r="B13">
-        <v>2.33158854E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C13" s="2">
-        <v>43595.466875</v>
+        <v>43599.48371527778</v>
       </c>
       <c r="D13" s="2">
-        <v>43600.8003125</v>
+        <v>43607.35056712963</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" t="s">
-        <v>318</v>
+        <v>883</v>
       </c>
       <c r="J13" t="s">
-        <v>318</v>
+        <v>884</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>885</v>
       </c>
       <c r="L13" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="M13" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="N13" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="O13" t="s">
-        <v>876</v>
+        <v>889</v>
+      </c>
+      <c r="P13" t="s">
+        <v>890</v>
       </c>
       <c r="T13" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="U13" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="V13" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W13">
-        <v>8.0</v>
+        <v>78.0</v>
       </c>
       <c r="X13">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y13" t="s">
-        <v>327</v>
+        <v>533</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>893</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>895</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>896</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>897</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>898</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>899</v>
       </c>
       <c r="AO13" t="s">
         <v>109</v>
       </c>
-      <c r="AP13" t="s">
-        <v>110</v>
-      </c>
       <c r="AS13" t="s">
         <v>113</v>
       </c>
       <c r="BA13" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="BB13" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="BC13" t="s">
-        <v>881</v>
+        <v>902</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>903</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>904</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>905</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>906</v>
       </c>
       <c r="BH13" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI13" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ13" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK13" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL13" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM13" t="s">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="BN13" t="s">
-        <v>336</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>882</v>
+        <v>907</v>
+      </c>
+      <c r="BS13">
+        <v>1.0</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>908</v>
       </c>
       <c r="CC13" t="s">
-        <v>883</v>
+        <v>909</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>910</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>911</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>912</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>913</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>487</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>908</v>
       </c>
       <c r="CW13" t="s">
-        <v>334</v>
+        <v>355</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>908</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>914</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>915</v>
       </c>
       <c r="DE13" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="DF13" t="s">
-        <v>885</v>
+        <v>917</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>918</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>919</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>920</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>921</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>922</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>923</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>924</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>925</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>926</v>
       </c>
       <c r="DP13" t="s">
-        <v>886</v>
+        <v>927</v>
       </c>
       <c r="DQ13" t="s">
-        <v>887</v>
+        <v>928</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>929</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>930</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>931</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>932</v>
       </c>
       <c r="DZ13" t="s">
         <v>157</v>
@@ -9210,53 +9481,140 @@
       <c r="EA13" t="s">
         <v>158</v>
       </c>
-      <c r="EB13" t="s">
-        <v>159</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>165</v>
+      <c r="EC13" t="s">
+        <v>160</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>164</v>
       </c>
       <c r="EK13" t="s">
         <v>168</v>
       </c>
-      <c r="EQ13" t="s">
-        <v>888</v>
-      </c>
-      <c r="FV13" t="s">
-        <v>203</v>
-      </c>
-      <c r="GS13" t="s">
-        <v>206</v>
-      </c>
-      <c r="HG13" t="s">
-        <v>212</v>
-      </c>
-      <c r="HO13" t="s">
+      <c r="ES13" t="s">
+        <v>174</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>175</v>
+      </c>
+      <c r="FX13" t="s">
+        <v>933</v>
+      </c>
+      <c r="GE13" t="s">
+        <v>184</v>
+      </c>
+      <c r="GF13" t="s">
+        <v>185</v>
+      </c>
+      <c r="GU13" t="s">
+        <v>933</v>
+      </c>
+      <c r="HH13" t="s">
         <v>119</v>
       </c>
-      <c r="IL13" t="s">
-        <v>234</v>
-      </c>
-      <c r="JP13" t="s">
-        <v>119</v>
+      <c r="HQ13" t="s">
+        <v>934</v>
+      </c>
+      <c r="HR13" t="s">
+        <v>803</v>
+      </c>
+      <c r="HS13" t="s">
+        <v>935</v>
+      </c>
+      <c r="HT13" t="s">
+        <v>936</v>
+      </c>
+      <c r="HU13" t="s">
+        <v>937</v>
+      </c>
+      <c r="HV13" t="s">
+        <v>938</v>
+      </c>
+      <c r="HW13" t="s">
+        <v>185</v>
+      </c>
+      <c r="JB13" t="s">
+        <v>249</v>
+      </c>
+      <c r="JC13" t="s">
+        <v>250</v>
+      </c>
+      <c r="JM13" t="s">
+        <v>258</v>
+      </c>
+      <c r="JN13" t="s">
+        <v>259</v>
+      </c>
+      <c r="JR13" t="s">
+        <v>934</v>
       </c>
       <c r="JU13" t="s">
         <v>264</v>
       </c>
-      <c r="KG13" t="s">
-        <v>276</v>
-      </c>
-      <c r="LG13" t="s">
-        <v>297</v>
-      </c>
-      <c r="LS13" t="s">
-        <v>305</v>
-      </c>
-      <c r="LT13" t="s">
-        <v>306</v>
+      <c r="KC13" t="s">
+        <v>272</v>
+      </c>
+      <c r="KD13" t="s">
+        <v>273</v>
+      </c>
+      <c r="KE13" t="s">
+        <v>274</v>
+      </c>
+      <c r="LM13" t="s">
+        <v>301</v>
+      </c>
+      <c r="LP13" t="s">
+        <v>939</v>
+      </c>
+      <c r="LQ13" t="s">
+        <v>303</v>
+      </c>
+      <c r="LR13" t="s">
+        <v>304</v>
       </c>
       <c r="MA13" t="s">
-        <v>889</v>
+        <v>940</v>
+      </c>
+      <c r="MB13" t="s">
+        <v>941</v>
+      </c>
+      <c r="MC13" t="s">
+        <v>942</v>
+      </c>
+      <c r="MD13" t="s">
+        <v>943</v>
+      </c>
+      <c r="ME13" t="s">
+        <v>944</v>
+      </c>
+      <c r="MF13" t="s">
+        <v>945</v>
+      </c>
+      <c r="ML13" t="s">
+        <v>946</v>
+      </c>
+      <c r="MM13" t="s">
+        <v>947</v>
+      </c>
+      <c r="MN13" t="s">
+        <v>948</v>
+      </c>
+      <c r="MO13" t="s">
+        <v>949</v>
+      </c>
+      <c r="MQ13" t="s">
+        <v>950</v>
+      </c>
+      <c r="MR13" t="s">
+        <v>951</v>
+      </c>
+      <c r="MS13" t="s">
+        <v>952</v>
+      </c>
+      <c r="MT13" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="14">
@@ -9273,40 +9631,40 @@
         <v>43607.49202546296</v>
       </c>
       <c r="E14" t="s">
-        <v>890</v>
+        <v>954</v>
       </c>
       <c r="F14" t="s">
-        <v>891</v>
+        <v>955</v>
       </c>
       <c r="J14" t="s">
-        <v>892</v>
+        <v>956</v>
       </c>
       <c r="K14" t="s">
-        <v>893</v>
+        <v>957</v>
       </c>
       <c r="L14" t="s">
-        <v>894</v>
+        <v>958</v>
       </c>
       <c r="M14" t="s">
-        <v>895</v>
+        <v>959</v>
       </c>
       <c r="N14" t="s">
-        <v>896</v>
+        <v>960</v>
       </c>
       <c r="O14" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="P14" t="s">
-        <v>898</v>
+        <v>962</v>
       </c>
       <c r="T14" t="s">
-        <v>899</v>
+        <v>963</v>
       </c>
       <c r="U14">
         <v>663.0</v>
       </c>
       <c r="V14" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="W14">
         <v>4.0</v>
@@ -9315,91 +9673,91 @@
         <v>0.0</v>
       </c>
       <c r="Y14" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA14" t="s">
-        <v>900</v>
+        <v>964</v>
       </c>
       <c r="AB14" t="s">
-        <v>901</v>
+        <v>333</v>
       </c>
       <c r="AC14" t="s">
-        <v>902</v>
+        <v>965</v>
       </c>
       <c r="AD14" t="s">
-        <v>901</v>
+        <v>333</v>
       </c>
       <c r="AE14" t="s">
-        <v>903</v>
+        <v>966</v>
       </c>
       <c r="AF14" t="s">
-        <v>904</v>
+        <v>967</v>
       </c>
       <c r="AG14" t="s">
-        <v>905</v>
+        <v>968</v>
       </c>
       <c r="AH14" t="s">
-        <v>906</v>
+        <v>969</v>
       </c>
       <c r="AI14" t="s">
-        <v>907</v>
+        <v>970</v>
       </c>
       <c r="AJ14" t="s">
-        <v>908</v>
+        <v>971</v>
       </c>
       <c r="AK14" t="s">
-        <v>909</v>
+        <v>972</v>
       </c>
       <c r="AL14" t="s">
-        <v>908</v>
+        <v>971</v>
       </c>
       <c r="AM14" t="s">
-        <v>910</v>
+        <v>973</v>
       </c>
       <c r="AN14" t="s">
-        <v>911</v>
+        <v>974</v>
       </c>
       <c r="BA14" t="s">
-        <v>912</v>
+        <v>975</v>
       </c>
       <c r="BB14" t="s">
-        <v>913</v>
+        <v>976</v>
       </c>
       <c r="BC14" t="s">
-        <v>914</v>
+        <v>977</v>
       </c>
       <c r="BH14" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI14" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ14" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK14" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL14" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM14" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN14" t="s">
-        <v>915</v>
+        <v>978</v>
       </c>
       <c r="BO14" t="s">
-        <v>916</v>
+        <v>979</v>
       </c>
       <c r="BP14" t="s">
-        <v>917</v>
+        <v>980</v>
       </c>
       <c r="BQ14" t="s">
-        <v>918</v>
+        <v>981</v>
       </c>
       <c r="BR14" t="s">
-        <v>919</v>
+        <v>982</v>
       </c>
       <c r="BS14">
         <v>5.0</v>
@@ -9417,13 +9775,13 @@
         <v>5.0</v>
       </c>
       <c r="BX14" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY14" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ14" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CA14">
         <v>1.0</v>
@@ -9432,52 +9790,52 @@
         <v>1.0</v>
       </c>
       <c r="CC14" t="s">
-        <v>920</v>
+        <v>983</v>
       </c>
       <c r="CD14" t="s">
-        <v>921</v>
+        <v>984</v>
       </c>
       <c r="CH14" t="s">
-        <v>922</v>
+        <v>985</v>
       </c>
       <c r="CI14" t="s">
-        <v>923</v>
+        <v>986</v>
       </c>
       <c r="CJ14" t="s">
-        <v>924</v>
+        <v>987</v>
       </c>
       <c r="CN14" t="s">
-        <v>925</v>
+        <v>988</v>
       </c>
       <c r="CO14" t="s">
-        <v>926</v>
+        <v>989</v>
       </c>
       <c r="CP14" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CW14" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC14" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="DD14" t="s">
-        <v>928</v>
+        <v>991</v>
       </c>
       <c r="DE14" t="s">
-        <v>929</v>
+        <v>992</v>
       </c>
       <c r="DF14" t="s">
-        <v>930</v>
+        <v>993</v>
       </c>
       <c r="DG14" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
       <c r="DO14" t="s">
-        <v>892</v>
+        <v>956</v>
       </c>
       <c r="DP14" t="s">
-        <v>932</v>
+        <v>995</v>
       </c>
       <c r="DZ14" t="s">
         <v>157</v>
@@ -9522,13 +9880,13 @@
         <v>311</v>
       </c>
       <c r="MB14" t="s">
-        <v>933</v>
+        <v>996</v>
       </c>
       <c r="MI14" t="s">
-        <v>934</v>
+        <v>997</v>
       </c>
       <c r="MQ14" t="s">
-        <v>935</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15">
@@ -9545,49 +9903,49 @@
         <v>43606.45914351852</v>
       </c>
       <c r="E15" t="s">
-        <v>936</v>
+        <v>999</v>
       </c>
       <c r="F15" t="s">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="s">
-        <v>938</v>
+        <v>1001</v>
       </c>
       <c r="K15" t="s">
-        <v>939</v>
+        <v>1002</v>
       </c>
       <c r="L15" t="s">
-        <v>940</v>
+        <v>1003</v>
       </c>
       <c r="M15" t="s">
-        <v>941</v>
+        <v>1004</v>
       </c>
       <c r="N15" t="s">
-        <v>942</v>
+        <v>1005</v>
       </c>
       <c r="O15" t="s">
-        <v>943</v>
+        <v>1006</v>
       </c>
       <c r="P15" t="s">
-        <v>944</v>
+        <v>1007</v>
       </c>
       <c r="Q15" t="s">
-        <v>945</v>
+        <v>1008</v>
       </c>
       <c r="R15" t="s">
-        <v>946</v>
+        <v>1009</v>
       </c>
       <c r="S15" t="s">
-        <v>947</v>
+        <v>1010</v>
       </c>
       <c r="T15" t="s">
-        <v>948</v>
+        <v>1011</v>
       </c>
       <c r="U15">
         <v>626.0</v>
       </c>
       <c r="V15" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W15">
         <v>6.0</v>
@@ -9596,25 +9954,25 @@
         <v>0.0</v>
       </c>
       <c r="Y15" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AA15" t="s">
-        <v>949</v>
+        <v>1012</v>
       </c>
       <c r="AB15" t="s">
-        <v>950</v>
+        <v>1013</v>
       </c>
       <c r="AC15" t="s">
-        <v>951</v>
+        <v>1014</v>
       </c>
       <c r="AD15" t="s">
-        <v>950</v>
+        <v>1013</v>
       </c>
       <c r="AE15" t="s">
-        <v>952</v>
+        <v>1015</v>
       </c>
       <c r="AF15" t="s">
-        <v>953</v>
+        <v>1016</v>
       </c>
       <c r="AR15" t="s">
         <v>112</v>
@@ -9623,136 +9981,136 @@
         <v>113</v>
       </c>
       <c r="BA15" t="s">
-        <v>954</v>
+        <v>1017</v>
       </c>
       <c r="BB15" t="s">
-        <v>955</v>
+        <v>1018</v>
       </c>
       <c r="BC15" t="s">
-        <v>956</v>
+        <v>1019</v>
       </c>
       <c r="BH15" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI15" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ15" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK15" t="s">
-        <v>957</v>
+        <v>1020</v>
       </c>
       <c r="BL15" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM15" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN15" t="s">
-        <v>958</v>
+        <v>1021</v>
       </c>
       <c r="BO15" t="s">
-        <v>959</v>
+        <v>1022</v>
       </c>
       <c r="BP15" t="s">
-        <v>960</v>
+        <v>1023</v>
       </c>
       <c r="BQ15" t="s">
-        <v>961</v>
+        <v>1024</v>
       </c>
       <c r="BR15" t="s">
-        <v>962</v>
+        <v>1025</v>
       </c>
       <c r="BS15" t="s">
-        <v>963</v>
+        <v>1026</v>
       </c>
       <c r="BT15">
         <v>1.0</v>
       </c>
       <c r="BU15" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="BV15" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="BW15" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="BX15" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="BY15" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="CC15" t="s">
-        <v>964</v>
+        <v>1027</v>
       </c>
       <c r="CD15" t="s">
-        <v>965</v>
+        <v>1028</v>
       </c>
       <c r="CH15" t="s">
-        <v>966</v>
+        <v>1029</v>
       </c>
       <c r="CI15" t="s">
-        <v>967</v>
+        <v>1030</v>
       </c>
       <c r="CJ15" t="s">
-        <v>968</v>
+        <v>1031</v>
       </c>
       <c r="CN15" t="s">
-        <v>969</v>
+        <v>1032</v>
       </c>
       <c r="CO15" t="s">
-        <v>970</v>
+        <v>1033</v>
       </c>
       <c r="CP15" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="CW15" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CX15" t="s">
-        <v>971</v>
+        <v>1034</v>
       </c>
       <c r="DC15" t="s">
-        <v>972</v>
+        <v>1035</v>
       </c>
       <c r="DD15" t="s">
-        <v>973</v>
+        <v>1036</v>
       </c>
       <c r="DE15" t="s">
-        <v>974</v>
+        <v>1037</v>
       </c>
       <c r="DF15" t="s">
-        <v>975</v>
+        <v>1038</v>
       </c>
       <c r="DG15" t="s">
-        <v>976</v>
+        <v>1039</v>
       </c>
       <c r="DH15" t="s">
-        <v>977</v>
+        <v>1040</v>
       </c>
       <c r="DO15" t="s">
-        <v>938</v>
+        <v>1001</v>
       </c>
       <c r="DP15" t="s">
-        <v>944</v>
+        <v>1007</v>
       </c>
       <c r="DQ15" t="s">
-        <v>978</v>
+        <v>1041</v>
       </c>
       <c r="DR15" t="s">
-        <v>943</v>
+        <v>1006</v>
       </c>
       <c r="DU15" t="s">
-        <v>979</v>
+        <v>1042</v>
       </c>
       <c r="DV15" t="s">
-        <v>980</v>
+        <v>1043</v>
       </c>
       <c r="DW15" t="s">
-        <v>981</v>
+        <v>1044</v>
       </c>
       <c r="DZ15" t="s">
         <v>157</v>
@@ -9770,7 +10128,7 @@
         <v>178</v>
       </c>
       <c r="FX15" t="s">
-        <v>982</v>
+        <v>1045</v>
       </c>
       <c r="GF15" t="s">
         <v>185</v>
@@ -9782,16 +10140,16 @@
         <v>119</v>
       </c>
       <c r="HR15" t="s">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="HS15" t="s">
-        <v>984</v>
+        <v>1047</v>
       </c>
       <c r="HT15" t="s">
-        <v>985</v>
+        <v>1048</v>
       </c>
       <c r="HU15" t="s">
-        <v>986</v>
+        <v>1049</v>
       </c>
       <c r="HW15" t="s">
         <v>185</v>
@@ -9812,7 +10170,7 @@
         <v>195</v>
       </c>
       <c r="JR15" t="s">
-        <v>987</v>
+        <v>1050</v>
       </c>
       <c r="KB15" t="s">
         <v>271</v>
@@ -9839,43 +10197,43 @@
         <v>308</v>
       </c>
       <c r="MB15" t="s">
-        <v>988</v>
+        <v>1051</v>
       </c>
       <c r="MC15" t="s">
-        <v>989</v>
+        <v>1052</v>
       </c>
       <c r="MD15" t="s">
-        <v>990</v>
+        <v>1053</v>
       </c>
       <c r="ME15" t="s">
-        <v>991</v>
+        <v>1054</v>
       </c>
       <c r="MF15" t="s">
-        <v>992</v>
+        <v>1055</v>
       </c>
       <c r="MG15" t="s">
-        <v>993</v>
+        <v>1056</v>
       </c>
       <c r="MH15" t="s">
-        <v>994</v>
+        <v>1057</v>
       </c>
       <c r="MI15" t="s">
-        <v>995</v>
+        <v>1058</v>
       </c>
       <c r="MK15" t="s">
-        <v>996</v>
+        <v>1059</v>
       </c>
       <c r="ML15" t="s">
-        <v>997</v>
+        <v>1060</v>
       </c>
       <c r="MM15" t="s">
-        <v>998</v>
+        <v>1061</v>
       </c>
       <c r="MS15" t="s">
-        <v>999</v>
+        <v>1062</v>
       </c>
       <c r="MT15" t="s">
-        <v>1000</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16">
@@ -9889,73 +10247,73 @@
         <v>43594.27174768518</v>
       </c>
       <c r="D16" s="2">
-        <v>43605.76094907407</v>
+        <v>43607.65584490741</v>
       </c>
       <c r="E16" t="s">
-        <v>1001</v>
+        <v>1064</v>
       </c>
       <c r="F16" t="s">
-        <v>1002</v>
+        <v>1065</v>
       </c>
       <c r="J16" t="s">
-        <v>1003</v>
+        <v>1066</v>
       </c>
       <c r="K16" t="s">
-        <v>1004</v>
+        <v>1067</v>
       </c>
       <c r="L16" t="s">
-        <v>1005</v>
+        <v>1068</v>
       </c>
       <c r="M16" t="s">
-        <v>1006</v>
+        <v>1069</v>
       </c>
       <c r="N16" t="s">
-        <v>1007</v>
+        <v>1070</v>
       </c>
       <c r="O16" t="s">
-        <v>1008</v>
+        <v>1071</v>
       </c>
       <c r="P16" t="s">
-        <v>1009</v>
+        <v>1072</v>
       </c>
       <c r="T16" t="s">
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="U16">
         <v>523.0</v>
       </c>
       <c r="V16" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="X16">
         <v>116.0</v>
       </c>
       <c r="Y16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA16" t="s">
-        <v>1011</v>
+        <v>1074</v>
       </c>
       <c r="AB16" t="s">
-        <v>901</v>
+        <v>333</v>
       </c>
       <c r="AC16" t="s">
-        <v>1012</v>
+        <v>1075</v>
       </c>
       <c r="AD16" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="AE16" t="s">
-        <v>1014</v>
+        <v>1077</v>
       </c>
       <c r="AF16" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="AG16" t="s">
-        <v>1015</v>
+        <v>1078</v>
       </c>
       <c r="AH16" t="s">
-        <v>1016</v>
+        <v>1079</v>
       </c>
       <c r="AP16" t="s">
         <v>110</v>
@@ -9967,154 +10325,157 @@
         <v>113</v>
       </c>
       <c r="BA16" t="s">
-        <v>1017</v>
+        <v>1080</v>
       </c>
       <c r="BB16" t="s">
-        <v>1018</v>
+        <v>1081</v>
       </c>
       <c r="BC16" t="s">
-        <v>1019</v>
+        <v>1082</v>
       </c>
       <c r="BD16" t="s">
-        <v>1020</v>
+        <v>1083</v>
       </c>
       <c r="BE16" t="s">
-        <v>1021</v>
+        <v>1084</v>
       </c>
       <c r="BH16" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI16" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ16" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK16" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="BL16" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM16" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN16" t="s">
-        <v>1022</v>
+        <v>1085</v>
       </c>
       <c r="BO16" t="s">
-        <v>1023</v>
+        <v>1086</v>
       </c>
       <c r="BP16" t="s">
-        <v>1024</v>
+        <v>1087</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1025</v>
+        <v>1088</v>
       </c>
       <c r="BR16" t="s">
-        <v>1026</v>
+        <v>1089</v>
       </c>
       <c r="BS16" t="s">
-        <v>1027</v>
+        <v>1090</v>
       </c>
       <c r="BT16" t="s">
-        <v>1028</v>
+        <v>1091</v>
       </c>
       <c r="BU16" t="s">
-        <v>1029</v>
+        <v>1092</v>
       </c>
       <c r="BV16" t="s">
-        <v>1030</v>
+        <v>1093</v>
       </c>
       <c r="BW16" t="s">
-        <v>1031</v>
+        <v>1094</v>
       </c>
       <c r="BX16" t="s">
-        <v>1032</v>
+        <v>1095</v>
       </c>
       <c r="BY16" t="s">
-        <v>1033</v>
+        <v>1096</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1034</v>
+        <v>1097</v>
       </c>
       <c r="CA16" t="s">
-        <v>1035</v>
+        <v>1098</v>
       </c>
       <c r="CB16" t="s">
-        <v>1036</v>
+        <v>1099</v>
       </c>
       <c r="CC16" t="s">
-        <v>1037</v>
+        <v>1100</v>
       </c>
       <c r="CD16" t="s">
-        <v>1038</v>
+        <v>1101</v>
       </c>
       <c r="CE16" t="s">
-        <v>1039</v>
+        <v>1102</v>
       </c>
       <c r="CH16" t="s">
-        <v>1040</v>
+        <v>1103</v>
       </c>
       <c r="CI16" t="s">
-        <v>1041</v>
+        <v>1104</v>
       </c>
       <c r="CJ16" t="s">
-        <v>1042</v>
+        <v>1105</v>
       </c>
       <c r="CK16" t="s">
-        <v>1043</v>
+        <v>1106</v>
       </c>
       <c r="CN16" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="CO16" t="s">
-        <v>1044</v>
+        <v>1107</v>
       </c>
       <c r="CP16" t="s">
-        <v>1045</v>
+        <v>1108</v>
       </c>
       <c r="CW16" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC16" t="s">
-        <v>1046</v>
+        <v>1109</v>
       </c>
       <c r="DD16" t="s">
-        <v>1047</v>
+        <v>1110</v>
       </c>
       <c r="DE16" t="s">
-        <v>1048</v>
+        <v>1111</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>1112</v>
       </c>
       <c r="DO16" t="s">
-        <v>1049</v>
+        <v>1113</v>
       </c>
       <c r="DP16" t="s">
-        <v>1009</v>
+        <v>1072</v>
       </c>
       <c r="DQ16" t="s">
-        <v>1050</v>
+        <v>1114</v>
       </c>
       <c r="DR16" t="s">
-        <v>1051</v>
+        <v>1115</v>
       </c>
       <c r="DS16" t="s">
-        <v>1052</v>
+        <v>1116</v>
       </c>
       <c r="DT16" t="s">
-        <v>1053</v>
+        <v>1117</v>
       </c>
       <c r="DU16" t="s">
-        <v>1054</v>
+        <v>1118</v>
       </c>
       <c r="DV16" t="s">
-        <v>1046</v>
+        <v>1119</v>
       </c>
       <c r="DW16" t="s">
-        <v>1055</v>
+        <v>1120</v>
       </c>
       <c r="DY16" t="s">
-        <v>1056</v>
+        <v>1121</v>
       </c>
       <c r="DZ16" t="s">
         <v>157</v>
@@ -10159,16 +10520,16 @@
         <v>119</v>
       </c>
       <c r="HR16" t="s">
-        <v>1057</v>
+        <v>1122</v>
       </c>
       <c r="HS16" t="s">
-        <v>1058</v>
+        <v>1123</v>
       </c>
       <c r="HT16" t="s">
         <v>251</v>
       </c>
       <c r="HU16" t="s">
-        <v>1059</v>
+        <v>1124</v>
       </c>
       <c r="IZ16" t="s">
         <v>247</v>
@@ -10213,22 +10574,22 @@
         <v>309</v>
       </c>
       <c r="MB16" t="s">
-        <v>1060</v>
+        <v>1125</v>
       </c>
       <c r="MC16" t="s">
-        <v>1061</v>
+        <v>1126</v>
       </c>
       <c r="MD16" t="s">
-        <v>1062</v>
+        <v>1127</v>
       </c>
       <c r="MF16" t="s">
-        <v>1063</v>
+        <v>1128</v>
       </c>
       <c r="MI16" t="s">
-        <v>1064</v>
+        <v>1129</v>
       </c>
       <c r="MK16" t="s">
-        <v>1065</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17">
@@ -10245,49 +10606,49 @@
         <v>43595.56707175926</v>
       </c>
       <c r="E17" t="s">
-        <v>1066</v>
+        <v>1131</v>
       </c>
       <c r="F17" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="J17" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="K17" t="s">
-        <v>1068</v>
+        <v>1133</v>
       </c>
       <c r="L17" t="s">
-        <v>1069</v>
+        <v>1134</v>
       </c>
       <c r="M17" t="s">
-        <v>1070</v>
+        <v>1135</v>
       </c>
       <c r="N17" t="s">
-        <v>1071</v>
+        <v>1136</v>
       </c>
       <c r="O17" t="s">
-        <v>1072</v>
+        <v>1137</v>
       </c>
       <c r="P17" t="s">
-        <v>1073</v>
+        <v>1138</v>
       </c>
       <c r="Q17" t="s">
-        <v>1074</v>
+        <v>1139</v>
       </c>
       <c r="R17" t="s">
-        <v>1075</v>
+        <v>1140</v>
       </c>
       <c r="S17" t="s">
-        <v>1076</v>
+        <v>1141</v>
       </c>
       <c r="T17" t="s">
-        <v>1077</v>
+        <v>1142</v>
       </c>
       <c r="U17">
         <v>621.0</v>
       </c>
       <c r="V17" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W17">
         <v>4.0</v>
@@ -10296,106 +10657,106 @@
         <v>0.0</v>
       </c>
       <c r="Y17" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA17" t="s">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="AB17" t="s">
-        <v>1079</v>
+        <v>1144</v>
       </c>
       <c r="AC17" t="s">
-        <v>1080</v>
+        <v>1145</v>
       </c>
       <c r="AD17" t="s">
-        <v>1079</v>
+        <v>1144</v>
       </c>
       <c r="AE17" t="s">
-        <v>1081</v>
+        <v>1146</v>
       </c>
       <c r="AF17" t="s">
-        <v>1082</v>
+        <v>1147</v>
       </c>
       <c r="AG17" t="s">
-        <v>1083</v>
+        <v>1148</v>
       </c>
       <c r="AH17" t="s">
-        <v>1082</v>
+        <v>1147</v>
       </c>
       <c r="AI17" t="s">
-        <v>1084</v>
+        <v>1149</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1085</v>
+        <v>1150</v>
       </c>
       <c r="AK17" t="s">
-        <v>1086</v>
+        <v>1151</v>
       </c>
       <c r="AL17" t="s">
-        <v>1087</v>
+        <v>1152</v>
       </c>
       <c r="AM17" t="s">
-        <v>1088</v>
+        <v>1153</v>
       </c>
       <c r="AN17" t="s">
-        <v>1079</v>
+        <v>1144</v>
       </c>
       <c r="AP17" t="s">
         <v>110</v>
       </c>
       <c r="BA17" t="s">
-        <v>1089</v>
+        <v>1154</v>
       </c>
       <c r="BB17" t="s">
-        <v>1090</v>
+        <v>1155</v>
       </c>
       <c r="BC17" t="s">
-        <v>1091</v>
+        <v>1156</v>
       </c>
       <c r="BD17" t="s">
-        <v>1092</v>
+        <v>1157</v>
       </c>
       <c r="BE17" t="s">
-        <v>1093</v>
+        <v>1158</v>
       </c>
       <c r="BF17" t="s">
-        <v>1094</v>
+        <v>1159</v>
       </c>
       <c r="BG17" t="s">
-        <v>1095</v>
+        <v>1160</v>
       </c>
       <c r="BH17" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI17" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BJ17" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BK17" t="s">
-        <v>957</v>
+        <v>1020</v>
       </c>
       <c r="BL17" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM17" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN17" t="s">
-        <v>1096</v>
+        <v>1161</v>
       </c>
       <c r="BO17" t="s">
-        <v>1097</v>
+        <v>1162</v>
       </c>
       <c r="BP17" t="s">
-        <v>1098</v>
+        <v>1163</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1099</v>
+        <v>1164</v>
       </c>
       <c r="BR17" t="s">
-        <v>1100</v>
+        <v>1165</v>
       </c>
       <c r="BS17">
         <v>3.0</v>
@@ -10413,127 +10774,127 @@
         <v>5.0</v>
       </c>
       <c r="BX17" t="s">
-        <v>1101</v>
+        <v>1166</v>
       </c>
       <c r="BY17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CA17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CB17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC17" t="s">
-        <v>1102</v>
+        <v>1167</v>
       </c>
       <c r="CD17" t="s">
-        <v>1103</v>
+        <v>1168</v>
       </c>
       <c r="CE17" t="s">
-        <v>1104</v>
+        <v>1169</v>
       </c>
       <c r="CF17" t="s">
-        <v>1105</v>
+        <v>1170</v>
       </c>
       <c r="CG17" t="s">
-        <v>1106</v>
+        <v>1171</v>
       </c>
       <c r="CH17" t="s">
-        <v>1107</v>
+        <v>1172</v>
       </c>
       <c r="CI17" t="s">
-        <v>1108</v>
+        <v>1173</v>
       </c>
       <c r="CJ17" t="s">
-        <v>1109</v>
+        <v>1174</v>
       </c>
       <c r="CK17" t="s">
-        <v>1110</v>
+        <v>1175</v>
       </c>
       <c r="CN17" t="s">
-        <v>1111</v>
+        <v>1176</v>
       </c>
       <c r="CO17" t="s">
-        <v>1112</v>
+        <v>1177</v>
       </c>
       <c r="CP17" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="CQ17" t="s">
-        <v>1113</v>
+        <v>1178</v>
       </c>
       <c r="CR17" t="s">
-        <v>1114</v>
+        <v>1179</v>
       </c>
       <c r="CS17" t="s">
-        <v>1115</v>
+        <v>1180</v>
       </c>
       <c r="CW17" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="CX17" t="s">
-        <v>1080</v>
+        <v>1145</v>
       </c>
       <c r="CY17" t="s">
-        <v>1116</v>
+        <v>1181</v>
       </c>
       <c r="CZ17" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="DA17" t="s">
-        <v>1117</v>
+        <v>1182</v>
       </c>
       <c r="DB17" t="s">
-        <v>1118</v>
+        <v>1183</v>
       </c>
       <c r="DC17" t="s">
-        <v>1119</v>
+        <v>1184</v>
       </c>
       <c r="DD17" t="s">
-        <v>1120</v>
+        <v>1185</v>
       </c>
       <c r="DE17" t="s">
-        <v>1121</v>
+        <v>1186</v>
       </c>
       <c r="DF17" t="s">
-        <v>1122</v>
+        <v>1187</v>
       </c>
       <c r="DG17" t="s">
-        <v>1123</v>
+        <v>1188</v>
       </c>
       <c r="DH17" t="s">
-        <v>1124</v>
+        <v>1189</v>
       </c>
       <c r="DI17" t="s">
-        <v>1125</v>
+        <v>1190</v>
       </c>
       <c r="DJ17" t="s">
-        <v>1126</v>
+        <v>1191</v>
       </c>
       <c r="DK17" t="s">
-        <v>1127</v>
+        <v>1192</v>
       </c>
       <c r="DO17" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="DP17" t="s">
-        <v>1128</v>
+        <v>1193</v>
       </c>
       <c r="DQ17" t="s">
-        <v>1129</v>
+        <v>1194</v>
       </c>
       <c r="DR17" t="s">
-        <v>1130</v>
+        <v>1195</v>
       </c>
       <c r="DS17" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="DT17" t="s">
-        <v>1132</v>
+        <v>1197</v>
       </c>
       <c r="EA17" t="s">
         <v>158</v>
@@ -10578,7 +10939,7 @@
         <v>199</v>
       </c>
       <c r="GU17" t="s">
-        <v>1133</v>
+        <v>1198</v>
       </c>
       <c r="GW17" t="s">
         <v>208</v>
@@ -10587,16 +10948,16 @@
         <v>210</v>
       </c>
       <c r="HI17" t="s">
-        <v>1134</v>
+        <v>1199</v>
       </c>
       <c r="HO17" t="s">
         <v>119</v>
       </c>
       <c r="HR17" t="s">
-        <v>1135</v>
+        <v>1200</v>
       </c>
       <c r="HS17" t="s">
-        <v>1136</v>
+        <v>1201</v>
       </c>
       <c r="ID17" t="s">
         <v>226</v>
@@ -10647,7 +11008,7 @@
         <v>297</v>
       </c>
       <c r="LP17" t="s">
-        <v>1137</v>
+        <v>1202</v>
       </c>
       <c r="LQ17" t="s">
         <v>303</v>
@@ -10662,16 +11023,16 @@
         <v>306</v>
       </c>
       <c r="MA17" t="s">
-        <v>1138</v>
+        <v>1203</v>
       </c>
       <c r="MC17" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="MK17" t="s">
-        <v>1139</v>
+        <v>1204</v>
       </c>
       <c r="MT17" t="s">
-        <v>1140</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -10688,46 +11049,46 @@
         <v>43607.38201388889</v>
       </c>
       <c r="E18" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="F18" t="s">
-        <v>1141</v>
+        <v>1206</v>
       </c>
       <c r="J18" t="s">
-        <v>1142</v>
+        <v>1207</v>
       </c>
       <c r="K18" t="s">
-        <v>1143</v>
+        <v>1208</v>
       </c>
       <c r="L18" t="s">
-        <v>1143</v>
+        <v>1208</v>
       </c>
       <c r="M18" t="s">
-        <v>1144</v>
+        <v>1209</v>
       </c>
       <c r="N18" t="s">
-        <v>1145</v>
+        <v>1210</v>
       </c>
       <c r="O18" t="s">
-        <v>1146</v>
+        <v>1211</v>
       </c>
       <c r="P18" t="s">
-        <v>1147</v>
+        <v>1212</v>
       </c>
       <c r="Q18" t="s">
-        <v>1148</v>
+        <v>1213</v>
       </c>
       <c r="R18" t="s">
-        <v>1149</v>
+        <v>1214</v>
       </c>
       <c r="T18" t="s">
-        <v>1150</v>
+        <v>1215</v>
       </c>
       <c r="U18" t="s">
-        <v>738</v>
+        <v>819</v>
       </c>
       <c r="V18" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W18">
         <v>18.0</v>
@@ -10736,7 +11097,7 @@
         <v>2.0</v>
       </c>
       <c r="Y18" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AP18" t="s">
         <v>110</v>
@@ -10745,109 +11106,109 @@
         <v>113</v>
       </c>
       <c r="BA18" t="s">
-        <v>1151</v>
+        <v>1216</v>
       </c>
       <c r="BB18" t="s">
-        <v>1152</v>
+        <v>1217</v>
       </c>
       <c r="BC18" t="s">
-        <v>1153</v>
+        <v>1218</v>
       </c>
       <c r="BH18" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI18" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ18" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK18" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL18" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM18" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN18" t="s">
-        <v>791</v>
+        <v>872</v>
       </c>
       <c r="BO18" t="s">
-        <v>1154</v>
+        <v>1219</v>
       </c>
       <c r="BX18" t="s">
-        <v>1155</v>
+        <v>1220</v>
       </c>
       <c r="BY18" t="s">
-        <v>1155</v>
+        <v>1220</v>
       </c>
       <c r="CC18" t="s">
-        <v>1156</v>
+        <v>1221</v>
       </c>
       <c r="CH18" t="s">
-        <v>791</v>
+        <v>872</v>
       </c>
       <c r="CI18" t="s">
-        <v>1157</v>
+        <v>1222</v>
       </c>
       <c r="CN18" t="s">
-        <v>1158</v>
+        <v>1223</v>
       </c>
       <c r="CO18" t="s">
-        <v>1159</v>
+        <v>1224</v>
       </c>
       <c r="CP18" t="s">
-        <v>1160</v>
+        <v>1225</v>
       </c>
       <c r="CW18" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DD18" t="s">
-        <v>1161</v>
+        <v>1226</v>
       </c>
       <c r="DE18" t="s">
-        <v>1162</v>
+        <v>1227</v>
       </c>
       <c r="DF18" t="s">
-        <v>1163</v>
+        <v>1228</v>
       </c>
       <c r="DG18" t="s">
-        <v>1164</v>
+        <v>1229</v>
       </c>
       <c r="DI18" t="s">
-        <v>1165</v>
+        <v>1230</v>
       </c>
       <c r="DJ18" t="s">
-        <v>1166</v>
+        <v>1231</v>
       </c>
       <c r="DL18" t="s">
-        <v>1167</v>
+        <v>1232</v>
       </c>
       <c r="DM18" t="s">
-        <v>1168</v>
+        <v>1233</v>
       </c>
       <c r="DO18" t="s">
-        <v>1142</v>
+        <v>1207</v>
       </c>
       <c r="DP18" t="s">
-        <v>1169</v>
+        <v>1234</v>
       </c>
       <c r="DQ18" t="s">
-        <v>787</v>
+        <v>868</v>
       </c>
       <c r="DR18" t="s">
-        <v>1170</v>
+        <v>1235</v>
       </c>
       <c r="DU18" t="s">
-        <v>1171</v>
+        <v>1236</v>
       </c>
       <c r="DV18" t="s">
-        <v>1172</v>
+        <v>1237</v>
       </c>
       <c r="DW18" t="s">
-        <v>1173</v>
+        <v>1238</v>
       </c>
       <c r="DZ18" t="s">
         <v>157</v>
@@ -10862,13 +11223,13 @@
         <v>168</v>
       </c>
       <c r="EQ18" t="s">
-        <v>1174</v>
+        <v>1239</v>
       </c>
       <c r="FX18" t="s">
-        <v>1175</v>
+        <v>1240</v>
       </c>
       <c r="GU18" t="s">
-        <v>852</v>
+        <v>933</v>
       </c>
       <c r="HH18" t="s">
         <v>119</v>
@@ -10895,28 +11256,28 @@
         <v>307</v>
       </c>
       <c r="MB18" t="s">
-        <v>1176</v>
+        <v>1241</v>
       </c>
       <c r="MC18" t="s">
-        <v>1177</v>
+        <v>1242</v>
       </c>
       <c r="MI18" t="s">
-        <v>1178</v>
+        <v>1243</v>
       </c>
       <c r="MK18" t="s">
-        <v>1179</v>
+        <v>1244</v>
       </c>
       <c r="ML18" t="s">
-        <v>1180</v>
+        <v>1245</v>
       </c>
       <c r="MM18" t="s">
-        <v>1181</v>
+        <v>1246</v>
       </c>
       <c r="MQ18" t="s">
-        <v>1182</v>
+        <v>1247</v>
       </c>
       <c r="MR18" t="s">
-        <v>1183</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -10933,49 +11294,49 @@
         <v>43606.38648148148</v>
       </c>
       <c r="E19" t="s">
-        <v>1184</v>
+        <v>1249</v>
       </c>
       <c r="F19" t="s">
-        <v>1185</v>
+        <v>1250</v>
       </c>
       <c r="J19" t="s">
-        <v>1185</v>
+        <v>1250</v>
       </c>
       <c r="K19" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="L19" t="s">
-        <v>1186</v>
+        <v>1251</v>
       </c>
       <c r="M19" t="s">
-        <v>1187</v>
+        <v>1252</v>
       </c>
       <c r="N19" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="O19" t="s">
-        <v>1188</v>
+        <v>1253</v>
       </c>
       <c r="P19" t="s">
-        <v>1189</v>
+        <v>1254</v>
       </c>
       <c r="Q19" t="s">
-        <v>1190</v>
+        <v>1255</v>
       </c>
       <c r="R19" t="s">
-        <v>1191</v>
+        <v>1256</v>
       </c>
       <c r="S19" t="s">
-        <v>1192</v>
+        <v>1257</v>
       </c>
       <c r="T19" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="U19" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="V19" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W19">
         <v>11.0</v>
@@ -10984,82 +11345,82 @@
         <v>1.0</v>
       </c>
       <c r="Y19" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AO19" t="s">
         <v>109</v>
       </c>
       <c r="BB19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BC19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BD19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BE19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BF19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BG19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BH19" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI19" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ19" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK19" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL19" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM19" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN19" t="s">
-        <v>1194</v>
+        <v>1259</v>
       </c>
       <c r="BS19" t="s">
-        <v>1195</v>
+        <v>1260</v>
       </c>
       <c r="BX19" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC19" t="s">
-        <v>1196</v>
+        <v>1261</v>
       </c>
       <c r="CD19" t="s">
-        <v>1197</v>
+        <v>1262</v>
       </c>
       <c r="CH19" t="s">
-        <v>1198</v>
+        <v>1263</v>
       </c>
       <c r="CI19" t="s">
-        <v>1194</v>
+        <v>1259</v>
       </c>
       <c r="CW19" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DF19" t="s">
-        <v>1199</v>
+        <v>1264</v>
       </c>
       <c r="DG19" t="s">
-        <v>495</v>
+        <v>576</v>
       </c>
       <c r="DH19" t="s">
-        <v>496</v>
+        <v>577</v>
       </c>
       <c r="DP19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="DZ19" t="s">
         <v>157</v>
@@ -11101,10 +11462,10 @@
         <v>303</v>
       </c>
       <c r="MI19" t="s">
-        <v>1200</v>
+        <v>1265</v>
       </c>
       <c r="MJ19" t="s">
-        <v>1201</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -11121,40 +11482,40 @@
         <v>43603.00114583333</v>
       </c>
       <c r="E20" t="s">
-        <v>1202</v>
+        <v>1267</v>
       </c>
       <c r="F20" t="s">
-        <v>1203</v>
+        <v>1268</v>
       </c>
       <c r="J20" t="s">
-        <v>1203</v>
+        <v>1268</v>
       </c>
       <c r="K20" t="s">
-        <v>1204</v>
+        <v>1269</v>
       </c>
       <c r="L20" t="s">
-        <v>1205</v>
+        <v>1270</v>
       </c>
       <c r="M20" t="s">
-        <v>1206</v>
+        <v>1271</v>
       </c>
       <c r="N20" t="s">
-        <v>1207</v>
+        <v>1272</v>
       </c>
       <c r="O20" t="s">
-        <v>1208</v>
+        <v>1273</v>
       </c>
       <c r="P20" t="s">
-        <v>1209</v>
+        <v>1274</v>
       </c>
       <c r="T20" t="s">
-        <v>1210</v>
+        <v>1275</v>
       </c>
       <c r="U20" t="s">
-        <v>1211</v>
+        <v>1276</v>
       </c>
       <c r="V20" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W20">
         <v>4.0</v>
@@ -11163,7 +11524,7 @@
         <v>0.0</v>
       </c>
       <c r="Y20" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AR20" t="s">
         <v>112</v>
@@ -11172,58 +11533,58 @@
         <v>113</v>
       </c>
       <c r="BA20" t="s">
-        <v>1212</v>
+        <v>1277</v>
       </c>
       <c r="BB20" t="s">
-        <v>1213</v>
+        <v>1278</v>
       </c>
       <c r="BC20" t="s">
-        <v>1214</v>
+        <v>1279</v>
       </c>
       <c r="BD20" t="s">
-        <v>1215</v>
+        <v>1280</v>
       </c>
       <c r="BE20" t="s">
-        <v>1216</v>
+        <v>1281</v>
       </c>
       <c r="BF20" t="s">
-        <v>1217</v>
+        <v>1282</v>
       </c>
       <c r="BG20" t="s">
-        <v>1218</v>
+        <v>1283</v>
       </c>
       <c r="BH20" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="BI20" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ20" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK20" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL20" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM20" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN20" t="s">
-        <v>1219</v>
+        <v>1284</v>
       </c>
       <c r="BO20" t="s">
-        <v>1220</v>
+        <v>1285</v>
       </c>
       <c r="BP20" t="s">
-        <v>1221</v>
+        <v>1286</v>
       </c>
       <c r="BQ20" t="s">
-        <v>1222</v>
+        <v>1287</v>
       </c>
       <c r="BR20" t="s">
-        <v>1223</v>
+        <v>1288</v>
       </c>
       <c r="BS20">
         <v>2.0</v>
@@ -11241,85 +11602,85 @@
         <v>40.0</v>
       </c>
       <c r="BX20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CA20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CB20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC20" t="s">
-        <v>1224</v>
+        <v>1289</v>
       </c>
       <c r="CD20" t="s">
-        <v>1225</v>
+        <v>1290</v>
       </c>
       <c r="CE20" t="s">
-        <v>1226</v>
+        <v>1291</v>
       </c>
       <c r="CH20" t="s">
-        <v>1227</v>
+        <v>1292</v>
       </c>
       <c r="CI20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CJ20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CK20" t="s">
-        <v>827</v>
+        <v>908</v>
       </c>
       <c r="CL20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CM20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CN20" t="s">
-        <v>1229</v>
+        <v>1294</v>
       </c>
       <c r="CO20" t="s">
-        <v>1230</v>
+        <v>1295</v>
       </c>
       <c r="CP20" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="CQ20" t="s">
-        <v>1231</v>
+        <v>1296</v>
       </c>
       <c r="CW20" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC20" t="s">
-        <v>1232</v>
+        <v>1297</v>
       </c>
       <c r="DD20" t="s">
-        <v>1233</v>
+        <v>1298</v>
       </c>
       <c r="DE20" t="s">
-        <v>1234</v>
+        <v>1299</v>
       </c>
       <c r="DG20" t="s">
-        <v>1235</v>
+        <v>1300</v>
       </c>
       <c r="DH20" t="s">
-        <v>1236</v>
+        <v>1301</v>
       </c>
       <c r="DO20" t="s">
-        <v>1203</v>
+        <v>1268</v>
       </c>
       <c r="DP20" t="s">
-        <v>1237</v>
+        <v>1302</v>
       </c>
       <c r="DQ20" t="s">
-        <v>1238</v>
+        <v>1303</v>
       </c>
       <c r="DZ20" t="s">
         <v>157</v>
@@ -11346,13 +11707,13 @@
         <v>119</v>
       </c>
       <c r="HQ20" t="s">
-        <v>1239</v>
+        <v>1304</v>
       </c>
       <c r="JC20" t="s">
         <v>250</v>
       </c>
       <c r="JR20" t="s">
-        <v>1240</v>
+        <v>1305</v>
       </c>
       <c r="LD20" t="s">
         <v>295</v>
@@ -11364,22 +11725,22 @@
         <v>304</v>
       </c>
       <c r="MA20" t="s">
-        <v>1241</v>
+        <v>1306</v>
       </c>
       <c r="MC20" t="s">
-        <v>1242</v>
+        <v>1307</v>
       </c>
       <c r="MF20" t="s">
-        <v>1243</v>
+        <v>1308</v>
       </c>
       <c r="ML20" t="s">
-        <v>1244</v>
+        <v>1309</v>
       </c>
       <c r="MM20" t="s">
-        <v>1245</v>
+        <v>1310</v>
       </c>
       <c r="MS20" t="s">
-        <v>1246</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -11396,46 +11757,46 @@
         <v>43606.41458333333</v>
       </c>
       <c r="E21" t="s">
-        <v>1247</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="s">
-        <v>1248</v>
+        <v>1313</v>
       </c>
       <c r="J21" t="s">
-        <v>1248</v>
+        <v>1313</v>
       </c>
       <c r="K21" t="s">
-        <v>1249</v>
+        <v>1314</v>
       </c>
       <c r="L21" t="s">
-        <v>1249</v>
+        <v>1314</v>
       </c>
       <c r="M21" t="s">
-        <v>1250</v>
+        <v>1315</v>
       </c>
       <c r="N21" t="s">
-        <v>1251</v>
+        <v>1316</v>
       </c>
       <c r="O21" t="s">
-        <v>1252</v>
+        <v>1317</v>
       </c>
       <c r="P21" t="s">
-        <v>1253</v>
+        <v>1318</v>
       </c>
       <c r="Q21" t="s">
-        <v>1254</v>
+        <v>1319</v>
       </c>
       <c r="R21" t="s">
-        <v>1255</v>
+        <v>1320</v>
       </c>
       <c r="T21" t="s">
-        <v>1256</v>
+        <v>1321</v>
       </c>
       <c r="U21" t="s">
-        <v>1257</v>
+        <v>1322</v>
       </c>
       <c r="V21" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W21">
         <v>21.0</v>
@@ -11444,7 +11805,7 @@
         <v>3.0</v>
       </c>
       <c r="Y21" t="s">
-        <v>1258</v>
+        <v>1323</v>
       </c>
       <c r="AP21" t="s">
         <v>110</v>
@@ -11456,136 +11817,136 @@
         <v>120</v>
       </c>
       <c r="BB21" t="s">
-        <v>1259</v>
+        <v>1324</v>
       </c>
       <c r="BC21" t="s">
-        <v>1260</v>
+        <v>1325</v>
       </c>
       <c r="BD21" t="s">
-        <v>1261</v>
+        <v>1326</v>
       </c>
       <c r="BE21" t="s">
-        <v>1262</v>
+        <v>1327</v>
       </c>
       <c r="BF21" t="s">
-        <v>1263</v>
+        <v>1328</v>
       </c>
       <c r="BG21" t="s">
-        <v>1264</v>
+        <v>1329</v>
       </c>
       <c r="BH21" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI21" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BJ21" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BK21" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="BL21" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM21" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN21" t="s">
-        <v>1265</v>
+        <v>1330</v>
       </c>
       <c r="BS21" t="s">
-        <v>1266</v>
+        <v>1331</v>
       </c>
       <c r="BX21" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC21" t="s">
-        <v>1267</v>
+        <v>1332</v>
       </c>
       <c r="CH21" t="s">
-        <v>1268</v>
+        <v>1333</v>
       </c>
       <c r="CI21" t="s">
-        <v>1269</v>
+        <v>1334</v>
       </c>
       <c r="CJ21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CK21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CL21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CM21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CN21" t="s">
-        <v>1271</v>
+        <v>1336</v>
       </c>
       <c r="CP21" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CW21" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC21" t="s">
-        <v>1272</v>
+        <v>1337</v>
       </c>
       <c r="DD21" t="s">
-        <v>1273</v>
+        <v>1338</v>
       </c>
       <c r="DE21" t="s">
-        <v>1274</v>
+        <v>1339</v>
       </c>
       <c r="DF21" t="s">
-        <v>1275</v>
+        <v>1340</v>
       </c>
       <c r="DG21" t="s">
-        <v>1276</v>
+        <v>1341</v>
       </c>
       <c r="DH21" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="DI21" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="DJ21" t="s">
-        <v>1279</v>
+        <v>1344</v>
       </c>
       <c r="DK21" t="s">
-        <v>1280</v>
+        <v>1345</v>
       </c>
       <c r="DL21" t="s">
-        <v>1281</v>
+        <v>1346</v>
       </c>
       <c r="DM21" t="s">
-        <v>1282</v>
+        <v>1347</v>
       </c>
       <c r="DN21" t="s">
-        <v>1283</v>
+        <v>1348</v>
       </c>
       <c r="DO21" t="s">
-        <v>1284</v>
+        <v>1349</v>
       </c>
       <c r="DP21" t="s">
-        <v>1285</v>
+        <v>1350</v>
       </c>
       <c r="DQ21" t="s">
-        <v>1286</v>
+        <v>1351</v>
       </c>
       <c r="DR21" t="s">
-        <v>1287</v>
+        <v>1352</v>
       </c>
       <c r="DU21" t="s">
-        <v>1288</v>
+        <v>1353</v>
       </c>
       <c r="DV21" t="s">
-        <v>1289</v>
+        <v>1354</v>
       </c>
       <c r="DW21" t="s">
-        <v>1290</v>
+        <v>1355</v>
       </c>
       <c r="DZ21" t="s">
         <v>157</v>
@@ -11741,7 +12102,7 @@
         <v>213</v>
       </c>
       <c r="HQ21" t="s">
-        <v>1291</v>
+        <v>1356</v>
       </c>
       <c r="JG21" t="s">
         <v>253</v>
@@ -11834,34 +12195,34 @@
         <v>310</v>
       </c>
       <c r="MB21" t="s">
-        <v>1292</v>
+        <v>1357</v>
       </c>
       <c r="MC21" t="s">
-        <v>1293</v>
+        <v>1358</v>
       </c>
       <c r="MF21" t="s">
-        <v>1294</v>
+        <v>1359</v>
       </c>
       <c r="MG21" t="s">
-        <v>1295</v>
+        <v>1360</v>
       </c>
       <c r="MH21" t="s">
-        <v>1296</v>
+        <v>1361</v>
       </c>
       <c r="MI21" t="s">
-        <v>1297</v>
+        <v>1362</v>
       </c>
       <c r="MK21" t="s">
-        <v>1298</v>
+        <v>1363</v>
       </c>
       <c r="ML21" t="s">
-        <v>1299</v>
+        <v>1364</v>
       </c>
       <c r="MN21" t="s">
-        <v>1300</v>
+        <v>1365</v>
       </c>
       <c r="MS21" t="s">
-        <v>1301</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -11878,46 +12239,46 @@
         <v>43606.55300925926</v>
       </c>
       <c r="E22" t="s">
-        <v>1302</v>
+        <v>1367</v>
       </c>
       <c r="F22" t="s">
-        <v>1303</v>
+        <v>1368</v>
       </c>
       <c r="J22" t="s">
-        <v>1304</v>
+        <v>1369</v>
       </c>
       <c r="K22" t="s">
-        <v>1305</v>
+        <v>1370</v>
       </c>
       <c r="L22" t="s">
-        <v>1306</v>
+        <v>1371</v>
       </c>
       <c r="M22" t="s">
-        <v>1307</v>
+        <v>1372</v>
       </c>
       <c r="N22" t="s">
-        <v>1308</v>
+        <v>1373</v>
       </c>
       <c r="O22" t="s">
-        <v>1309</v>
+        <v>1374</v>
       </c>
       <c r="P22" t="s">
-        <v>1310</v>
+        <v>1375</v>
       </c>
       <c r="Q22" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
       <c r="R22" t="s">
-        <v>1312</v>
+        <v>1377</v>
       </c>
       <c r="T22" t="s">
-        <v>1313</v>
+        <v>1378</v>
       </c>
       <c r="U22" t="s">
-        <v>1314</v>
+        <v>1379</v>
       </c>
       <c r="V22" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W22">
         <v>33.0</v>
@@ -11926,49 +12287,49 @@
         <v>6.0</v>
       </c>
       <c r="Y22" t="s">
-        <v>1258</v>
+        <v>1323</v>
       </c>
       <c r="AO22" t="s">
         <v>109</v>
       </c>
       <c r="BB22" t="s">
-        <v>1315</v>
+        <v>1380</v>
       </c>
       <c r="BC22" t="s">
-        <v>1316</v>
+        <v>1381</v>
       </c>
       <c r="BD22" t="s">
-        <v>1317</v>
+        <v>1382</v>
       </c>
       <c r="BE22" t="s">
-        <v>1318</v>
+        <v>1383</v>
       </c>
       <c r="BH22" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="BI22" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ22" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK22" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL22" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM22" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN22" t="s">
-        <v>1319</v>
+        <v>1384</v>
       </c>
       <c r="BO22" t="s">
-        <v>1320</v>
+        <v>1385</v>
       </c>
       <c r="BP22" t="s">
-        <v>1321</v>
+        <v>1386</v>
       </c>
       <c r="BS22">
         <v>40.0</v>
@@ -11977,79 +12338,79 @@
         <v>5.0</v>
       </c>
       <c r="BU22" t="s">
-        <v>1322</v>
+        <v>1387</v>
       </c>
       <c r="BX22" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY22" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ22" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC22" t="s">
-        <v>1323</v>
+        <v>1388</v>
       </c>
       <c r="CD22" t="s">
-        <v>1324</v>
+        <v>1389</v>
       </c>
       <c r="CH22" t="s">
-        <v>1325</v>
+        <v>1390</v>
       </c>
       <c r="CI22" t="s">
-        <v>1326</v>
+        <v>1391</v>
       </c>
       <c r="CJ22" t="s">
-        <v>1327</v>
+        <v>1392</v>
       </c>
       <c r="CN22" t="s">
-        <v>1328</v>
+        <v>1393</v>
       </c>
       <c r="CO22" t="s">
-        <v>1329</v>
+        <v>1394</v>
       </c>
       <c r="CP22" t="s">
-        <v>1330</v>
+        <v>1395</v>
       </c>
       <c r="CW22" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC22" t="s">
-        <v>1331</v>
+        <v>1396</v>
       </c>
       <c r="DD22" t="s">
-        <v>1332</v>
+        <v>1397</v>
       </c>
       <c r="DE22" t="s">
-        <v>1333</v>
+        <v>1398</v>
       </c>
       <c r="DF22" t="s">
-        <v>1334</v>
+        <v>1399</v>
       </c>
       <c r="DO22" t="s">
-        <v>1304</v>
+        <v>1369</v>
       </c>
       <c r="DP22" t="s">
-        <v>1335</v>
+        <v>1400</v>
       </c>
       <c r="DQ22" t="s">
-        <v>1336</v>
+        <v>1401</v>
       </c>
       <c r="DR22" t="s">
-        <v>1337</v>
+        <v>1402</v>
       </c>
       <c r="DS22" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
       <c r="DT22" t="s">
-        <v>1338</v>
+        <v>1403</v>
       </c>
       <c r="DU22" t="s">
-        <v>1339</v>
+        <v>1404</v>
       </c>
       <c r="DV22" t="s">
-        <v>1340</v>
+        <v>1405</v>
       </c>
       <c r="DZ22" t="s">
         <v>157</v>
@@ -12085,19 +12446,19 @@
         <v>119</v>
       </c>
       <c r="HR22" t="s">
-        <v>1341</v>
+        <v>1406</v>
       </c>
       <c r="HS22" t="s">
-        <v>1342</v>
+        <v>1407</v>
       </c>
       <c r="HT22" t="s">
-        <v>1343</v>
+        <v>1408</v>
       </c>
       <c r="HU22" t="s">
-        <v>1344</v>
+        <v>1409</v>
       </c>
       <c r="HV22" t="s">
-        <v>1345</v>
+        <v>1410</v>
       </c>
       <c r="IE22" t="s">
         <v>227</v>
@@ -12145,22 +12506,22 @@
         <v>306</v>
       </c>
       <c r="MA22" t="s">
-        <v>1346</v>
+        <v>1411</v>
       </c>
       <c r="MC22" t="s">
-        <v>1347</v>
+        <v>1412</v>
       </c>
       <c r="MK22" t="s">
-        <v>1348</v>
+        <v>1413</v>
       </c>
       <c r="ML22" t="s">
-        <v>1349</v>
+        <v>1414</v>
       </c>
       <c r="MN22" t="s">
-        <v>1350</v>
+        <v>1415</v>
       </c>
       <c r="MT22" t="s">
-        <v>1351</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -12177,82 +12538,82 @@
         <v>43602.47785879629</v>
       </c>
       <c r="E23" t="s">
-        <v>1352</v>
+        <v>1417</v>
       </c>
       <c r="J23" t="s">
-        <v>1353</v>
+        <v>1418</v>
       </c>
       <c r="K23" t="s">
-        <v>1354</v>
+        <v>1419</v>
       </c>
       <c r="L23" t="s">
-        <v>1355</v>
+        <v>1420</v>
       </c>
       <c r="M23" t="s">
-        <v>1356</v>
+        <v>1421</v>
       </c>
       <c r="N23" t="s">
-        <v>1357</v>
+        <v>1422</v>
       </c>
       <c r="O23" t="s">
-        <v>1358</v>
+        <v>1423</v>
       </c>
       <c r="P23" t="s">
-        <v>1359</v>
+        <v>1424</v>
       </c>
       <c r="Q23" t="s">
-        <v>1360</v>
+        <v>1425</v>
       </c>
       <c r="R23" t="s">
-        <v>1361</v>
+        <v>1426</v>
       </c>
       <c r="T23" t="s">
-        <v>1362</v>
+        <v>1427</v>
       </c>
       <c r="U23" t="s">
-        <v>1363</v>
+        <v>1428</v>
       </c>
       <c r="V23" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="Y23" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AP23" t="s">
         <v>110</v>
       </c>
       <c r="BB23" t="s">
-        <v>1364</v>
+        <v>1429</v>
       </c>
       <c r="BC23" t="s">
-        <v>1365</v>
+        <v>1430</v>
       </c>
       <c r="BD23" t="s">
-        <v>1366</v>
+        <v>1431</v>
       </c>
       <c r="BE23" t="s">
-        <v>1367</v>
+        <v>1432</v>
       </c>
       <c r="BH23" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI23" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ23" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK23" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL23" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM23" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN23" t="s">
-        <v>1368</v>
+        <v>1433</v>
       </c>
       <c r="BO23" t="s">
         <v>309</v>
@@ -12270,52 +12631,52 @@
         <v>52.0</v>
       </c>
       <c r="CC23" t="s">
-        <v>1369</v>
+        <v>1434</v>
       </c>
       <c r="CD23" t="s">
-        <v>1370</v>
+        <v>1435</v>
       </c>
       <c r="CH23" t="s">
-        <v>1371</v>
+        <v>1436</v>
       </c>
       <c r="CI23" t="s">
-        <v>1372</v>
+        <v>1437</v>
       </c>
       <c r="CJ23" t="s">
-        <v>1373</v>
+        <v>1438</v>
       </c>
       <c r="CQ23" t="s">
-        <v>400</v>
+        <v>483</v>
       </c>
       <c r="CW23" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DD23" t="s">
-        <v>1374</v>
+        <v>1439</v>
       </c>
       <c r="DE23" t="s">
-        <v>1375</v>
+        <v>1440</v>
       </c>
       <c r="DG23" t="s">
-        <v>1376</v>
+        <v>1441</v>
       </c>
       <c r="DH23" t="s">
-        <v>1377</v>
+        <v>1442</v>
       </c>
       <c r="DO23" t="s">
-        <v>1378</v>
+        <v>1443</v>
       </c>
       <c r="DP23" t="s">
-        <v>1358</v>
+        <v>1423</v>
       </c>
       <c r="DR23" t="s">
-        <v>1359</v>
+        <v>1424</v>
       </c>
       <c r="DS23" t="s">
-        <v>1360</v>
+        <v>1425</v>
       </c>
       <c r="DT23" t="s">
-        <v>1361</v>
+        <v>1426</v>
       </c>
       <c r="DZ23" t="s">
         <v>157</v>
@@ -12369,19 +12730,19 @@
         <v>119</v>
       </c>
       <c r="HR23" t="s">
-        <v>1379</v>
+        <v>1444</v>
       </c>
       <c r="HS23" t="s">
-        <v>1380</v>
+        <v>1445</v>
       </c>
       <c r="HT23" t="s">
-        <v>1381</v>
+        <v>1446</v>
       </c>
       <c r="HU23" t="s">
-        <v>1382</v>
+        <v>1447</v>
       </c>
       <c r="HV23" t="s">
-        <v>1383</v>
+        <v>1448</v>
       </c>
       <c r="JE23" t="s">
         <v>252</v>
@@ -12417,10 +12778,10 @@
         <v>309</v>
       </c>
       <c r="MB23" t="s">
-        <v>1384</v>
+        <v>1449</v>
       </c>
       <c r="MT23" t="s">
-        <v>1385</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -12437,43 +12798,43 @@
         <v>43607.2653125</v>
       </c>
       <c r="E24" t="s">
-        <v>1386</v>
+        <v>1451</v>
       </c>
       <c r="F24" t="s">
-        <v>1387</v>
+        <v>1452</v>
       </c>
       <c r="J24" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="K24" t="s">
-        <v>1388</v>
+        <v>1453</v>
       </c>
       <c r="L24" t="s">
-        <v>1389</v>
+        <v>1454</v>
       </c>
       <c r="M24" t="s">
-        <v>1390</v>
+        <v>1455</v>
       </c>
       <c r="N24" t="s">
-        <v>1391</v>
+        <v>1456</v>
       </c>
       <c r="O24" t="s">
-        <v>1392</v>
+        <v>1457</v>
       </c>
       <c r="P24" t="s">
-        <v>1393</v>
+        <v>1458</v>
       </c>
       <c r="Q24" t="s">
-        <v>1394</v>
+        <v>1459</v>
       </c>
       <c r="T24" t="s">
-        <v>1395</v>
+        <v>1460</v>
       </c>
       <c r="U24" t="s">
-        <v>1396</v>
+        <v>1461</v>
       </c>
       <c r="V24" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W24">
         <v>1.0</v>
@@ -12482,121 +12843,121 @@
         <v>1.0</v>
       </c>
       <c r="Y24" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AA24" t="s">
-        <v>1397</v>
+        <v>1462</v>
       </c>
       <c r="AB24" t="s">
-        <v>1398</v>
+        <v>1463</v>
       </c>
       <c r="AC24" t="s">
-        <v>1399</v>
+        <v>1464</v>
       </c>
       <c r="AD24" t="s">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="AE24" t="s">
-        <v>1401</v>
+        <v>1466</v>
       </c>
       <c r="AF24" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="AG24" t="s">
-        <v>1402</v>
+        <v>1467</v>
       </c>
       <c r="AH24" t="s">
-        <v>1403</v>
+        <v>1468</v>
       </c>
       <c r="AP24" t="s">
         <v>110</v>
       </c>
       <c r="BA24" t="s">
-        <v>1404</v>
+        <v>1469</v>
       </c>
       <c r="BB24" t="s">
-        <v>1405</v>
+        <v>1470</v>
       </c>
       <c r="BC24" t="s">
-        <v>1406</v>
+        <v>1471</v>
       </c>
       <c r="BH24" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI24" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ24" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK24" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL24" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM24" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="CH24" t="s">
-        <v>1407</v>
+        <v>1472</v>
       </c>
       <c r="CI24" t="s">
-        <v>1408</v>
+        <v>1473</v>
       </c>
       <c r="CJ24" t="s">
-        <v>1409</v>
+        <v>1474</v>
       </c>
       <c r="CK24" t="s">
-        <v>1410</v>
+        <v>1475</v>
       </c>
       <c r="CL24" t="s">
-        <v>1411</v>
+        <v>1476</v>
       </c>
       <c r="CQ24" t="s">
-        <v>1412</v>
+        <v>1477</v>
       </c>
       <c r="CR24" t="s">
-        <v>1413</v>
+        <v>1478</v>
       </c>
       <c r="CW24" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC24" t="s">
-        <v>1414</v>
+        <v>1479</v>
       </c>
       <c r="DD24" t="s">
-        <v>1415</v>
+        <v>1480</v>
       </c>
       <c r="DE24" t="s">
-        <v>1416</v>
+        <v>1481</v>
       </c>
       <c r="DO24" t="s">
-        <v>1417</v>
+        <v>1482</v>
       </c>
       <c r="DP24" t="s">
-        <v>1418</v>
+        <v>1483</v>
       </c>
       <c r="DQ24" t="s">
-        <v>1419</v>
+        <v>1484</v>
       </c>
       <c r="DR24" t="s">
-        <v>1420</v>
+        <v>1485</v>
       </c>
       <c r="DS24" t="s">
-        <v>1421</v>
+        <v>1486</v>
       </c>
       <c r="DU24" t="s">
-        <v>1422</v>
+        <v>1487</v>
       </c>
       <c r="DV24" t="s">
-        <v>1423</v>
+        <v>1488</v>
       </c>
       <c r="DW24" t="s">
-        <v>1424</v>
+        <v>1489</v>
       </c>
       <c r="DX24" t="s">
-        <v>1425</v>
+        <v>1490</v>
       </c>
       <c r="DZ24" t="s">
         <v>157</v>
@@ -12614,7 +12975,7 @@
         <v>169</v>
       </c>
       <c r="FX24" t="s">
-        <v>1426</v>
+        <v>1491</v>
       </c>
       <c r="GM24" t="s">
         <v>196</v>
@@ -12644,173 +13005,34 @@
         <v>304</v>
       </c>
       <c r="MA24" t="s">
-        <v>1427</v>
+        <v>1492</v>
       </c>
       <c r="MB24" t="s">
-        <v>1428</v>
+        <v>1493</v>
       </c>
       <c r="MC24" t="s">
-        <v>1429</v>
+        <v>1494</v>
       </c>
       <c r="MD24" t="s">
-        <v>1430</v>
+        <v>1495</v>
       </c>
       <c r="ME24" t="s">
-        <v>1431</v>
+        <v>1496</v>
       </c>
       <c r="MF24" t="s">
-        <v>1432</v>
+        <v>1497</v>
       </c>
       <c r="MI24" t="s">
-        <v>1433</v>
+        <v>1498</v>
       </c>
       <c r="MJ24" t="s">
-        <v>1434</v>
+        <v>1499</v>
       </c>
       <c r="MK24" t="s">
-        <v>1435</v>
+        <v>1500</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25">
-        <v>1.0548992723E10</v>
-      </c>
-      <c r="B25">
-        <v>2.26208327E8</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43518.46223379629</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43607.56491898148</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1437</v>
-      </c>
-      <c r="J25" t="s">
-        <v>318</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1440</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1441</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1442</v>
-      </c>
-      <c r="P25" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1444</v>
-      </c>
-      <c r="T25" t="s">
-        <v>324</v>
-      </c>
-      <c r="U25" t="s">
-        <v>1445</v>
-      </c>
-      <c r="V25" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>365</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>1446</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>1448</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>1449</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>1450</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>330</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>470</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>388</v>
-      </c>
-      <c r="CQ25" t="s">
-        <v>339</v>
-      </c>
-      <c r="CW25" t="s">
-        <v>334</v>
-      </c>
-      <c r="DE25" t="s">
-        <v>1451</v>
-      </c>
-      <c r="DH25" t="s">
-        <v>343</v>
-      </c>
-      <c r="DP25" t="s">
-        <v>1452</v>
-      </c>
-      <c r="EO25" t="s">
-        <v>119</v>
-      </c>
-      <c r="FL25" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM25" t="s">
-        <v>196</v>
-      </c>
-      <c r="HH25" t="s">
-        <v>119</v>
-      </c>
-      <c r="HO25" t="s">
-        <v>119</v>
-      </c>
-      <c r="JB25" t="s">
-        <v>249</v>
-      </c>
-      <c r="JC25" t="s">
-        <v>250</v>
-      </c>
-      <c r="JP25" t="s">
-        <v>119</v>
-      </c>
-      <c r="KE25" t="s">
-        <v>274</v>
-      </c>
-      <c r="LS25" t="s">
-        <v>305</v>
-      </c>
-      <c r="MI25" t="s">
-        <v>348</v>
-      </c>
-      <c r="MK25" t="s">
-        <v>1453</v>
-      </c>
-    </row>
+    <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -13777,7 +13999,6 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>

--- a/lib/assets/Diffusion_Marketplace.xlsx
+++ b/lib/assets/Diffusion_Marketplace.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1713">
   <si>
     <t xml:space="preserve">Respondent ID</t>
   </si>
@@ -990,7 +990,7 @@
     <t xml:space="preserve">4-Sight reduces Veteran wait time for eyeglasses by standardizing procurement, automating processes, and by minimizing or eliminating processing time.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eyeglasses make up ~30% of prosthetic purchases at VA. The time between an initial prescription and final delivery can greatly affect a Veteran. 4-Sight was developed to increase efficiency in eyeglass ordering. The program reduces the manual processes completed by prosthetics staff and encourages automated eyeglass consultations. 4-Sight leverages technology to automate actions in VistA and ensures that vendors receive the patient prescription information exactly as it was entered by clinicians. This increases the likelihood that Veterans will receive the right eyeglasses the first time.</t>
+    <t xml:space="preserve">Eyeglasses make up 30% of prosthetic purchases at VA. The time between an initial prescription and final delivery can greatly affect a Veteran. 4-Sight was developed to increase efficiency in eyeglass ordering. The program reduces the manual processes completed by prosthetics staff and encourages automated eyeglass consultations. 4-Sight leverages technology to automate actions in VistA and ensures that vendors receive the patient prescription information exactly as it was entered by clinicians. This increases the likelihood that Veterans will receive the right eyeglasses the first time.</t>
   </si>
   <si>
     <t xml:space="preserve">Brian Kaiser\Gold Status Fellow </t>
@@ -1020,25 +1020,25 @@
     <t xml:space="preserve">3-6 months</t>
   </si>
   <si>
-    <t xml:space="preserve">Engage stakeholders</t>
+    <t xml:space="preserve">Engage Stakeholders</t>
   </si>
   <si>
     <t xml:space="preserve">Month 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Develop actionable consults</t>
+    <t xml:space="preserve">Develop Actionable Consults</t>
   </si>
   <si>
     <t xml:space="preserve">Months 2-4</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirm vendor support</t>
+    <t xml:space="preserve">Confirm Vendor Support</t>
   </si>
   <si>
     <t xml:space="preserve">Months 5-6</t>
   </si>
   <si>
-    <t xml:space="preserve">Train optical and prosthetics staff</t>
+    <t xml:space="preserve">Train Optical and Prosthetics Staff</t>
   </si>
   <si>
     <t xml:space="preserve">End of month 6</t>
@@ -1161,7 +1161,7 @@
     <t xml:space="preserve">kyoung@atlasresearch.us</t>
   </si>
   <si>
-    <t xml:space="preserve">Caring For Older Adults at Home - COACH</t>
+    <t xml:space="preserve">Caring for Older Adults and Caregivers at Home - COACH</t>
   </si>
   <si>
     <t xml:space="preserve">Home-based dementia care</t>
@@ -1170,7 +1170,7 @@
     <t xml:space="preserve">COACH is a home-based dementia care program that serves veterans living at home with moderate to severe dementia.</t>
   </si>
   <si>
-    <t xml:space="preserve">COACH program offers a holistic and non-pharmacological approach with best evidence based practices to Veterans living with dementia. The geriatric interdisciplinary team develops treatment plans and collaborate with the Veterans’ existing care team. Staff members have the knowledge and skills set to provide patient-centered education and follow-ups via home visits and over the phone. Veterans remain in the program for as long as they live at home. Veterans and caregivers receive a comprehensive assessment; including home safety evaluation; patients’ behaviors, cognitive and functional abilities; medication review; caregiver stress and family resources, caregiver’s knowledge of dementia and ability to cope. </t>
+    <t xml:space="preserve">COACH offers evidence based practices to veterans living with dementia and their caregivers, a holistic and non-pharmacological approach with best evidence based practices; to Veterans living with dementia. The geriatric interdisciplinary team develops treatment plans and collaborate with the Veterans’ existing care team. Staff members have the knowledge and skills set to provide patient-centered education and follow-ups via home visits and over the phone. Veterans remain in the program for as long as they live at home. Veterans and caregivers receive a comprehensive assessment; including home safety evaluation; patients’ behaviors, cognitive and functional abilities; medication review; caregiver stress and family resources, caregiver’s knowledge of dementia and ability to cope. </t>
   </si>
   <si>
     <t xml:space="preserve">Judith Davagnino\Social Worker</t>
@@ -1197,13 +1197,13 @@
     <t xml:space="preserve">1-3 Months </t>
   </si>
   <si>
-    <t xml:space="preserve">Secure program resorces and customize materials </t>
+    <t xml:space="preserve">Secure program resources and customize materials </t>
   </si>
   <si>
     <t xml:space="preserve">1-3 Months</t>
   </si>
   <si>
-    <t xml:space="preserve">Begin COACH straining</t>
+    <t xml:space="preserve">Begin COACH training</t>
   </si>
   <si>
     <t xml:space="preserve">Execute program/Enroll 1st Cohort</t>
@@ -1230,13 +1230,10 @@
     <t xml:space="preserve">Registered Nurse II</t>
   </si>
   <si>
-    <t xml:space="preserve">Program Support Assisstant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Permanent</t>
   </si>
   <si>
-    <t xml:space="preserve">Laptop(s)</t>
+    <t xml:space="preserve">Laptop(s) or Computers with workspace</t>
   </si>
   <si>
     <t xml:space="preserve">Cellphone(s)</t>
@@ -1251,10 +1248,7 @@
     <t xml:space="preserve">Register Nurse II</t>
   </si>
   <si>
-    <t xml:space="preserve">Program Support Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adressing Dementia at Home </t>
+    <t xml:space="preserve">Addressing Dementia at Home </t>
   </si>
   <si>
     <t xml:space="preserve">The VA currently serves over 190,000 veterans with dementia with a significant associated cost. The main contributing risk factor for developing dementia is age, and the veteran aging population is growing rapidly. We anticipate many veterans with dementia care needs in the short term. Dementia causes an emotional, physical, and financial stress among affected individuals and their caregivers. Older adults have a strong preference to remain at home; nonetheless, the progressive frailty, high level of caregiver strain, and significant behavioral challenges lead to high level of institutionalization. Ambulatory care assessments are often difficult because of the travel involved, the stress, agitation and confusion the Veteran may experience outside of their home environment. The behavioral symptoms they experience are often inadequately addressed and they constitute the main predictor for nursing home placement. Veterans living in rural areas have even a more difficult time to access specialty care and resources. COACH, a home-based dementia care program that serves Veterans with dementia and their caregivers was developed to address these challenges. </t>
@@ -1266,13 +1260,16 @@
     <t xml:space="preserve">Dr. Jack Twersky\CLC Medical Director</t>
   </si>
   <si>
+    <t xml:space="preserve">Judith Davagnino, LCSW, MSW, CSW-G\COACH Program Director, Geriatric Programs Social Worker Supervisor, Durham VA Health Care System </t>
+  </si>
+  <si>
     <t xml:space="preserve">Geriatircs</t>
   </si>
   <si>
     <t xml:space="preserve">Dementia</t>
   </si>
   <si>
-    <t xml:space="preserve">Soical Worker</t>
+    <t xml:space="preserve">Social Worker</t>
   </si>
   <si>
     <t xml:space="preserve">COACH stock image.PNG_384X216_Q64.jpg</t>
@@ -1641,9 +1638,6 @@
     <t xml:space="preserve">Peer Support Specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">Social Worker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Use of fleet vehicles</t>
   </si>
   <si>
@@ -4365,18 +4359,18 @@
     <t xml:space="preserve">Months 3-6</t>
   </si>
   <si>
+    <t xml:space="preserve">Ongoing Job Placement and Support: IPS Specialist facilitates the Veterans’ successful placement and retention in meaningful and well-matched competitive employment. Fidelity Monitoring and Quality Improvement Guidance: Using the IPS Fidelity Scale, the local site can be evaluated by external IPS experts to provide qualitative and quantitative feedback on the quality of IPS implementation. This feedback also serves as a quality improvement tool to the IPS Specialists on the primary services elements, MH teams on the importance of integration and Medical Center Leadership on supporting a culture of employability while assisting Veterans to manage symptoms and improve their quality of life.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Months 6-9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ongoing Job Placement and Support: IPS Specialist facilitates the Veterans’ successful placement and retention in meaningful and well-matched competitive employment. Fidelity Monitoring and Quality Improvement Guidance: Using the IPS Fidelity Scale, the local site can be evaluated by external IPS experts to provide qualitative and quantitative feedback on the quality of IPS implementation. This feedback also serves as a quality improvement tool to the IPS Specialists on the primary services elements, MH teams on the importance of integration and Medical Center Leadership on supporting a culture of employability while assisting Veterans to manage symptoms and improve their quality of life.</t>
+    <t xml:space="preserve">Quality Improvement Interventions: As expanded IPS programs are established and the subsequent feedback is provided as a result of the six-month Fidelity Review. Corrective actions or course corrections are commonly needed. Guidance is offered to the referrals team, CWT managers, IPS Specialists, and Medical Center &amp; MH Leadership regarding strategies for assertive engagement and outreach, better integrated team designs and methods for improved employer networking. Caseload Management: The caseload size per IPS Specialist will typically reach the maximum 1:20 to 25 ratio during this time period and require action. As demand increases for IPS, CWT Program Managers assess staffing resources and services for proper alignment of vocational staff. The MH/PTSD team and IPS Specialist may be guided through a “stepdown“ process for those Veterans who require less intensity to sustain their employment.</t>
   </si>
   <si>
     <t xml:space="preserve">Months 9-12</t>
   </si>
   <si>
-    <t xml:space="preserve">Quality Improvement Interventions: As expanded IPS programs are established and the subsequent feedback is provided as a result of the six-month Fidelity Review. Corrective actions or course corrections are commonly needed. Guidance is offered to the referrals team, CWT managers, IPS Specialists, and Medical Center &amp; MH Leadership regarding strategies for assertive engagement and outreach, better integrated team designs and methods for improved employer networking. Caseload Management: The caseload size per IPS Specialist will typically reach the maximum 1:20 to 25 ratio during this time period and require action. As demand increases for IPS, CWT Program Managers assess staffing resources and services for proper alignment of vocational staff. The MH/PTSD team and IPS Specialist may be guided through a “stepdown“ process for those Veterans who require less intensity to sustain their employment.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pay for Success project in VACO\VA Cooperative Studies Program\Rehabilitation R &amp; D Services</t>
   </si>
   <si>
@@ -4440,7 +4434,7 @@
     <t xml:space="preserve">Individual placement and support toward advancing recovery through Veterans CARE pay for success project</t>
   </si>
   <si>
-    <t xml:space="preserve">As witness to Veterans’ marginal response to medications, and non-evidence-based psychotherapies in the treatment of PTSD, Dr. Davis searched for an intervention that would have much higher social and clinical impact for the Veterans in her care. While attending the VA rollout of IPS for Veterans with serious mental illness in 2004, she discovered the pivotal work in IPS of Robert Drake and Debbie Becker. Under the mentorship by Dr. Drake, and in collaboration with Rich Toscano, Dr. Davis began a decade of research to fill the gap in knowledge as to the therapeutic effects of IPS in the PTSD population. While the evidence is unquestionable that IPS works better than standard approaches for Veterans with PTSD, the individual case vignettes of the life-transforming effects of IPS are inspirational and provide renewed hope to stakeholders, Veterans, and their families. IPS is an integration of community-based individual support within the context of the PTSD treatment team. Aside from a source of income, mainstream competitive employment provides the Veteran with a sense of purpose and personal pride, a means to reintegrate with friends and family, a way to move beyond preoccupation with symptoms and disability, and a sustained path to pursue life goals.    Dr. Davis is a Professor of Psychiatry and the Associate Chief of Staff for Research at the Tuscaloosa VA Medical Center. She has been a VA psychiatrist and clinical researcher for over 25 years. Her Tuscaloosa collaborator, Rich Toscano, has been involved with the national implementation, training, and fidelity monitoring of Individual Placement and Support (IPS) for over 30 years, including non-VA and VA populations spanning from individuals with serious mental illness, PTSD, and spinal cord injury.      Since 2004, Dr. Lori Davis has been a pioneer in the study of the efficacy of IPS for Veterans with PTSD. Comparing IPS to transitional work, Dr. Davis conducted a single-site study at the Tuscaloosa VA, a three-site study at Birmingham, Tuscaloosa, and Bedford VA Medical Centers, and a 12- site VA Cooperative Program Study. She also led a VA Office of Rural Health initiative to provide IPS to Veterans with PTSD who lived in rural areas. She is currently conducting research of IPS implementation in primary care settings and a VA Health Services Research and Development (R&amp;D) project evaluating the cost efficacy of IPS in the PTSD population. The current Pay-for-Success project called Veterans CARE (Coordinated Approach to Recovery and Employment) involves the implementation of IPS. The Pay-for-Success project required a non-VA match to the VA funds which, after a nation-wide search for partners, resulted in the selection of VA Boston, Central Western Massachusetts, and New York Harbor sites since the outcome payors were the City of Boston, Commonwealth of Massachusetts, and City of New York. The Tuscaloosa site serves as the hub for implementation leadership, research and data coordination, and keeping all sites aligned with timelines and performance targets.</t>
+    <t xml:space="preserve">As witness to Veterans’ marginal response to medications, and non-evidence-based psychotherapies in the treatment of PTSD, Dr. Davis searched for an intervention that would have much higher social and clinical impact for the Veterans in her care. While attending the VA rollout of IPS for Veterans with serious mental illness in 2004, she discovered the pivotal work in IPS of Robert Drake and Debbie Becker. Under the mentorship by Dr. Drake, and in collaboration with Rich Toscano, Dr. Davis began a decade of research to fill the gap in knowledge as to the therapeutic effects of IPS in the PTSD population. While the evidence is unquestionable that IPS works better than standard approaches for Veterans with PTSD, the individual case vignettes of the life-transforming effects of IPS are inspirational and provide renewed hope to stakeholders, Veterans, and their families. IPS is an integration of community-based individual support within the context of the PTSD treatment team. Aside from a source of income, mainstream competitive employment provides the Veteran with a sense of purpose and personal pride, a means to reintegrate with friends and family, a way to move beyond preoccupation with symptoms and disability, and a sustained path to pursue life goals.    Dr. Davis is a Professor of Psychiatry and the Associate Chief of Staff for Research at the Tuscaloosa VA Medical Center. She has been a VA psychiatrist and clinical researcher for over 25 years. Her Tuscaloosa collaborator, Rich Toscano, has been involved with the national implementation, training, and fidelity monitoring of Individual Placement and Support for over 30 years, including non-VA and VA populations spanning from individuals with serious mental illness, PTSD, and spinal cord injury.      Since 2004, Dr. Lori Davis has been a pioneer in the study of the efficacy of IPS for Veterans with PTSD. Comparing IPS to transitional work, Dr. Davis conducted a single-site study at the Tuscaloosa VA, a three-site study at Birmingham, Tuscaloosa, and Bedford VA Medical Centers, and a 12- site VA Cooperative Program Study. She also led a VA Office of Rural Health initiative to provide IPS to Veterans with PTSD who lived in rural areas. She is currently conducting research of IPS implementation in primary care settings and a VA Health Services Research and Development (R&amp;D) project evaluating the cost efficacy of IPS in the PTSD population. The current Pay-for-Success project called Veterans CARE involves the implementation of IPS. The Pay-for-Success project required a non-VA match to the VA funds which, after a nation-wide search for partners, resulted in the selection of VA Boston, Central Western Massachusetts, and New York Harbor sites since the outcome payors were the City of Boston, Commonwealth of Massachusetts, and City of New York. The Tuscaloosa site serves as the hub for implementation leadership, research and data coordination, and keeping all sites aligned with timelines and performance targets.</t>
   </si>
   <si>
     <t xml:space="preserve">George's Story</t>
@@ -4830,7 +4824,7 @@
     <t xml:space="preserve">Attend Quarterly VIONE Informational Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Day 0</t>
+    <t xml:space="preserve">Day 1</t>
   </si>
   <si>
     <t xml:space="preserve">Recruit Team and Enlist Stakeholder Support</t>
@@ -5364,7 +5358,7 @@
   <dimension ref="A1:MT27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6977,7 +6971,7 @@
         <v>43621.13875</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43628.5574884259</v>
+        <v>43661.9115393519</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>317</v>
@@ -7062,6 +7056,9 @@
       </c>
       <c r="AK3" s="0" t="s">
         <v>342</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>341</v>
       </c>
       <c r="AP3" s="0" t="s">
         <v>110</v>
@@ -7258,7 +7255,7 @@
         <v>43620.5151736111</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43628.1461226852</v>
+        <v>43642.4247916667</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>377</v>
@@ -7294,7 +7291,7 @@
         <v>387</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>0</v>
@@ -7362,9 +7359,6 @@
       <c r="BO4" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="BP4" s="0" t="s">
-        <v>402</v>
-      </c>
       <c r="BS4" s="0" t="n">
         <v>40</v>
       </c>
@@ -7375,34 +7369,31 @@
         <v>20</v>
       </c>
       <c r="BX4" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BY4" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BZ4" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CC4" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="BY4" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BZ4" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CC4" s="0" t="s">
+      <c r="CD4" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="CD4" s="0" t="s">
+      <c r="CE4" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="CE4" s="0" t="s">
+      <c r="CH4" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="CH4" s="0" t="s">
-        <v>407</v>
       </c>
       <c r="CI4" s="0" t="s">
         <v>400</v>
       </c>
       <c r="CJ4" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="CK4" s="0" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CN4" s="0" t="s">
         <v>392</v>
@@ -7411,16 +7402,19 @@
         <v>365</v>
       </c>
       <c r="DD4" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="DE4" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="DO4" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="DE4" s="0" t="s">
+      <c r="DP4" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="DO4" s="0" t="s">
+      <c r="DQ4" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="DP4" s="0" t="s">
-        <v>413</v>
       </c>
       <c r="DZ4" s="0" t="s">
         <v>157</v>
@@ -7441,7 +7435,7 @@
         <v>119</v>
       </c>
       <c r="GU4" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="HH4" s="0" t="s">
         <v>119</v>
@@ -7450,7 +7444,7 @@
         <v>218</v>
       </c>
       <c r="HR4" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="JE4" s="0" t="s">
         <v>252</v>
@@ -7468,22 +7462,22 @@
         <v>307</v>
       </c>
       <c r="MA4" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="MB4" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="MB4" s="0" t="s">
+      <c r="MG4" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="MG4" s="0" t="s">
+      <c r="MH4" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="MH4" s="0" t="s">
+      <c r="MK4" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="MK4" s="0" t="s">
+      <c r="MQ4" s="0" t="s">
         <v>420</v>
-      </c>
-      <c r="MQ4" s="0" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,31 +7494,31 @@
         <v>43620.6481134259</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>378</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>429</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>387</v>
@@ -7539,28 +7533,28 @@
         <v>331</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AB5" s="0" t="s">
         <v>333</v>
       </c>
       <c r="AC5" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD5" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="AD5" s="0" t="s">
+      <c r="AE5" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="AE5" s="0" t="s">
+      <c r="AF5" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="AF5" s="0" t="s">
+      <c r="AG5" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="AG5" s="0" t="s">
-        <v>435</v>
-      </c>
       <c r="AH5" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO5" s="0" t="s">
         <v>109</v>
@@ -7569,13 +7563,13 @@
         <v>110</v>
       </c>
       <c r="BA5" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="BB5" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="BB5" s="0" t="s">
+      <c r="BC5" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="BC5" s="0" t="s">
-        <v>438</v>
       </c>
       <c r="BH5" s="0" t="s">
         <v>348</v>
@@ -7596,16 +7590,16 @@
         <v>399</v>
       </c>
       <c r="BN5" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="BO5" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="BO5" s="0" t="s">
+      <c r="BP5" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="BP5" s="0" t="s">
+      <c r="BQ5" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="BQ5" s="0" t="s">
-        <v>442</v>
       </c>
       <c r="BS5" s="0" t="n">
         <v>1</v>
@@ -7620,85 +7614,85 @@
         <v>1</v>
       </c>
       <c r="BX5" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BY5" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BZ5" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CA5" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CH5" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="CI5" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="CJ5" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="CK5" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="CI5" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="CJ5" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="CK5" s="0" t="s">
+      <c r="CL5" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="CL5" s="0" t="s">
+      <c r="CN5" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="CN5" s="0" t="s">
+      <c r="CO5" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="CO5" s="0" t="s">
+      <c r="CP5" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="CP5" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="CW5" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC5" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="DD5" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="DD5" s="0" t="s">
+      <c r="DE5" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="DE5" s="0" t="s">
+      <c r="DO5" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="DO5" s="0" t="s">
+      <c r="DP5" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="DP5" s="0" t="s">
+      <c r="DQ5" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="DQ5" s="0" t="s">
+      <c r="DR5" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="DR5" s="0" t="s">
+      <c r="DS5" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="DS5" s="0" t="s">
+      <c r="DT5" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="DT5" s="0" t="s">
+      <c r="DU5" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="DU5" s="0" t="s">
+      <c r="DV5" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="DV5" s="0" t="s">
+      <c r="DW5" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="DW5" s="0" t="s">
+      <c r="DX5" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="DX5" s="0" t="s">
+      <c r="DY5" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="DY5" s="0" t="s">
-        <v>462</v>
       </c>
       <c r="DZ5" s="0" t="s">
         <v>157</v>
@@ -7728,7 +7722,7 @@
         <v>205</v>
       </c>
       <c r="GU5" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="HH5" s="0" t="s">
         <v>119</v>
@@ -7737,7 +7731,7 @@
         <v>119</v>
       </c>
       <c r="HR5" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="IE5" s="0" t="s">
         <v>227</v>
@@ -7767,22 +7761,22 @@
         <v>308</v>
       </c>
       <c r="MA5" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="MB5" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="MC5" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="MC5" s="0" t="s">
+      <c r="MD5" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="MD5" s="0" t="s">
+      <c r="ME5" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="ME5" s="0" t="s">
+      <c r="MG5" s="0" t="s">
         <v>468</v>
-      </c>
-      <c r="MG5" s="0" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7799,37 +7793,37 @@
         <v>43619.3879282407</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>480</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>3</v>
@@ -7838,37 +7832,37 @@
         <v>331</v>
       </c>
       <c r="AA6" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB6" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="AB6" s="0" t="s">
+      <c r="AC6" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="AC6" s="0" t="s">
+      <c r="AD6" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="AD6" s="0" t="s">
+      <c r="AE6" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="AE6" s="0" t="s">
+      <c r="AF6" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG6" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="AF6" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="AG6" s="0" t="s">
+      <c r="AH6" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="AH6" s="0" t="s">
+      <c r="AI6" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="AI6" s="0" t="s">
+      <c r="AJ6" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="AJ6" s="0" t="s">
+      <c r="AK6" s="0" t="s">
         <v>489</v>
-      </c>
-      <c r="AK6" s="0" t="s">
-        <v>490</v>
       </c>
       <c r="AL6" s="0" t="s">
         <v>337</v>
@@ -7877,16 +7871,16 @@
         <v>110</v>
       </c>
       <c r="BB6" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="BC6" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="BC6" s="0" t="s">
+      <c r="BD6" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="BD6" s="0" t="s">
+      <c r="BE6" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="BE6" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="BH6" s="0" t="s">
         <v>348</v>
@@ -7907,13 +7901,13 @@
         <v>399</v>
       </c>
       <c r="BN6" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="BO6" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="BO6" s="0" t="s">
+      <c r="BP6" s="0" t="s">
         <v>496</v>
-      </c>
-      <c r="BP6" s="0" t="s">
-        <v>497</v>
       </c>
       <c r="BS6" s="0" t="n">
         <v>1</v>
@@ -7925,28 +7919,28 @@
         <v>2.5</v>
       </c>
       <c r="BX6" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BY6" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BZ6" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CH6" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="CI6" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="CI6" s="0" t="s">
+      <c r="CJ6" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="CJ6" s="0" t="s">
+      <c r="CN6" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="CN6" s="0" t="s">
+      <c r="CO6" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="CO6" s="0" t="s">
-        <v>502</v>
       </c>
       <c r="CP6" s="0" t="s">
         <v>365</v>
@@ -7955,13 +7949,13 @@
         <v>365</v>
       </c>
       <c r="DD6" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="DE6" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="DE6" s="0" t="s">
+      <c r="DP6" s="0" t="s">
         <v>504</v>
-      </c>
-      <c r="DP6" s="0" t="s">
-        <v>505</v>
       </c>
       <c r="DZ6" s="0" t="s">
         <v>157</v>
@@ -8003,10 +7997,10 @@
         <v>307</v>
       </c>
       <c r="MA6" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="MB6" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="MB6" s="0" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8023,49 +8017,49 @@
         <v>43627.4947916667</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="U7" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="U7" s="0" t="s">
-        <v>521</v>
-      </c>
       <c r="V7" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>2</v>
@@ -8077,70 +8071,70 @@
         <v>331</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB7" s="0" t="s">
         <v>333</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AD7" s="0" t="s">
         <v>333</v>
       </c>
       <c r="AE7" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF7" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="AF7" s="0" t="s">
+      <c r="AG7" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="AG7" s="0" t="s">
-        <v>526</v>
       </c>
       <c r="AH7" s="0" t="s">
         <v>335</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AJ7" s="0" t="s">
         <v>335</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AL7" s="0" t="s">
         <v>337</v>
       </c>
       <c r="AM7" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="AN7" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="AN7" s="0" t="s">
-        <v>530</v>
       </c>
       <c r="AS7" s="0" t="s">
         <v>113</v>
       </c>
       <c r="BA7" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="BB7" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="BB7" s="0" t="s">
+      <c r="BC7" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="BC7" s="0" t="s">
+      <c r="BD7" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="BD7" s="0" t="s">
+      <c r="BE7" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="BE7" s="0" t="s">
+      <c r="BF7" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="BF7" s="0" t="s">
+      <c r="BG7" s="0" t="s">
         <v>536</v>
-      </c>
-      <c r="BG7" s="0" t="s">
-        <v>537</v>
       </c>
       <c r="BH7" s="0" t="s">
         <v>397</v>
@@ -8161,10 +8155,10 @@
         <v>353</v>
       </c>
       <c r="BN7" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BO7" s="0" t="s">
-        <v>539</v>
+        <v>415</v>
       </c>
       <c r="BS7" s="0" t="n">
         <v>40</v>
@@ -8173,103 +8167,103 @@
         <v>4</v>
       </c>
       <c r="BX7" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CC7" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="CD7" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="CE7" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="CD7" s="0" t="s">
+      <c r="CH7" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="CE7" s="0" t="s">
+      <c r="CI7" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="CH7" s="0" t="s">
+      <c r="CN7" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="CI7" s="0" t="s">
+      <c r="CO7" s="0" t="s">
         <v>544</v>
-      </c>
-      <c r="CN7" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="CO7" s="0" t="s">
-        <v>546</v>
       </c>
       <c r="CP7" s="0" t="s">
         <v>352</v>
       </c>
       <c r="CQ7" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="CR7" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="CW7" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC7" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="DD7" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="DE7" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="DD7" s="0" t="s">
+      <c r="DF7" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="DE7" s="0" t="s">
+      <c r="DG7" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="DF7" s="0" t="s">
+      <c r="DH7" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="DG7" s="0" t="s">
+      <c r="DI7" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="DH7" s="0" t="s">
+      <c r="DJ7" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="DI7" s="0" t="s">
+      <c r="DK7" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="DJ7" s="0" t="s">
+      <c r="DO7" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="DK7" s="0" t="s">
+      <c r="DP7" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="DQ7" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="DO7" s="0" t="s">
+      <c r="DR7" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="DP7" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="DQ7" s="0" t="s">
+      <c r="DS7" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="DR7" s="0" t="s">
+      <c r="DT7" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="DS7" s="0" t="s">
+      <c r="DU7" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="DT7" s="0" t="s">
+      <c r="DV7" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="DU7" s="0" t="s">
+      <c r="DW7" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="DV7" s="0" t="s">
+      <c r="DX7" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="DY7" s="0" t="s">
         <v>564</v>
-      </c>
-      <c r="DW7" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="DX7" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="DY7" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="DZ7" s="0" t="s">
         <v>157</v>
@@ -8293,7 +8287,7 @@
         <v>168</v>
       </c>
       <c r="EQ7" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="FW7" s="0" t="s">
         <v>119</v>
@@ -8302,28 +8296,28 @@
         <v>184</v>
       </c>
       <c r="GU7" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="HH7" s="0" t="s">
         <v>119</v>
       </c>
       <c r="HQ7" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="HR7" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="HS7" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="HR7" s="0" t="s">
+      <c r="HT7" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="HS7" s="0" t="s">
+      <c r="HU7" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="HT7" s="0" t="s">
+      <c r="HV7" s="0" t="s">
         <v>572</v>
-      </c>
-      <c r="HU7" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="HV7" s="0" t="s">
-        <v>574</v>
       </c>
       <c r="IA7" s="0" t="s">
         <v>223</v>
@@ -8356,7 +8350,7 @@
         <v>259</v>
       </c>
       <c r="JR7" s="0" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="LD7" s="0" t="s">
         <v>295</v>
@@ -8365,37 +8359,37 @@
         <v>301</v>
       </c>
       <c r="LP7" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="MA7" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="MB7" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="MA7" s="0" t="s">
+      <c r="MI7" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="MB7" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="MI7" s="0" t="s">
-        <v>579</v>
       </c>
       <c r="MK7" s="0" t="s">
         <v>365</v>
       </c>
       <c r="ML7" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="MM7" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="MN7" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="MM7" s="0" t="s">
+      <c r="MO7" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="MN7" s="0" t="s">
+      <c r="MS7" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="MO7" s="0" t="s">
+      <c r="MT7" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="MS7" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="MT7" s="0" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,31 +8406,31 @@
         <v>43628.4620833333</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="T8" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="U8" s="0" t="s">
         <v>592</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>594</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>330</v>
@@ -8463,16 +8457,16 @@
         <v>114</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="BC8" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="BH8" s="0" t="s">
         <v>348</v>
       </c>
       <c r="BI8" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BJ8" s="0" t="s">
         <v>350</v>
@@ -8487,10 +8481,10 @@
         <v>353</v>
       </c>
       <c r="BN8" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="BO8" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="BS8" s="0" t="n">
         <v>1</v>
@@ -8499,61 +8493,61 @@
         <v>1</v>
       </c>
       <c r="BX8" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CC8" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="CH8" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="CI8" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="CH8" s="0" t="s">
+      <c r="CJ8" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="CI8" s="0" t="s">
+      <c r="CN8" s="0" t="s">
         <v>602</v>
-      </c>
-      <c r="CJ8" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="CN8" s="0" t="s">
-        <v>604</v>
       </c>
       <c r="CP8" s="0" t="s">
         <v>365</v>
       </c>
       <c r="CQ8" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CW8" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC8" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="DD8" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="DE8" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="DD8" s="0" t="s">
+      <c r="DF8" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="DE8" s="0" t="s">
+      <c r="DH8" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="DF8" s="0" t="s">
+      <c r="DO8" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="DH8" s="0" t="s">
+      <c r="DP8" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="DO8" s="0" t="s">
+      <c r="DQ8" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="DP8" s="0" t="s">
+      <c r="DU8" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="DQ8" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="DU8" s="0" t="s">
-        <v>614</v>
       </c>
       <c r="DZ8" s="0" t="s">
         <v>157</v>
@@ -8568,7 +8562,7 @@
         <v>165</v>
       </c>
       <c r="EQ8" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="FV8" s="0" t="s">
         <v>203</v>
@@ -8583,7 +8577,7 @@
         <v>119</v>
       </c>
       <c r="HR8" s="0" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="ID8" s="0" t="s">
         <v>226</v>
@@ -8604,13 +8598,13 @@
         <v>311</v>
       </c>
       <c r="MB8" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="MI8" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="MK8" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="MI8" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="MK8" s="0" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8627,49 +8621,49 @@
         <v>43622.6010648148</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="T9" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>633</v>
-      </c>
       <c r="V9" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>2</v>
@@ -8681,67 +8675,67 @@
         <v>388</v>
       </c>
       <c r="AA9" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC9" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="AB9" s="0" t="s">
+      <c r="AD9" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="AC9" s="0" t="s">
+      <c r="AE9" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="AD9" s="0" t="s">
+      <c r="AF9" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="AE9" s="0" t="s">
+      <c r="AG9" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="AF9" s="0" t="s">
+      <c r="AH9" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI9" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="AG9" s="0" t="s">
+      <c r="AJ9" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="AH9" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="AI9" s="0" t="s">
+      <c r="AK9" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="AJ9" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="AK9" s="0" t="s">
-        <v>643</v>
-      </c>
       <c r="AL9" s="0" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AS9" s="0" t="s">
         <v>113</v>
       </c>
       <c r="BA9" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="BB9" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="BC9" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="BB9" s="0" t="s">
+      <c r="BD9" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="BC9" s="0" t="s">
+      <c r="BE9" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="BD9" s="0" t="s">
+      <c r="BF9" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="BE9" s="0" t="s">
+      <c r="BG9" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="BF9" s="0" t="s">
+      <c r="BH9" s="0" t="s">
         <v>649</v>
-      </c>
-      <c r="BG9" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="BH9" s="0" t="s">
-        <v>651</v>
       </c>
       <c r="BI9" s="0" t="s">
         <v>349</v>
@@ -8759,133 +8753,133 @@
         <v>399</v>
       </c>
       <c r="BN9" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="BO9" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="BP9" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="BO9" s="0" t="s">
+      <c r="BQ9" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="BP9" s="0" t="s">
+      <c r="BR9" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="BQ9" s="0" t="s">
+      <c r="BS9" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="BR9" s="0" t="s">
+      <c r="BT9" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="BS9" s="0" t="s">
+      <c r="BU9" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="BT9" s="0" t="s">
+      <c r="BV9" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="BU9" s="0" t="s">
+      <c r="BW9" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="BX9" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="BV9" s="0" t="s">
+      <c r="BY9" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="BZ9" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="CA9" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="BW9" s="0" t="s">
+      <c r="CB9" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="BX9" s="0" t="s">
+      <c r="CC9" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="BY9" s="0" t="s">
+      <c r="CH9" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="CI9" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="CN9" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="CO9" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="CP9" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="CQ9" s="0" t="s">
         <v>661</v>
-      </c>
-      <c r="BZ9" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="CA9" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="CB9" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="CC9" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="CH9" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="CI9" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="CN9" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="CO9" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="CP9" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="CQ9" s="0" t="s">
-        <v>663</v>
       </c>
       <c r="CW9" s="0" t="s">
         <v>365</v>
       </c>
       <c r="CX9" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="CY9" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="CZ9" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="CY9" s="0" t="s">
+      <c r="DA9" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="CZ9" s="0" t="s">
+      <c r="DC9" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="DA9" s="0" t="s">
+      <c r="DD9" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="DC9" s="0" t="s">
+      <c r="DE9" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="DD9" s="0" t="s">
+      <c r="DF9" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="DE9" s="0" t="s">
+      <c r="DG9" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="DF9" s="0" t="s">
+      <c r="DH9" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="DG9" s="0" t="s">
+      <c r="DI9" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="DH9" s="0" t="s">
+      <c r="DJ9" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="DI9" s="0" t="s">
+      <c r="DK9" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="DJ9" s="0" t="s">
+      <c r="DL9" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="DK9" s="0" t="s">
+      <c r="DM9" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="DL9" s="0" t="s">
+      <c r="DN9" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="DM9" s="0" t="s">
+      <c r="DP9" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="DN9" s="0" t="s">
+      <c r="DQ9" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="DP9" s="0" t="s">
+      <c r="DU9" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="DQ9" s="0" t="s">
+      <c r="DV9" s="0" t="s">
         <v>685</v>
-      </c>
-      <c r="DU9" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="DV9" s="0" t="s">
-        <v>687</v>
       </c>
       <c r="DZ9" s="0" t="s">
         <v>157</v>
@@ -8936,31 +8930,31 @@
         <v>306</v>
       </c>
       <c r="MB9" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="MF9" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="MG9" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="MF9" s="0" t="s">
+      <c r="MI9" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="MG9" s="0" t="s">
+      <c r="MJ9" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="MI9" s="0" t="s">
+      <c r="MK9" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="MJ9" s="0" t="s">
+      <c r="ML9" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="MK9" s="0" t="s">
+      <c r="MN9" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="ML9" s="0" t="s">
+      <c r="MS9" s="0" t="s">
         <v>694</v>
-      </c>
-      <c r="MN9" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="MS9" s="0" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8977,46 +8971,46 @@
         <v>43622.6052546296</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="U10" s="0" t="s">
         <v>708</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>710</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>330</v>
@@ -9028,64 +9022,64 @@
         <v>1</v>
       </c>
       <c r="Y10" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB10" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="AA10" s="0" t="s">
+      <c r="AC10" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="AB10" s="0" t="s">
+      <c r="AD10" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="AC10" s="0" t="s">
+      <c r="AE10" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="AD10" s="0" t="s">
+      <c r="AF10" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="AE10" s="0" t="s">
+      <c r="AG10" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="AF10" s="0" t="s">
+      <c r="AH10" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="AG10" s="0" t="s">
+      <c r="AI10" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="AH10" s="0" t="s">
+      <c r="AJ10" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="AI10" s="0" t="s">
+      <c r="AK10" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="AJ10" s="0" t="s">
+      <c r="AL10" s="0" t="s">
         <v>721</v>
-      </c>
-      <c r="AK10" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="AL10" s="0" t="s">
-        <v>723</v>
       </c>
       <c r="AO10" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BB10" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="BC10" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="BD10" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="BC10" s="0" t="s">
+      <c r="BE10" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="BD10" s="0" t="s">
+      <c r="BF10" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="BE10" s="0" t="s">
+      <c r="BG10" s="0" t="s">
         <v>727</v>
-      </c>
-      <c r="BF10" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="BG10" s="0" t="s">
-        <v>729</v>
       </c>
       <c r="BH10" s="0" t="s">
         <v>397</v>
@@ -9097,7 +9091,7 @@
         <v>349</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL10" s="0" t="s">
         <v>352</v>
@@ -9106,133 +9100,133 @@
         <v>353</v>
       </c>
       <c r="BN10" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="BO10" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="BP10" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="BO10" s="0" t="s">
+      <c r="BS10" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="BP10" s="0" t="s">
+      <c r="BT10" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="BS10" s="0" t="s">
+      <c r="BU10" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="BX10" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BY10" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="BT10" s="0" t="s">
+      <c r="BZ10" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="CC10" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="BU10" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="BX10" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BY10" s="0" t="s">
+      <c r="CD10" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="BZ10" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="CC10" s="0" t="s">
+      <c r="CE10" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="CD10" s="0" t="s">
+      <c r="CF10" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="CE10" s="0" t="s">
+      <c r="CG10" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="CF10" s="0" t="s">
+      <c r="CH10" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="CG10" s="0" t="s">
+      <c r="CI10" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="CH10" s="0" t="s">
+      <c r="CN10" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="CO10" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="CI10" s="0" t="s">
+      <c r="CP10" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="CN10" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="CO10" s="0" t="s">
+      <c r="CQ10" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="CP10" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="CQ10" s="0" t="s">
-        <v>746</v>
       </c>
       <c r="CW10" s="0" t="s">
         <v>365</v>
       </c>
       <c r="CX10" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="CY10" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="CZ10" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="CY10" s="0" t="s">
+      <c r="DC10" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="CZ10" s="0" t="s">
+      <c r="DD10" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="DC10" s="0" t="s">
+      <c r="DE10" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="DD10" s="0" t="s">
+      <c r="DF10" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="DE10" s="0" t="s">
+      <c r="DG10" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="DF10" s="0" t="s">
+      <c r="DH10" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="DG10" s="0" t="s">
+      <c r="DI10" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="DH10" s="0" t="s">
+      <c r="DJ10" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="DI10" s="0" t="s">
+      <c r="DK10" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="DJ10" s="0" t="s">
+      <c r="DL10" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="DK10" s="0" t="s">
+      <c r="DM10" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="DL10" s="0" t="s">
+      <c r="DN10" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="DM10" s="0" t="s">
+      <c r="DO10" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="DN10" s="0" t="s">
+      <c r="DP10" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="DO10" s="0" t="s">
+      <c r="DQ10" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="DP10" s="0" t="s">
+      <c r="DR10" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="DQ10" s="0" t="s">
+      <c r="DU10" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="DR10" s="0" t="s">
+      <c r="DV10" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="DU10" s="0" t="s">
+      <c r="DW10" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="DV10" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="DW10" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="DZ10" s="0" t="s">
         <v>157</v>
@@ -9337,34 +9331,34 @@
         <v>310</v>
       </c>
       <c r="MB10" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="MF10" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="MG10" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="MF10" s="0" t="s">
+      <c r="MH10" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="MG10" s="0" t="s">
+      <c r="MN10" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="MH10" s="0" t="s">
+      <c r="MO10" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="MN10" s="0" t="s">
+      <c r="MP10" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="MO10" s="0" t="s">
+      <c r="MQ10" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="MP10" s="0" t="s">
+      <c r="MS10" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="MQ10" s="0" t="s">
+      <c r="MT10" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="MS10" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="MT10" s="0" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9381,43 +9375,43 @@
         <v>43628.5824884259</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="S11" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="T11" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>788</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>790</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>330</v>
@@ -9432,70 +9426,70 @@
         <v>388</v>
       </c>
       <c r="AA11" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="AC11" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="AB11" s="0" t="s">
+      <c r="AD11" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="AC11" s="0" t="s">
+      <c r="AE11" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="AD11" s="0" t="s">
+      <c r="AF11" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="AE11" s="0" t="s">
+      <c r="AG11" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="AF11" s="0" t="s">
+      <c r="AH11" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="AG11" s="0" t="s">
+      <c r="AI11" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="AH11" s="0" t="s">
+      <c r="AJ11" s="0" t="s">
         <v>798</v>
-      </c>
-      <c r="AI11" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="AJ11" s="0" t="s">
-        <v>800</v>
       </c>
       <c r="AS11" s="0" t="s">
         <v>113</v>
       </c>
       <c r="BA11" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="BB11" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="BC11" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="BB11" s="0" t="s">
+      <c r="BD11" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="BC11" s="0" t="s">
+      <c r="BE11" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="BD11" s="0" t="s">
+      <c r="BF11" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="BE11" s="0" t="s">
+      <c r="BG11" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="BF11" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="BG11" s="0" t="s">
-        <v>807</v>
-      </c>
       <c r="BH11" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="BI11" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BJ11" s="0" t="s">
         <v>349</v>
       </c>
       <c r="BK11" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL11" s="0" t="s">
         <v>365</v>
@@ -9504,19 +9498,19 @@
         <v>353</v>
       </c>
       <c r="BN11" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BO11" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BP11" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ11" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR11" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BS11" s="0" t="n">
         <v>4</v>
@@ -9534,115 +9528,115 @@
         <v>2</v>
       </c>
       <c r="BX11" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="BY11" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="BZ11" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="CA11" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="CB11" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="CC11" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="CD11" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="BY11" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="BZ11" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="CA11" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="CB11" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="CC11" s="0" t="s">
+      <c r="CE11" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="CD11" s="0" t="s">
+      <c r="CF11" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="CE11" s="0" t="s">
+      <c r="CH11" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="CF11" s="0" t="s">
+      <c r="CI11" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="CJ11" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="CK11" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="CL11" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="CM11" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="CN11" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="CO11" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="CH11" s="0" t="s">
+      <c r="CP11" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="CI11" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="CJ11" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="CK11" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="CL11" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="CM11" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="CN11" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="CO11" s="0" t="s">
+      <c r="CQ11" s="0" t="s">
         <v>816</v>
-      </c>
-      <c r="CP11" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="CQ11" s="0" t="s">
-        <v>818</v>
       </c>
       <c r="CW11" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC11" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="DD11" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="DE11" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="DD11" s="0" t="s">
+      <c r="DF11" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="DE11" s="0" t="s">
+      <c r="DG11" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="DF11" s="0" t="s">
+      <c r="DH11" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="DG11" s="0" t="s">
+      <c r="DO11" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="DH11" s="0" t="s">
+      <c r="DP11" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="DQ11" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="DR11" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="DS11" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="DT11" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="DU11" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="DO11" s="0" t="s">
+      <c r="DV11" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="DP11" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="DQ11" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="DR11" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="DS11" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="DT11" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="DU11" s="0" t="s">
+      <c r="DW11" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="DV11" s="0" t="s">
+      <c r="DX11" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="DW11" s="0" t="s">
+      <c r="DY11" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="DX11" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="DY11" s="0" t="s">
-        <v>830</v>
       </c>
       <c r="EC11" s="0" t="s">
         <v>160</v>
@@ -9675,40 +9669,40 @@
         <v>311</v>
       </c>
       <c r="MB11" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="MC11" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="MD11" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="MC11" s="0" t="s">
+      <c r="ME11" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="MD11" s="0" t="s">
+      <c r="MF11" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="ME11" s="0" t="s">
+      <c r="MI11" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="MF11" s="0" t="s">
+      <c r="MJ11" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="MI11" s="0" t="s">
+      <c r="MK11" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="MJ11" s="0" t="s">
+      <c r="ML11" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="MK11" s="0" t="s">
+      <c r="MN11" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="ML11" s="0" t="s">
+      <c r="MQ11" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="MN11" s="0" t="s">
+      <c r="MR11" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="MQ11" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="MR11" s="0" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9725,31 +9719,31 @@
         <v>43622.5824768519</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>378</v>
       </c>
       <c r="K12" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="U12" s="0" t="s">
         <v>847</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>849</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>387</v>
@@ -9761,31 +9755,31 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA12" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="AC12" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="AB12" s="0" t="s">
+      <c r="AD12" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="AC12" s="0" t="s">
+      <c r="AE12" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="AD12" s="0" t="s">
+      <c r="AF12" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="AG12" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="AE12" s="0" t="s">
+      <c r="AH12" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="AF12" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="AG12" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="AH12" s="0" t="s">
-        <v>856</v>
       </c>
       <c r="AP12" s="0" t="s">
         <v>110</v>
@@ -9794,22 +9788,22 @@
         <v>115</v>
       </c>
       <c r="BB12" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="BC12" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="BD12" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="BC12" s="0" t="s">
+      <c r="BE12" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="BD12" s="0" t="s">
+      <c r="BF12" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="BE12" s="0" t="s">
+      <c r="BG12" s="0" t="s">
         <v>860</v>
-      </c>
-      <c r="BF12" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="BG12" s="0" t="s">
-        <v>862</v>
       </c>
       <c r="BH12" s="0" t="s">
         <v>348</v>
@@ -9821,7 +9815,7 @@
         <v>350</v>
       </c>
       <c r="BK12" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL12" s="0" t="s">
         <v>365</v>
@@ -9830,22 +9824,22 @@
         <v>399</v>
       </c>
       <c r="BN12" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="BS12" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="BX12" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CH12" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="BS12" s="0" t="s">
-        <v>864</v>
-      </c>
-      <c r="BX12" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CH12" s="0" t="s">
-        <v>865</v>
-      </c>
       <c r="CI12" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="CN12" s="0" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="CP12" s="0" t="s">
         <v>365</v>
@@ -9854,25 +9848,25 @@
         <v>365</v>
       </c>
       <c r="DD12" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="DE12" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="DF12" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="DE12" s="0" t="s">
+      <c r="DG12" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="DF12" s="0" t="s">
+      <c r="DH12" s="0" t="s">
         <v>868</v>
       </c>
-      <c r="DG12" s="0" t="s">
+      <c r="DO12" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="DH12" s="0" t="s">
+      <c r="DP12" s="0" t="s">
         <v>870</v>
-      </c>
-      <c r="DO12" s="0" t="s">
-        <v>871</v>
-      </c>
-      <c r="DP12" s="0" t="s">
-        <v>872</v>
       </c>
       <c r="DZ12" s="0" t="s">
         <v>157</v>
@@ -9917,10 +9911,10 @@
         <v>308</v>
       </c>
       <c r="MB12" s="0" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="MK12" s="0" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9937,46 +9931,46 @@
         <v>43627.4989467593</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>880</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="Q13" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="R13" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="U13" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>887</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>330</v>
@@ -9988,31 +9982,31 @@
         <v>20</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA13" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC13" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="AB13" s="0" t="s">
+      <c r="AD13" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="AC13" s="0" t="s">
+      <c r="AE13" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="AD13" s="0" t="s">
+      <c r="AF13" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="AG13" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="AE13" s="0" t="s">
+      <c r="AH13" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="AF13" s="0" t="s">
-        <v>889</v>
-      </c>
-      <c r="AG13" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="AH13" s="0" t="s">
-        <v>894</v>
       </c>
       <c r="AO13" s="0" t="s">
         <v>109</v>
@@ -10027,22 +10021,22 @@
         <v>115</v>
       </c>
       <c r="BB13" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="BC13" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="BD13" s="0" t="s">
         <v>895</v>
       </c>
-      <c r="BC13" s="0" t="s">
+      <c r="BE13" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="BD13" s="0" t="s">
+      <c r="BF13" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="BE13" s="0" t="s">
+      <c r="BG13" s="0" t="s">
         <v>898</v>
-      </c>
-      <c r="BF13" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="BG13" s="0" t="s">
-        <v>900</v>
       </c>
       <c r="BH13" s="0" t="s">
         <v>348</v>
@@ -10054,7 +10048,7 @@
         <v>350</v>
       </c>
       <c r="BK13" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL13" s="0" t="s">
         <v>365</v>
@@ -10063,58 +10057,58 @@
         <v>399</v>
       </c>
       <c r="BN13" s="0" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="BS13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BX13" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CC13" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="CH13" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="CI13" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="CH13" s="0" t="s">
+      <c r="CN13" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="CI13" s="0" t="s">
+      <c r="CO13" s="0" t="s">
         <v>904</v>
       </c>
-      <c r="CN13" s="0" t="s">
-        <v>905</v>
-      </c>
-      <c r="CO13" s="0" t="s">
-        <v>906</v>
-      </c>
       <c r="CQ13" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="CW13" s="0" t="s">
         <v>365</v>
       </c>
       <c r="CX13" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="DE13" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="DP13" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="DQ13" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="DR13" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="DS13" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="DT13" s="0" t="s">
         <v>907</v>
       </c>
-      <c r="DE13" s="0" t="s">
+      <c r="DU13" s="0" t="s">
         <v>908</v>
-      </c>
-      <c r="DP13" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="DQ13" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="DR13" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="DS13" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="DT13" s="0" t="s">
-        <v>909</v>
-      </c>
-      <c r="DU13" s="0" t="s">
-        <v>910</v>
       </c>
       <c r="DZ13" s="0" t="s">
         <v>157</v>
@@ -10135,13 +10129,13 @@
         <v>168</v>
       </c>
       <c r="FX13" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="GK13" s="0" t="s">
         <v>194</v>
       </c>
       <c r="GU13" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="HH13" s="0" t="s">
         <v>119</v>
@@ -10150,13 +10144,13 @@
         <v>119</v>
       </c>
       <c r="HR13" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="HS13" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="HT13" s="0" t="s">
         <v>912</v>
-      </c>
-      <c r="HS13" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="HT13" s="0" t="s">
-        <v>914</v>
       </c>
       <c r="IK13" s="0" t="s">
         <v>233</v>
@@ -10174,25 +10168,25 @@
         <v>304</v>
       </c>
       <c r="MA13" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="MB13" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="MC13" s="0" t="s">
         <v>915</v>
       </c>
-      <c r="MB13" s="0" t="s">
+      <c r="MD13" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="MC13" s="0" t="s">
+      <c r="ME13" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="MD13" s="0" t="s">
+      <c r="MK13" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="ME13" s="0" t="s">
+      <c r="MT13" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="MK13" s="0" t="s">
-        <v>920</v>
-      </c>
-      <c r="MT13" s="0" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10209,40 +10203,40 @@
         <v>43619.4502083333</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="N14" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="O14" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="P14" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="Q14" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="R14" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="T14" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="U14" s="0" t="s">
         <v>931</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="U14" s="0" t="s">
-        <v>933</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>387</v>
@@ -10257,34 +10251,34 @@
         <v>388</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AD14" s="0" t="s">
         <v>331</v>
       </c>
       <c r="AE14" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="AG14" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="AF14" s="0" t="s">
+      <c r="AH14" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="AI14" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="AG14" s="0" t="s">
+      <c r="AJ14" s="0" t="s">
         <v>938</v>
-      </c>
-      <c r="AH14" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="AI14" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="AJ14" s="0" t="s">
-        <v>940</v>
       </c>
       <c r="AR14" s="0" t="s">
         <v>112</v>
@@ -10293,31 +10287,31 @@
         <v>113</v>
       </c>
       <c r="BA14" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="BB14" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="BC14" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="BB14" s="0" t="s">
+      <c r="BD14" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="BC14" s="0" t="s">
+      <c r="BE14" s="0" t="s">
         <v>943</v>
       </c>
-      <c r="BD14" s="0" t="s">
+      <c r="BF14" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="BE14" s="0" t="s">
+      <c r="BG14" s="0" t="s">
         <v>945</v>
       </c>
-      <c r="BF14" s="0" t="s">
+      <c r="BH14" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="BI14" s="0" t="s">
         <v>946</v>
-      </c>
-      <c r="BG14" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="BH14" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="BI14" s="0" t="s">
-        <v>948</v>
       </c>
       <c r="BJ14" s="0" t="s">
         <v>349</v>
@@ -10332,19 +10326,19 @@
         <v>399</v>
       </c>
       <c r="BN14" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="BO14" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="BP14" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="BO14" s="0" t="s">
+      <c r="BQ14" s="0" t="s">
         <v>950</v>
       </c>
-      <c r="BP14" s="0" t="s">
+      <c r="BR14" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="BQ14" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="BR14" s="0" t="s">
-        <v>953</v>
       </c>
       <c r="BS14" s="0" t="n">
         <v>10</v>
@@ -10362,10 +10356,10 @@
         <v>2</v>
       </c>
       <c r="BX14" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BY14" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BZ14" s="0" t="n">
         <v>26</v>
@@ -10374,67 +10368,67 @@
         <v>26</v>
       </c>
       <c r="CB14" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CC14" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="CD14" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="CH14" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="CI14" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="CD14" s="0" t="s">
+      <c r="CJ14" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="CH14" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="CI14" s="0" t="s">
+      <c r="CK14" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="CJ14" s="0" t="s">
+      <c r="CL14" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="CK14" s="0" t="s">
+      <c r="CN14" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="CL14" s="0" t="s">
+      <c r="CO14" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="CN14" s="0" t="s">
+      <c r="CP14" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="CO14" s="0" t="s">
+      <c r="CQ14" s="0" t="s">
         <v>961</v>
-      </c>
-      <c r="CP14" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="CQ14" s="0" t="s">
-        <v>963</v>
       </c>
       <c r="CW14" s="0" t="s">
         <v>365</v>
       </c>
       <c r="CX14" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="CY14" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="CZ14" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="CY14" s="0" t="s">
+      <c r="DD14" s="0" t="s">
         <v>965</v>
       </c>
-      <c r="CZ14" s="0" t="s">
+      <c r="DE14" s="0" t="s">
         <v>966</v>
       </c>
-      <c r="DD14" s="0" t="s">
+      <c r="DP14" s="0" t="s">
         <v>967</v>
       </c>
-      <c r="DE14" s="0" t="s">
+      <c r="DQ14" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="DP14" s="0" t="s">
+      <c r="DR14" s="0" t="s">
         <v>969</v>
-      </c>
-      <c r="DQ14" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="DR14" s="0" t="s">
-        <v>971</v>
       </c>
       <c r="DZ14" s="0" t="s">
         <v>157</v>
@@ -10461,7 +10455,7 @@
         <v>169</v>
       </c>
       <c r="FX14" s="0" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="GF14" s="0" t="s">
         <v>185</v>
@@ -10488,22 +10482,22 @@
         <v>202</v>
       </c>
       <c r="HQ14" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="HR14" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="HS14" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="HR14" s="0" t="s">
+      <c r="HT14" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="HS14" s="0" t="s">
+      <c r="HU14" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="HT14" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="HU14" s="0" t="s">
-        <v>977</v>
-      </c>
       <c r="HV14" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="HW14" s="0" t="s">
         <v>185</v>
@@ -10575,7 +10569,7 @@
         <v>259</v>
       </c>
       <c r="JR14" s="0" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="KE14" s="0" t="s">
         <v>274</v>
@@ -10605,22 +10599,22 @@
         <v>310</v>
       </c>
       <c r="MB14" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="MC14" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="MD14" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="ME14" s="0" t="s">
         <v>979</v>
       </c>
-      <c r="MC14" s="0" t="s">
+      <c r="MF14" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="MD14" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="ME14" s="0" t="s">
+      <c r="MT14" s="0" t="s">
         <v>981</v>
-      </c>
-      <c r="MF14" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="MT14" s="0" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,34 +10631,34 @@
         <v>43622.5580208333</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="M15" s="0" t="s">
         <v>987</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="N15" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="T15" s="0" t="s">
         <v>991</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>993</v>
       </c>
       <c r="U15" s="0" t="s">
         <v>386</v>
@@ -10682,61 +10676,61 @@
         <v>331</v>
       </c>
       <c r="AA15" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="AC15" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="AB15" s="0" t="s">
+      <c r="AD15" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="AE15" s="0" t="s">
         <v>995</v>
       </c>
-      <c r="AC15" s="0" t="s">
+      <c r="AF15" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="AD15" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="AE15" s="0" t="s">
+      <c r="AG15" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="AF15" s="0" t="s">
+      <c r="AH15" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="AG15" s="0" t="s">
+      <c r="AI15" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="AH15" s="0" t="s">
+      <c r="AJ15" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="AI15" s="0" t="s">
+      <c r="AK15" s="0" t="s">
         <v>1001</v>
       </c>
-      <c r="AJ15" s="0" t="s">
+      <c r="AL15" s="0" t="s">
         <v>1002</v>
-      </c>
-      <c r="AK15" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AL15" s="0" t="s">
-        <v>1004</v>
       </c>
       <c r="AP15" s="0" t="s">
         <v>110</v>
       </c>
       <c r="BB15" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BC15" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BD15" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="BC15" s="0" t="s">
+      <c r="BE15" s="0" t="s">
         <v>1006</v>
       </c>
-      <c r="BD15" s="0" t="s">
+      <c r="BF15" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="BE15" s="0" t="s">
+      <c r="BG15" s="0" t="s">
         <v>1008</v>
-      </c>
-      <c r="BF15" s="0" t="s">
-        <v>1009</v>
-      </c>
-      <c r="BG15" s="0" t="s">
-        <v>1010</v>
       </c>
       <c r="BH15" s="0" t="s">
         <v>397</v>
@@ -10757,40 +10751,40 @@
         <v>399</v>
       </c>
       <c r="BN15" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BO15" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BS15" s="0" t="s">
         <v>1011</v>
       </c>
-      <c r="BO15" s="0" t="s">
+      <c r="BT15" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="BS15" s="0" t="s">
+      <c r="BX15" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BY15" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CC15" s="0" t="s">
         <v>1013</v>
       </c>
-      <c r="BT15" s="0" t="s">
+      <c r="CH15" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="BX15" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BY15" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CC15" s="0" t="s">
+      <c r="CI15" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="CJ15" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="CN15" s="0" t="s">
         <v>1015</v>
       </c>
-      <c r="CH15" s="0" t="s">
+      <c r="CO15" s="0" t="s">
         <v>1016</v>
-      </c>
-      <c r="CI15" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="CJ15" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="CN15" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="CO15" s="0" t="s">
-        <v>1018</v>
       </c>
       <c r="CP15" s="0" t="s">
         <v>365</v>
@@ -10799,28 +10793,28 @@
         <v>365</v>
       </c>
       <c r="DC15" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="DD15" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="DE15" s="0" t="s">
         <v>1019</v>
       </c>
-      <c r="DD15" s="0" t="s">
+      <c r="DF15" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="DE15" s="0" t="s">
+      <c r="DG15" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="DF15" s="0" t="s">
+      <c r="DH15" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="DG15" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="DH15" s="0" t="s">
-        <v>1024</v>
-      </c>
       <c r="DO15" s="0" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="DP15" s="0" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="DZ15" s="0" t="s">
         <v>157</v>
@@ -10862,7 +10856,7 @@
         <v>119</v>
       </c>
       <c r="HR15" s="0" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="IX15" s="0" t="s">
         <v>246</v>
@@ -10871,7 +10865,7 @@
         <v>256</v>
       </c>
       <c r="JR15" s="0" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="LO15" s="0" t="s">
         <v>302</v>
@@ -10883,19 +10877,19 @@
         <v>308</v>
       </c>
       <c r="MB15" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="MK15" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="ML15" s="0" t="s">
         <v>1027</v>
       </c>
-      <c r="MK15" s="0" t="s">
+      <c r="MM15" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="ML15" s="0" t="s">
+      <c r="MT15" s="0" t="s">
         <v>1029</v>
-      </c>
-      <c r="MM15" s="0" t="s">
-        <v>1030</v>
-      </c>
-      <c r="MT15" s="0" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10912,43 +10906,43 @@
         <v>43619.4460648148</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="M16" s="0" t="s">
         <v>1033</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="P16" s="0" t="s">
         <v>1036</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="Q16" s="0" t="s">
         <v>1037</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="R16" s="0" t="s">
         <v>1038</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="S16" s="0" t="s">
         <v>1039</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="T16" s="0" t="s">
         <v>1040</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="T16" s="0" t="s">
-        <v>1042</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>386</v>
@@ -10963,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AR16" s="0" t="s">
         <v>112</v>
@@ -10972,22 +10966,22 @@
         <v>113</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="BC16" s="0" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="BH16" s="0" t="s">
         <v>348</v>
       </c>
       <c r="BI16" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BJ16" s="0" t="s">
         <v>350</v>
       </c>
       <c r="BK16" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL16" s="0" t="s">
         <v>365</v>
@@ -10996,58 +10990,58 @@
         <v>399</v>
       </c>
       <c r="BN16" s="0" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="BS16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BX16" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CC16" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="CD16" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CE16" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="CD16" s="0" t="s">
+      <c r="CF16" s="0" t="s">
         <v>1047</v>
       </c>
-      <c r="CE16" s="0" t="s">
+      <c r="CG16" s="0" t="s">
         <v>1048</v>
-      </c>
-      <c r="CF16" s="0" t="s">
-        <v>1049</v>
-      </c>
-      <c r="CG16" s="0" t="s">
-        <v>1050</v>
       </c>
       <c r="CW16" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC16" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DF16" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="DI16" s="0" t="s">
         <v>1051</v>
       </c>
-      <c r="DF16" s="0" t="s">
+      <c r="DP16" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="DQ16" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="DR16" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="DS16" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="DT16" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="DU16" s="0" t="s">
         <v>1052</v>
-      </c>
-      <c r="DI16" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="DP16" s="0" t="s">
-        <v>1037</v>
-      </c>
-      <c r="DQ16" s="0" t="s">
-        <v>1040</v>
-      </c>
-      <c r="DR16" s="0" t="s">
-        <v>1039</v>
-      </c>
-      <c r="DS16" s="0" t="s">
-        <v>1038</v>
-      </c>
-      <c r="DT16" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="DU16" s="0" t="s">
-        <v>1054</v>
       </c>
       <c r="DZ16" s="0" t="s">
         <v>157</v>
@@ -11071,10 +11065,10 @@
         <v>119</v>
       </c>
       <c r="HR16" s="0" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="HS16" s="0" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="IT16" s="0" t="s">
         <v>242</v>
@@ -11089,13 +11083,13 @@
         <v>295</v>
       </c>
       <c r="MA16" s="0" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="MB16" s="0" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="ML16" s="0" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11112,34 +11106,34 @@
         <v>43616.4128240741</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>1059</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="L17" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="M17" s="0" t="s">
         <v>1061</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="N17" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="O17" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="P17" s="0" t="s">
         <v>1064</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="T17" s="0" t="s">
         <v>1065</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="U17" s="0" t="s">
         <v>1066</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>1067</v>
-      </c>
-      <c r="U17" s="0" t="s">
-        <v>1068</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>330</v>
@@ -11151,31 +11145,31 @@
         <v>28</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AB17" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AD17" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="AC17" s="0" t="s">
+      <c r="AE17" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="AD17" s="0" t="s">
+      <c r="AF17" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="AE17" s="0" t="s">
+      <c r="AG17" s="0" t="s">
         <v>1072</v>
       </c>
-      <c r="AF17" s="0" t="s">
+      <c r="AH17" s="0" t="s">
         <v>1073</v>
-      </c>
-      <c r="AG17" s="0" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AH17" s="0" t="s">
-        <v>1075</v>
       </c>
       <c r="AO17" s="0" t="s">
         <v>109</v>
@@ -11184,37 +11178,37 @@
         <v>113</v>
       </c>
       <c r="BA17" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BB17" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BC17" s="0" t="s">
         <v>1076</v>
       </c>
-      <c r="BB17" s="0" t="s">
+      <c r="BD17" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="BC17" s="0" t="s">
+      <c r="BE17" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="BD17" s="0" t="s">
+      <c r="BF17" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="BE17" s="0" t="s">
+      <c r="BG17" s="0" t="s">
         <v>1080</v>
-      </c>
-      <c r="BF17" s="0" t="s">
-        <v>1081</v>
-      </c>
-      <c r="BG17" s="0" t="s">
-        <v>1082</v>
       </c>
       <c r="BH17" s="0" t="s">
         <v>348</v>
       </c>
       <c r="BI17" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BJ17" s="0" t="s">
         <v>350</v>
       </c>
       <c r="BK17" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL17" s="0" t="s">
         <v>365</v>
@@ -11223,97 +11217,97 @@
         <v>399</v>
       </c>
       <c r="BN17" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="BS17" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="BX17" s="0" t="s">
         <v>1083</v>
       </c>
-      <c r="BS17" s="0" t="s">
+      <c r="CC17" s="0" t="s">
         <v>1084</v>
       </c>
-      <c r="BX17" s="0" t="s">
+      <c r="CH17" s="0" t="s">
         <v>1085</v>
       </c>
-      <c r="CC17" s="0" t="s">
+      <c r="CI17" s="0" t="s">
         <v>1086</v>
       </c>
-      <c r="CH17" s="0" t="s">
+      <c r="CN17" s="0" t="s">
         <v>1087</v>
       </c>
-      <c r="CI17" s="0" t="s">
+      <c r="CO17" s="0" t="s">
         <v>1088</v>
       </c>
-      <c r="CN17" s="0" t="s">
-        <v>1089</v>
-      </c>
-      <c r="CO17" s="0" t="s">
-        <v>1090</v>
-      </c>
       <c r="CP17" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="CQ17" s="0" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="CW17" s="0" t="s">
         <v>365</v>
       </c>
       <c r="CX17" s="0" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="DC17" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="DD17" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="DE17" s="0" t="s">
         <v>1091</v>
       </c>
-      <c r="DD17" s="0" t="s">
+      <c r="DF17" s="0" t="s">
         <v>1092</v>
       </c>
-      <c r="DE17" s="0" t="s">
+      <c r="DG17" s="0" t="s">
         <v>1093</v>
       </c>
-      <c r="DF17" s="0" t="s">
+      <c r="DH17" s="0" t="s">
         <v>1094</v>
       </c>
-      <c r="DG17" s="0" t="s">
+      <c r="DI17" s="0" t="s">
         <v>1095</v>
       </c>
-      <c r="DH17" s="0" t="s">
+      <c r="DJ17" s="0" t="s">
         <v>1096</v>
       </c>
-      <c r="DI17" s="0" t="s">
+      <c r="DK17" s="0" t="s">
         <v>1097</v>
       </c>
-      <c r="DJ17" s="0" t="s">
+      <c r="DL17" s="0" t="s">
         <v>1098</v>
       </c>
-      <c r="DK17" s="0" t="s">
+      <c r="DM17" s="0" t="s">
         <v>1099</v>
       </c>
-      <c r="DL17" s="0" t="s">
+      <c r="DN17" s="0" t="s">
         <v>1100</v>
       </c>
-      <c r="DM17" s="0" t="s">
+      <c r="DO17" s="0" t="s">
         <v>1101</v>
       </c>
-      <c r="DN17" s="0" t="s">
+      <c r="DP17" s="0" t="s">
         <v>1102</v>
       </c>
-      <c r="DO17" s="0" t="s">
+      <c r="DQ17" s="0" t="s">
         <v>1103</v>
       </c>
-      <c r="DP17" s="0" t="s">
+      <c r="DR17" s="0" t="s">
         <v>1104</v>
       </c>
-      <c r="DQ17" s="0" t="s">
+      <c r="DU17" s="0" t="s">
         <v>1105</v>
       </c>
-      <c r="DR17" s="0" t="s">
+      <c r="DV17" s="0" t="s">
         <v>1106</v>
       </c>
-      <c r="DU17" s="0" t="s">
+      <c r="DW17" s="0" t="s">
         <v>1107</v>
-      </c>
-      <c r="DV17" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="DW17" s="0" t="s">
-        <v>1109</v>
       </c>
       <c r="DZ17" s="0" t="s">
         <v>157</v>
@@ -11340,7 +11334,7 @@
         <v>175</v>
       </c>
       <c r="FX17" s="0" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="GE17" s="0" t="s">
         <v>184</v>
@@ -11349,28 +11343,28 @@
         <v>185</v>
       </c>
       <c r="GU17" s="0" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="HH17" s="0" t="s">
         <v>119</v>
       </c>
       <c r="HQ17" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="HR17" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="HS17" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="HT17" s="0" t="s">
         <v>1111</v>
       </c>
-      <c r="HR17" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="HS17" s="0" t="s">
+      <c r="HU17" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="HT17" s="0" t="s">
+      <c r="HV17" s="0" t="s">
         <v>1113</v>
-      </c>
-      <c r="HU17" s="0" t="s">
-        <v>1114</v>
-      </c>
-      <c r="HV17" s="0" t="s">
-        <v>1115</v>
       </c>
       <c r="HW17" s="0" t="s">
         <v>185</v>
@@ -11388,7 +11382,7 @@
         <v>259</v>
       </c>
       <c r="JR17" s="0" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="JU17" s="0" t="s">
         <v>264</v>
@@ -11406,7 +11400,7 @@
         <v>301</v>
       </c>
       <c r="LP17" s="0" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="LQ17" s="0" t="s">
         <v>303</v>
@@ -11415,46 +11409,46 @@
         <v>304</v>
       </c>
       <c r="MA17" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="MB17" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="MC17" s="0" t="s">
         <v>1117</v>
       </c>
-      <c r="MB17" s="0" t="s">
+      <c r="MD17" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="MC17" s="0" t="s">
+      <c r="ME17" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="MD17" s="0" t="s">
+      <c r="MF17" s="0" t="s">
         <v>1120</v>
       </c>
-      <c r="ME17" s="0" t="s">
+      <c r="ML17" s="0" t="s">
         <v>1121</v>
       </c>
-      <c r="MF17" s="0" t="s">
+      <c r="MM17" s="0" t="s">
         <v>1122</v>
       </c>
-      <c r="ML17" s="0" t="s">
+      <c r="MN17" s="0" t="s">
         <v>1123</v>
       </c>
-      <c r="MM17" s="0" t="s">
+      <c r="MO17" s="0" t="s">
         <v>1124</v>
       </c>
-      <c r="MN17" s="0" t="s">
+      <c r="MQ17" s="0" t="s">
         <v>1125</v>
       </c>
-      <c r="MO17" s="0" t="s">
+      <c r="MR17" s="0" t="s">
         <v>1126</v>
       </c>
-      <c r="MQ17" s="0" t="s">
+      <c r="MS17" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="MR17" s="0" t="s">
+      <c r="MT17" s="0" t="s">
         <v>1128</v>
-      </c>
-      <c r="MS17" s="0" t="s">
-        <v>1129</v>
-      </c>
-      <c r="MT17" s="0" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11471,40 +11465,40 @@
         <v>43619.38875</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>1131</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="L18" s="0" t="s">
         <v>1132</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>1133</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>1134</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>1135</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>1136</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="T18" s="0" t="s">
         <v>1137</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="U18" s="0" t="s">
         <v>1138</v>
       </c>
-      <c r="T18" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U18" s="0" t="s">
-        <v>1140</v>
-      </c>
       <c r="V18" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>4</v>
@@ -11516,55 +11510,55 @@
         <v>331</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AB18" s="0" t="s">
         <v>333</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AD18" s="0" t="s">
         <v>333</v>
       </c>
       <c r="AE18" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AG18" s="0" t="s">
         <v>1143</v>
       </c>
-      <c r="AF18" s="0" t="s">
+      <c r="AH18" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="AG18" s="0" t="s">
+      <c r="AI18" s="0" t="s">
         <v>1145</v>
       </c>
-      <c r="AH18" s="0" t="s">
+      <c r="AJ18" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK18" s="0" t="s">
         <v>1146</v>
       </c>
-      <c r="AI18" s="0" t="s">
+      <c r="AL18" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM18" s="0" t="s">
         <v>1147</v>
       </c>
-      <c r="AJ18" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="AK18" s="0" t="s">
+      <c r="AN18" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="AL18" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="AM18" s="0" t="s">
+      <c r="BA18" s="0" t="s">
         <v>1149</v>
       </c>
-      <c r="AN18" s="0" t="s">
+      <c r="BB18" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="BA18" s="0" t="s">
+      <c r="BC18" s="0" t="s">
         <v>1151</v>
-      </c>
-      <c r="BB18" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="BC18" s="0" t="s">
-        <v>1153</v>
       </c>
       <c r="BH18" s="0" t="s">
         <v>348</v>
@@ -11585,52 +11579,52 @@
         <v>399</v>
       </c>
       <c r="BN18" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BO18" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BP18" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="BO18" s="0" t="s">
+      <c r="BS18" s="0" t="s">
         <v>1155</v>
       </c>
-      <c r="BP18" s="0" t="s">
+      <c r="BT18" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BU18" s="0" t="s">
         <v>1156</v>
       </c>
-      <c r="BS18" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="BT18" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="BU18" s="0" t="s">
-        <v>1158</v>
-      </c>
       <c r="BX18" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BY18" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BZ18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="CC18" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CD18" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CH18" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="CD18" s="0" t="s">
+      <c r="CI18" s="0" t="s">
         <v>1160</v>
       </c>
-      <c r="CH18" s="0" t="s">
+      <c r="CJ18" s="0" t="s">
         <v>1161</v>
       </c>
-      <c r="CI18" s="0" t="s">
+      <c r="CN18" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="CO18" s="0" t="s">
         <v>1162</v>
-      </c>
-      <c r="CJ18" s="0" t="s">
-        <v>1163</v>
-      </c>
-      <c r="CN18" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="CO18" s="0" t="s">
-        <v>1164</v>
       </c>
       <c r="CP18" s="0" t="s">
         <v>365</v>
@@ -11639,25 +11633,25 @@
         <v>365</v>
       </c>
       <c r="DC18" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DD18" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DE18" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="DD18" s="0" t="s">
+      <c r="DF18" s="0" t="s">
         <v>1166</v>
       </c>
-      <c r="DE18" s="0" t="s">
+      <c r="DG18" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="DF18" s="0" t="s">
+      <c r="DO18" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DP18" s="0" t="s">
         <v>1168</v>
-      </c>
-      <c r="DG18" s="0" t="s">
-        <v>1169</v>
-      </c>
-      <c r="DO18" s="0" t="s">
-        <v>1132</v>
-      </c>
-      <c r="DP18" s="0" t="s">
-        <v>1170</v>
       </c>
       <c r="DZ18" s="0" t="s">
         <v>157</v>
@@ -11702,13 +11696,13 @@
         <v>311</v>
       </c>
       <c r="MB18" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="MI18" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="MQ18" s="0" t="s">
         <v>1171</v>
-      </c>
-      <c r="MI18" s="0" t="s">
-        <v>1172</v>
-      </c>
-      <c r="MQ18" s="0" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11725,46 +11719,46 @@
         <v>43628.4180555556</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>1174</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>1177</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="O19" s="0" t="s">
         <v>1179</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="P19" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="Q19" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="R19" s="0" t="s">
         <v>1182</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="S19" s="0" t="s">
         <v>1183</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="T19" s="0" t="s">
         <v>1184</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="U19" s="0" t="s">
         <v>1185</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>1186</v>
-      </c>
-      <c r="U19" s="0" t="s">
-        <v>1187</v>
       </c>
       <c r="V19" s="0" t="s">
         <v>330</v>
@@ -11779,22 +11773,22 @@
         <v>388</v>
       </c>
       <c r="AA19" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AC19" s="0" t="s">
         <v>1188</v>
       </c>
-      <c r="AB19" s="0" t="s">
+      <c r="AD19" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AE19" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="AC19" s="0" t="s">
+      <c r="AF19" s="0" t="s">
         <v>1190</v>
-      </c>
-      <c r="AD19" s="0" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AF19" s="0" t="s">
-        <v>1192</v>
       </c>
       <c r="AR19" s="0" t="s">
         <v>112</v>
@@ -11803,13 +11797,13 @@
         <v>113</v>
       </c>
       <c r="BA19" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="BB19" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BC19" s="0" t="s">
         <v>1193</v>
-      </c>
-      <c r="BB19" s="0" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BC19" s="0" t="s">
-        <v>1195</v>
       </c>
       <c r="BH19" s="0" t="s">
         <v>348</v>
@@ -11821,7 +11815,7 @@
         <v>349</v>
       </c>
       <c r="BK19" s="0" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="BL19" s="0" t="s">
         <v>365</v>
@@ -11830,109 +11824,109 @@
         <v>353</v>
       </c>
       <c r="BN19" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="BO19" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="BP19" s="0" t="s">
         <v>1197</v>
       </c>
-      <c r="BO19" s="0" t="s">
+      <c r="BQ19" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="BP19" s="0" t="s">
+      <c r="BR19" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="BQ19" s="0" t="s">
+      <c r="BS19" s="0" t="s">
         <v>1200</v>
-      </c>
-      <c r="BR19" s="0" t="s">
-        <v>1201</v>
-      </c>
-      <c r="BS19" s="0" t="s">
-        <v>1202</v>
       </c>
       <c r="BT19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BU19" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="BV19" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="BW19" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="BX19" s="0" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="BY19" s="0" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="CC19" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="CD19" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="CH19" s="0" t="s">
         <v>1203</v>
       </c>
-      <c r="CD19" s="0" t="s">
+      <c r="CI19" s="0" t="s">
         <v>1204</v>
       </c>
-      <c r="CH19" s="0" t="s">
+      <c r="CJ19" s="0" t="s">
         <v>1205</v>
       </c>
-      <c r="CI19" s="0" t="s">
+      <c r="CN19" s="0" t="s">
         <v>1206</v>
       </c>
-      <c r="CJ19" s="0" t="s">
+      <c r="CO19" s="0" t="s">
         <v>1207</v>
       </c>
-      <c r="CN19" s="0" t="s">
-        <v>1208</v>
-      </c>
-      <c r="CO19" s="0" t="s">
-        <v>1209</v>
-      </c>
       <c r="CP19" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="CW19" s="0" t="s">
         <v>365</v>
       </c>
       <c r="CX19" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="DC19" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="DD19" s="0" t="s">
         <v>1210</v>
       </c>
-      <c r="DC19" s="0" t="s">
+      <c r="DE19" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="DD19" s="0" t="s">
+      <c r="DF19" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="DE19" s="0" t="s">
+      <c r="DG19" s="0" t="s">
         <v>1213</v>
       </c>
-      <c r="DF19" s="0" t="s">
+      <c r="DH19" s="0" t="s">
         <v>1214</v>
       </c>
-      <c r="DG19" s="0" t="s">
+      <c r="DO19" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="DP19" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="DQ19" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="DH19" s="0" t="s">
+      <c r="DR19" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="DU19" s="0" t="s">
         <v>1216</v>
       </c>
-      <c r="DO19" s="0" t="s">
-        <v>1176</v>
-      </c>
-      <c r="DP19" s="0" t="s">
-        <v>1182</v>
-      </c>
-      <c r="DQ19" s="0" t="s">
+      <c r="DV19" s="0" t="s">
         <v>1217</v>
       </c>
-      <c r="DR19" s="0" t="s">
-        <v>1181</v>
-      </c>
-      <c r="DU19" s="0" t="s">
+      <c r="DW19" s="0" t="s">
         <v>1218</v>
-      </c>
-      <c r="DV19" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="DW19" s="0" t="s">
-        <v>1220</v>
       </c>
       <c r="DZ19" s="0" t="s">
         <v>157</v>
@@ -11950,7 +11944,7 @@
         <v>178</v>
       </c>
       <c r="FX19" s="0" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="GF19" s="0" t="s">
         <v>185</v>
@@ -11962,16 +11956,16 @@
         <v>119</v>
       </c>
       <c r="HR19" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="HS19" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="HT19" s="0" t="s">
         <v>1222</v>
       </c>
-      <c r="HS19" s="0" t="s">
+      <c r="HU19" s="0" t="s">
         <v>1223</v>
-      </c>
-      <c r="HT19" s="0" t="s">
-        <v>1224</v>
-      </c>
-      <c r="HU19" s="0" t="s">
-        <v>1225</v>
       </c>
       <c r="HW19" s="0" t="s">
         <v>185</v>
@@ -11992,7 +11986,7 @@
         <v>195</v>
       </c>
       <c r="JR19" s="0" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="KB19" s="0" t="s">
         <v>271</v>
@@ -12019,43 +12013,43 @@
         <v>308</v>
       </c>
       <c r="MB19" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="MC19" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="MD19" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="MC19" s="0" t="s">
+      <c r="ME19" s="0" t="s">
         <v>1228</v>
       </c>
-      <c r="MD19" s="0" t="s">
+      <c r="MF19" s="0" t="s">
         <v>1229</v>
       </c>
-      <c r="ME19" s="0" t="s">
+      <c r="MG19" s="0" t="s">
         <v>1230</v>
       </c>
-      <c r="MF19" s="0" t="s">
+      <c r="MH19" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="MG19" s="0" t="s">
+      <c r="MI19" s="0" t="s">
         <v>1232</v>
       </c>
-      <c r="MH19" s="0" t="s">
+      <c r="MK19" s="0" t="s">
         <v>1233</v>
       </c>
-      <c r="MI19" s="0" t="s">
+      <c r="ML19" s="0" t="s">
         <v>1234</v>
       </c>
-      <c r="MK19" s="0" t="s">
+      <c r="MM19" s="0" t="s">
         <v>1235</v>
       </c>
-      <c r="ML19" s="0" t="s">
+      <c r="MS19" s="0" t="s">
         <v>1236</v>
       </c>
-      <c r="MM19" s="0" t="s">
+      <c r="MT19" s="0" t="s">
         <v>1237</v>
-      </c>
-      <c r="MS19" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="MT19" s="0" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12072,37 +12066,37 @@
         <v>43628.1975925926</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>1240</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>1241</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="L20" s="0" t="s">
         <v>1242</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="M20" s="0" t="s">
         <v>1243</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="N20" s="0" t="s">
         <v>1244</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="O20" s="0" t="s">
         <v>1245</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="P20" s="0" t="s">
         <v>1246</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="T20" s="0" t="s">
         <v>1247</v>
       </c>
-      <c r="P20" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>1249</v>
-      </c>
       <c r="U20" s="0" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="V20" s="0" t="s">
         <v>330</v>
@@ -12117,25 +12111,25 @@
         <v>331</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AB20" s="0" t="s">
         <v>333</v>
       </c>
       <c r="AC20" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AE20" s="0" t="s">
         <v>1251</v>
       </c>
-      <c r="AD20" s="0" t="s">
+      <c r="AF20" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG20" s="0" t="s">
         <v>1252</v>
-      </c>
-      <c r="AE20" s="0" t="s">
-        <v>1253</v>
-      </c>
-      <c r="AF20" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG20" s="0" t="s">
-        <v>1254</v>
       </c>
       <c r="AH20" s="0" t="s">
         <v>341</v>
@@ -12150,25 +12144,25 @@
         <v>113</v>
       </c>
       <c r="BA20" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BB20" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BC20" s="0" t="s">
         <v>1255</v>
       </c>
-      <c r="BB20" s="0" t="s">
+      <c r="BD20" s="0" t="s">
         <v>1256</v>
       </c>
-      <c r="BC20" s="0" t="s">
+      <c r="BE20" s="0" t="s">
         <v>1257</v>
-      </c>
-      <c r="BD20" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="BE20" s="0" t="s">
-        <v>1259</v>
       </c>
       <c r="BH20" s="0" t="s">
         <v>348</v>
       </c>
       <c r="BI20" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BJ20" s="0" t="s">
         <v>350</v>
@@ -12183,124 +12177,124 @@
         <v>399</v>
       </c>
       <c r="BN20" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="BO20" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BP20" s="0" t="s">
         <v>1260</v>
       </c>
-      <c r="BO20" s="0" t="s">
+      <c r="BQ20" s="0" t="s">
         <v>1261</v>
       </c>
-      <c r="BP20" s="0" t="s">
+      <c r="BR20" s="0" t="s">
         <v>1262</v>
       </c>
-      <c r="BQ20" s="0" t="s">
+      <c r="BS20" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="BR20" s="0" t="s">
+      <c r="BT20" s="0" t="s">
         <v>1264</v>
       </c>
-      <c r="BS20" s="0" t="s">
+      <c r="BU20" s="0" t="s">
         <v>1265</v>
       </c>
-      <c r="BT20" s="0" t="s">
+      <c r="BV20" s="0" t="s">
         <v>1266</v>
       </c>
-      <c r="BU20" s="0" t="s">
+      <c r="BW20" s="0" t="s">
         <v>1267</v>
       </c>
-      <c r="BV20" s="0" t="s">
+      <c r="BX20" s="0" t="s">
         <v>1268</v>
       </c>
-      <c r="BW20" s="0" t="s">
+      <c r="BY20" s="0" t="s">
         <v>1269</v>
       </c>
-      <c r="BX20" s="0" t="s">
+      <c r="BZ20" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="BY20" s="0" t="s">
+      <c r="CA20" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="BZ20" s="0" t="s">
+      <c r="CB20" s="0" t="s">
         <v>1272</v>
       </c>
-      <c r="CA20" s="0" t="s">
+      <c r="CC20" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="CB20" s="0" t="s">
+      <c r="CD20" s="0" t="s">
         <v>1274</v>
       </c>
-      <c r="CC20" s="0" t="s">
+      <c r="CE20" s="0" t="s">
         <v>1275</v>
       </c>
-      <c r="CD20" s="0" t="s">
+      <c r="CH20" s="0" t="s">
         <v>1276</v>
       </c>
-      <c r="CE20" s="0" t="s">
+      <c r="CI20" s="0" t="s">
         <v>1277</v>
       </c>
-      <c r="CH20" s="0" t="s">
+      <c r="CJ20" s="0" t="s">
         <v>1278</v>
       </c>
-      <c r="CI20" s="0" t="s">
+      <c r="CK20" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="CJ20" s="0" t="s">
+      <c r="CN20" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="CO20" s="0" t="s">
         <v>1280</v>
       </c>
-      <c r="CK20" s="0" t="s">
+      <c r="CP20" s="0" t="s">
         <v>1281</v>
-      </c>
-      <c r="CN20" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="CO20" s="0" t="s">
-        <v>1282</v>
-      </c>
-      <c r="CP20" s="0" t="s">
-        <v>1283</v>
       </c>
       <c r="CW20" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC20" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="DD20" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="DE20" s="0" t="s">
         <v>1284</v>
       </c>
-      <c r="DD20" s="0" t="s">
+      <c r="DF20" s="0" t="s">
         <v>1285</v>
       </c>
-      <c r="DE20" s="0" t="s">
+      <c r="DO20" s="0" t="s">
         <v>1286</v>
       </c>
-      <c r="DF20" s="0" t="s">
+      <c r="DP20" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="DQ20" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="DO20" s="0" t="s">
+      <c r="DR20" s="0" t="s">
         <v>1288</v>
       </c>
-      <c r="DP20" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="DQ20" s="0" t="s">
+      <c r="DS20" s="0" t="s">
         <v>1289</v>
       </c>
-      <c r="DR20" s="0" t="s">
+      <c r="DT20" s="0" t="s">
         <v>1290</v>
       </c>
-      <c r="DS20" s="0" t="s">
+      <c r="DU20" s="0" t="s">
         <v>1291</v>
       </c>
-      <c r="DT20" s="0" t="s">
+      <c r="DV20" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="DU20" s="0" t="s">
+      <c r="DW20" s="0" t="s">
         <v>1293</v>
       </c>
-      <c r="DV20" s="0" t="s">
+      <c r="DY20" s="0" t="s">
         <v>1294</v>
-      </c>
-      <c r="DW20" s="0" t="s">
-        <v>1295</v>
-      </c>
-      <c r="DY20" s="0" t="s">
-        <v>1296</v>
       </c>
       <c r="DZ20" s="0" t="s">
         <v>157</v>
@@ -12345,16 +12339,16 @@
         <v>119</v>
       </c>
       <c r="HR20" s="0" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="HS20" s="0" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="HT20" s="0" t="s">
         <v>251</v>
       </c>
       <c r="HU20" s="0" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="IZ20" s="0" t="s">
         <v>247</v>
@@ -12399,22 +12393,22 @@
         <v>309</v>
       </c>
       <c r="MB20" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="MC20" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="MD20" s="0" t="s">
         <v>1300</v>
       </c>
-      <c r="MC20" s="0" t="s">
+      <c r="MF20" s="0" t="s">
         <v>1301</v>
       </c>
-      <c r="MD20" s="0" t="s">
+      <c r="MI20" s="0" t="s">
         <v>1302</v>
       </c>
-      <c r="MF20" s="0" t="s">
+      <c r="MK20" s="0" t="s">
         <v>1303</v>
-      </c>
-      <c r="MI20" s="0" t="s">
-        <v>1304</v>
-      </c>
-      <c r="MK20" s="0" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12431,46 +12425,46 @@
         <v>43628.5665393519</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>1306</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="L21" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="J21" s="0" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K21" s="0" t="s">
+      <c r="M21" s="0" t="s">
         <v>1308</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="N21" s="0" t="s">
         <v>1309</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="O21" s="0" t="s">
         <v>1310</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="P21" s="0" t="s">
         <v>1311</v>
       </c>
-      <c r="O21" s="0" t="s">
+      <c r="Q21" s="0" t="s">
         <v>1312</v>
       </c>
-      <c r="P21" s="0" t="s">
+      <c r="R21" s="0" t="s">
         <v>1313</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="S21" s="0" t="s">
         <v>1314</v>
       </c>
-      <c r="R21" s="0" t="s">
+      <c r="T21" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="S21" s="0" t="s">
+      <c r="U21" s="0" t="s">
         <v>1316</v>
-      </c>
-      <c r="T21" s="0" t="s">
-        <v>1317</v>
-      </c>
-      <c r="U21" s="0" t="s">
-        <v>1318</v>
       </c>
       <c r="V21" s="0" t="s">
         <v>387</v>
@@ -12485,82 +12479,82 @@
         <v>331</v>
       </c>
       <c r="AA21" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AC21" s="0" t="s">
         <v>1319</v>
       </c>
-      <c r="AB21" s="0" t="s">
+      <c r="AD21" s="0" t="s">
         <v>1320</v>
       </c>
-      <c r="AC21" s="0" t="s">
+      <c r="AE21" s="0" t="s">
         <v>1321</v>
       </c>
-      <c r="AD21" s="0" t="s">
+      <c r="AF21" s="0" t="s">
         <v>1322</v>
       </c>
-      <c r="AE21" s="0" t="s">
+      <c r="AG21" s="0" t="s">
         <v>1323</v>
       </c>
-      <c r="AF21" s="0" t="s">
+      <c r="AH21" s="0" t="s">
         <v>1324</v>
       </c>
-      <c r="AG21" s="0" t="s">
+      <c r="AI21" s="0" t="s">
         <v>1325</v>
       </c>
-      <c r="AH21" s="0" t="s">
+      <c r="AJ21" s="0" t="s">
         <v>1326</v>
       </c>
-      <c r="AI21" s="0" t="s">
+      <c r="AK21" s="0" t="s">
         <v>1327</v>
       </c>
-      <c r="AJ21" s="0" t="s">
+      <c r="AL21" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="AK21" s="0" t="s">
+      <c r="AM21" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="AL21" s="0" t="s">
+      <c r="AN21" s="0" t="s">
         <v>1330</v>
-      </c>
-      <c r="AM21" s="0" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AN21" s="0" t="s">
-        <v>1332</v>
       </c>
       <c r="AP21" s="0" t="s">
         <v>110</v>
       </c>
       <c r="BA21" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BB21" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BC21" s="0" t="s">
         <v>1333</v>
       </c>
-      <c r="BB21" s="0" t="s">
+      <c r="BD21" s="0" t="s">
         <v>1334</v>
       </c>
-      <c r="BC21" s="0" t="s">
+      <c r="BE21" s="0" t="s">
         <v>1335</v>
       </c>
-      <c r="BD21" s="0" t="s">
+      <c r="BF21" s="0" t="s">
         <v>1336</v>
       </c>
-      <c r="BE21" s="0" t="s">
+      <c r="BG21" s="0" t="s">
         <v>1337</v>
       </c>
-      <c r="BF21" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="BG21" s="0" t="s">
-        <v>1339</v>
-      </c>
       <c r="BH21" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="BI21" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="BJ21" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="BK21" s="0" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="BL21" s="0" t="s">
         <v>352</v>
@@ -12569,19 +12563,19 @@
         <v>353</v>
       </c>
       <c r="BN21" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BO21" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BP21" s="0" t="s">
         <v>1340</v>
       </c>
-      <c r="BO21" s="0" t="s">
+      <c r="BQ21" s="0" t="s">
         <v>1341</v>
       </c>
-      <c r="BP21" s="0" t="s">
+      <c r="BR21" s="0" t="s">
         <v>1342</v>
-      </c>
-      <c r="BQ21" s="0" t="s">
-        <v>1343</v>
-      </c>
-      <c r="BR21" s="0" t="s">
-        <v>1344</v>
       </c>
       <c r="BS21" s="0" t="n">
         <v>3</v>
@@ -12599,130 +12593,130 @@
         <v>5</v>
       </c>
       <c r="BX21" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BY21" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BZ21" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CA21" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CB21" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CC21" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="CD21" s="0" t="s">
         <v>1345</v>
       </c>
-      <c r="BY21" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BZ21" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CA21" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CB21" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CC21" s="0" t="s">
+      <c r="CE21" s="0" t="s">
         <v>1346</v>
       </c>
-      <c r="CD21" s="0" t="s">
+      <c r="CF21" s="0" t="s">
         <v>1347</v>
       </c>
-      <c r="CE21" s="0" t="s">
+      <c r="CG21" s="0" t="s">
         <v>1348</v>
       </c>
-      <c r="CF21" s="0" t="s">
+      <c r="CH21" s="0" t="s">
         <v>1349</v>
       </c>
-      <c r="CG21" s="0" t="s">
+      <c r="CI21" s="0" t="s">
         <v>1350</v>
       </c>
-      <c r="CH21" s="0" t="s">
+      <c r="CJ21" s="0" t="s">
         <v>1351</v>
       </c>
-      <c r="CI21" s="0" t="s">
+      <c r="CK21" s="0" t="s">
         <v>1352</v>
       </c>
-      <c r="CJ21" s="0" t="s">
+      <c r="CN21" s="0" t="s">
         <v>1353</v>
       </c>
-      <c r="CK21" s="0" t="s">
+      <c r="CO21" s="0" t="s">
         <v>1354</v>
-      </c>
-      <c r="CN21" s="0" t="s">
-        <v>1355</v>
-      </c>
-      <c r="CO21" s="0" t="s">
-        <v>1356</v>
       </c>
       <c r="CP21" s="0" t="s">
         <v>352</v>
       </c>
       <c r="CQ21" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="CR21" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="CS21" s="0" t="s">
         <v>1357</v>
-      </c>
-      <c r="CR21" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="CS21" s="0" t="s">
-        <v>1359</v>
       </c>
       <c r="CW21" s="0" t="s">
         <v>352</v>
       </c>
       <c r="CX21" s="0" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="CY21" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="CZ21" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="DA21" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="DB21" s="0" t="s">
         <v>1360</v>
       </c>
-      <c r="CZ21" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="DA21" s="0" t="s">
+      <c r="DC21" s="0" t="s">
         <v>1361</v>
       </c>
-      <c r="DB21" s="0" t="s">
+      <c r="DD21" s="0" t="s">
         <v>1362</v>
       </c>
-      <c r="DC21" s="0" t="s">
+      <c r="DE21" s="0" t="s">
         <v>1363</v>
       </c>
-      <c r="DD21" s="0" t="s">
+      <c r="DF21" s="0" t="s">
         <v>1364</v>
       </c>
-      <c r="DE21" s="0" t="s">
+      <c r="DG21" s="0" t="s">
         <v>1365</v>
       </c>
-      <c r="DF21" s="0" t="s">
+      <c r="DH21" s="0" t="s">
         <v>1366</v>
       </c>
-      <c r="DG21" s="0" t="s">
+      <c r="DI21" s="0" t="s">
         <v>1367</v>
       </c>
-      <c r="DH21" s="0" t="s">
+      <c r="DJ21" s="0" t="s">
         <v>1368</v>
       </c>
-      <c r="DI21" s="0" t="s">
+      <c r="DK21" s="0" t="s">
         <v>1369</v>
       </c>
-      <c r="DJ21" s="0" t="s">
+      <c r="DL21" s="0" t="s">
         <v>1370</v>
       </c>
-      <c r="DK21" s="0" t="s">
+      <c r="DO21" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="DP21" s="0" t="s">
         <v>1371</v>
       </c>
-      <c r="DL21" s="0" t="s">
+      <c r="DQ21" s="0" t="s">
         <v>1372</v>
       </c>
-      <c r="DO21" s="0" t="s">
-        <v>1307</v>
-      </c>
-      <c r="DP21" s="0" t="s">
+      <c r="DR21" s="0" t="s">
         <v>1373</v>
       </c>
-      <c r="DQ21" s="0" t="s">
+      <c r="DS21" s="0" t="s">
         <v>1374</v>
       </c>
-      <c r="DR21" s="0" t="s">
+      <c r="DT21" s="0" t="s">
         <v>1375</v>
-      </c>
-      <c r="DS21" s="0" t="s">
-        <v>1376</v>
-      </c>
-      <c r="DT21" s="0" t="s">
-        <v>1377</v>
       </c>
       <c r="EA21" s="0" t="s">
         <v>158</v>
@@ -12767,7 +12761,7 @@
         <v>199</v>
       </c>
       <c r="GU21" s="0" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="GW21" s="0" t="s">
         <v>208</v>
@@ -12776,22 +12770,22 @@
         <v>210</v>
       </c>
       <c r="HI21" s="0" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="HO21" s="0" t="s">
         <v>119</v>
       </c>
       <c r="HR21" s="0" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="HS21" s="0" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="HT21" s="0" t="s">
         <v>226</v>
       </c>
       <c r="HU21" s="0" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="ID21" s="0" t="s">
         <v>226</v>
@@ -12842,7 +12836,7 @@
         <v>297</v>
       </c>
       <c r="LP21" s="0" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="LQ21" s="0" t="s">
         <v>303</v>
@@ -12857,16 +12851,16 @@
         <v>306</v>
       </c>
       <c r="MA21" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="MB21" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="MK21" s="0" t="s">
         <v>1384</v>
       </c>
-      <c r="MB21" s="0" t="s">
+      <c r="MT21" s="0" t="s">
         <v>1385</v>
-      </c>
-      <c r="MK21" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="MT21" s="0" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12883,40 +12877,40 @@
         <v>43628.2221875</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>1388</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="L22" s="0" t="s">
         <v>1389</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="M22" s="0" t="s">
         <v>1390</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="N22" s="0" t="s">
         <v>1391</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="O22" s="0" t="s">
         <v>1392</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="P22" s="0" t="s">
         <v>1393</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="Q22" s="0" t="s">
         <v>1394</v>
       </c>
-      <c r="P22" s="0" t="s">
+      <c r="R22" s="0" t="s">
         <v>1395</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="T22" s="0" t="s">
         <v>1396</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>1397</v>
-      </c>
-      <c r="T22" s="0" t="s">
-        <v>1398</v>
       </c>
       <c r="U22" s="0" t="s">
         <v>386</v>
@@ -12940,16 +12934,16 @@
         <v>113</v>
       </c>
       <c r="BA22" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BB22" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BC22" s="0" t="s">
         <v>1399</v>
       </c>
-      <c r="BB22" s="0" t="s">
-        <v>1400</v>
-      </c>
-      <c r="BC22" s="0" t="s">
-        <v>1401</v>
-      </c>
       <c r="BH22" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="BI22" s="0" t="s">
         <v>349</v>
@@ -12967,85 +12961,85 @@
         <v>399</v>
       </c>
       <c r="BN22" s="0" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="BO22" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BX22" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BY22" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="CC22" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="BX22" s="0" t="s">
+      <c r="CH22" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="CI22" s="0" t="s">
         <v>1403</v>
       </c>
-      <c r="BY22" s="0" t="s">
-        <v>1403</v>
-      </c>
-      <c r="CC22" s="0" t="s">
+      <c r="CN22" s="0" t="s">
         <v>1404</v>
       </c>
-      <c r="CH22" s="0" t="s">
-        <v>1045</v>
-      </c>
-      <c r="CI22" s="0" t="s">
+      <c r="CO22" s="0" t="s">
         <v>1405</v>
       </c>
-      <c r="CN22" s="0" t="s">
+      <c r="CP22" s="0" t="s">
         <v>1406</v>
-      </c>
-      <c r="CO22" s="0" t="s">
-        <v>1407</v>
-      </c>
-      <c r="CP22" s="0" t="s">
-        <v>1408</v>
       </c>
       <c r="CW22" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC22" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="DD22" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="DE22" s="0" t="s">
         <v>1409</v>
       </c>
-      <c r="DD22" s="0" t="s">
+      <c r="DF22" s="0" t="s">
         <v>1410</v>
       </c>
-      <c r="DE22" s="0" t="s">
+      <c r="DG22" s="0" t="s">
         <v>1411</v>
       </c>
-      <c r="DF22" s="0" t="s">
+      <c r="DI22" s="0" t="s">
         <v>1412</v>
       </c>
-      <c r="DG22" s="0" t="s">
+      <c r="DJ22" s="0" t="s">
         <v>1413</v>
       </c>
-      <c r="DI22" s="0" t="s">
+      <c r="DL22" s="0" t="s">
         <v>1414</v>
       </c>
-      <c r="DJ22" s="0" t="s">
+      <c r="DM22" s="0" t="s">
         <v>1415</v>
       </c>
-      <c r="DL22" s="0" t="s">
+      <c r="DO22" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="DP22" s="0" t="s">
         <v>1416</v>
       </c>
-      <c r="DM22" s="0" t="s">
+      <c r="DQ22" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="DR22" s="0" t="s">
         <v>1417</v>
       </c>
-      <c r="DO22" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="DP22" s="0" t="s">
+      <c r="DU22" s="0" t="s">
         <v>1418</v>
       </c>
-      <c r="DQ22" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="DR22" s="0" t="s">
+      <c r="DV22" s="0" t="s">
         <v>1419</v>
       </c>
-      <c r="DU22" s="0" t="s">
+      <c r="DW22" s="0" t="s">
         <v>1420</v>
-      </c>
-      <c r="DV22" s="0" t="s">
-        <v>1421</v>
-      </c>
-      <c r="DW22" s="0" t="s">
-        <v>1422</v>
       </c>
       <c r="DZ22" s="0" t="s">
         <v>157</v>
@@ -13060,13 +13054,13 @@
         <v>168</v>
       </c>
       <c r="EQ22" s="0" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="FX22" s="0" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="GU22" s="0" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="HH22" s="0" t="s">
         <v>119</v>
@@ -13093,28 +13087,28 @@
         <v>307</v>
       </c>
       <c r="MB22" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="MC22" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="MI22" s="0" t="s">
         <v>1425</v>
       </c>
-      <c r="MC22" s="0" t="s">
+      <c r="MK22" s="0" t="s">
         <v>1426</v>
       </c>
-      <c r="MI22" s="0" t="s">
+      <c r="ML22" s="0" t="s">
         <v>1427</v>
       </c>
-      <c r="MK22" s="0" t="s">
+      <c r="MM22" s="0" t="s">
         <v>1428</v>
       </c>
-      <c r="ML22" s="0" t="s">
+      <c r="MQ22" s="0" t="s">
         <v>1429</v>
       </c>
-      <c r="MM22" s="0" t="s">
+      <c r="MR22" s="0" t="s">
         <v>1430</v>
-      </c>
-      <c r="MQ22" s="0" t="s">
-        <v>1431</v>
-      </c>
-      <c r="MR22" s="0" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13128,40 +13122,40 @@
         <v>43556.4998842593</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43628.6162384259</v>
+        <v>43628.7098842593</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>1433</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="L23" s="0" t="s">
         <v>1434</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K23" s="0" t="s">
+      <c r="M23" s="0" t="s">
         <v>1435</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="N23" s="0" t="s">
         <v>1436</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="O23" s="0" t="s">
         <v>1437</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="P23" s="0" t="s">
         <v>1438</v>
       </c>
-      <c r="O23" s="0" t="s">
+      <c r="T23" s="0" t="s">
         <v>1439</v>
       </c>
-      <c r="P23" s="0" t="s">
+      <c r="U23" s="0" t="s">
         <v>1440</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>1442</v>
       </c>
       <c r="V23" s="0" t="s">
         <v>387</v>
@@ -13176,28 +13170,28 @@
         <v>388</v>
       </c>
       <c r="AA23" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AC23" s="0" t="s">
         <v>1443</v>
       </c>
-      <c r="AB23" s="0" t="s">
+      <c r="AD23" s="0" t="s">
         <v>1444</v>
       </c>
-      <c r="AC23" s="0" t="s">
+      <c r="AE23" s="0" t="s">
         <v>1445</v>
       </c>
-      <c r="AD23" s="0" t="s">
+      <c r="AF23" s="0" t="s">
         <v>1446</v>
       </c>
-      <c r="AE23" s="0" t="s">
+      <c r="AG23" s="0" t="s">
         <v>1447</v>
       </c>
-      <c r="AF23" s="0" t="s">
+      <c r="AH23" s="0" t="s">
         <v>1448</v>
-      </c>
-      <c r="AG23" s="0" t="s">
-        <v>1449</v>
-      </c>
-      <c r="AH23" s="0" t="s">
-        <v>1450</v>
       </c>
       <c r="AR23" s="0" t="s">
         <v>112</v>
@@ -13206,25 +13200,25 @@
         <v>113</v>
       </c>
       <c r="BA23" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BB23" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BC23" s="0" t="s">
         <v>1451</v>
       </c>
-      <c r="BB23" s="0" t="s">
+      <c r="BD23" s="0" t="s">
         <v>1452</v>
       </c>
-      <c r="BC23" s="0" t="s">
+      <c r="BE23" s="0" t="s">
         <v>1453</v>
       </c>
-      <c r="BD23" s="0" t="s">
+      <c r="BF23" s="0" t="s">
         <v>1454</v>
       </c>
-      <c r="BE23" s="0" t="s">
+      <c r="BG23" s="0" t="s">
         <v>1455</v>
-      </c>
-      <c r="BF23" s="0" t="s">
-        <v>1456</v>
-      </c>
-      <c r="BG23" s="0" t="s">
-        <v>1457</v>
       </c>
       <c r="BH23" s="0" t="s">
         <v>397</v>
@@ -13245,19 +13239,19 @@
         <v>399</v>
       </c>
       <c r="BN23" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BO23" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BP23" s="0" t="s">
         <v>1458</v>
       </c>
-      <c r="BO23" s="0" t="s">
+      <c r="BQ23" s="0" t="s">
         <v>1459</v>
       </c>
-      <c r="BP23" s="0" t="s">
+      <c r="BR23" s="0" t="s">
         <v>1460</v>
-      </c>
-      <c r="BQ23" s="0" t="s">
-        <v>1461</v>
-      </c>
-      <c r="BR23" s="0" t="s">
-        <v>1462</v>
       </c>
       <c r="BS23" s="0" t="n">
         <v>2</v>
@@ -13275,85 +13269,85 @@
         <v>40</v>
       </c>
       <c r="BX23" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BY23" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BZ23" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CA23" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CB23" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CC23" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="CD23" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="CE23" s="0" t="s">
         <v>1463</v>
       </c>
-      <c r="CD23" s="0" t="s">
+      <c r="CH23" s="0" t="s">
         <v>1464</v>
       </c>
-      <c r="CE23" s="0" t="s">
+      <c r="CI23" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="CJ23" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="CK23" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CL23" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="CM23" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="CN23" s="0" t="s">
         <v>1465</v>
       </c>
-      <c r="CH23" s="0" t="s">
+      <c r="CO23" s="0" t="s">
         <v>1466</v>
       </c>
-      <c r="CI23" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="CJ23" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="CK23" s="0" t="s">
-        <v>1085</v>
-      </c>
-      <c r="CL23" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="CM23" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="CN23" s="0" t="s">
+      <c r="CP23" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="CQ23" s="0" t="s">
         <v>1467</v>
-      </c>
-      <c r="CO23" s="0" t="s">
-        <v>1468</v>
-      </c>
-      <c r="CP23" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="CQ23" s="0" t="s">
-        <v>1469</v>
       </c>
       <c r="CW23" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC23" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="DD23" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="DE23" s="0" t="s">
         <v>1470</v>
       </c>
-      <c r="DD23" s="0" t="s">
+      <c r="DG23" s="0" t="s">
         <v>1471</v>
       </c>
-      <c r="DE23" s="0" t="s">
+      <c r="DH23" s="0" t="s">
         <v>1472</v>
       </c>
-      <c r="DG23" s="0" t="s">
+      <c r="DO23" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="DP23" s="0" t="s">
         <v>1473</v>
       </c>
-      <c r="DH23" s="0" t="s">
+      <c r="DQ23" s="0" t="s">
         <v>1474</v>
-      </c>
-      <c r="DO23" s="0" t="s">
-        <v>1434</v>
-      </c>
-      <c r="DP23" s="0" t="s">
-        <v>1475</v>
-      </c>
-      <c r="DQ23" s="0" t="s">
-        <v>1476</v>
       </c>
       <c r="DZ23" s="0" t="s">
         <v>157</v>
@@ -13380,13 +13374,13 @@
         <v>119</v>
       </c>
       <c r="HQ23" s="0" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="JC23" s="0" t="s">
         <v>250</v>
       </c>
       <c r="JR23" s="0" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="LD23" s="0" t="s">
         <v>295</v>
@@ -13398,25 +13392,25 @@
         <v>304</v>
       </c>
       <c r="MA23" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="MB23" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="MC23" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="MB23" s="0" t="s">
+      <c r="MF23" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="MC23" s="0" t="s">
+      <c r="ML23" s="0" t="s">
         <v>1481</v>
       </c>
-      <c r="MF23" s="0" t="s">
+      <c r="MM23" s="0" t="s">
         <v>1482</v>
       </c>
-      <c r="ML23" s="0" t="s">
+      <c r="MS23" s="0" t="s">
         <v>1483</v>
-      </c>
-      <c r="MM23" s="0" t="s">
-        <v>1484</v>
-      </c>
-      <c r="MS23" s="0" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13433,43 +13427,43 @@
         <v>43628.5168981482</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>1486</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="L24" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="M24" s="0" t="s">
         <v>1487</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>1487</v>
-      </c>
-      <c r="K24" s="0" t="s">
+      <c r="N24" s="0" t="s">
         <v>1488</v>
       </c>
-      <c r="L24" s="0" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M24" s="0" t="s">
+      <c r="O24" s="0" t="s">
         <v>1489</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="P24" s="0" t="s">
         <v>1490</v>
       </c>
-      <c r="O24" s="0" t="s">
+      <c r="Q24" s="0" t="s">
         <v>1491</v>
       </c>
-      <c r="P24" s="0" t="s">
+      <c r="R24" s="0" t="s">
         <v>1492</v>
       </c>
-      <c r="Q24" s="0" t="s">
+      <c r="T24" s="0" t="s">
         <v>1493</v>
       </c>
-      <c r="R24" s="0" t="s">
-        <v>1494</v>
-      </c>
-      <c r="T24" s="0" t="s">
-        <v>1495</v>
-      </c>
       <c r="U24" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V24" s="0" t="s">
         <v>330</v>
@@ -13481,7 +13475,7 @@
         <v>3</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="AP24" s="0" t="s">
         <v>110</v>
@@ -13493,31 +13487,31 @@
         <v>120</v>
       </c>
       <c r="BB24" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="BC24" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="BD24" s="0" t="s">
         <v>1497</v>
       </c>
-      <c r="BC24" s="0" t="s">
+      <c r="BE24" s="0" t="s">
         <v>1498</v>
       </c>
-      <c r="BD24" s="0" t="s">
+      <c r="BF24" s="0" t="s">
         <v>1499</v>
       </c>
-      <c r="BE24" s="0" t="s">
+      <c r="BG24" s="0" t="s">
         <v>1500</v>
       </c>
-      <c r="BF24" s="0" t="s">
-        <v>1501</v>
-      </c>
-      <c r="BG24" s="0" t="s">
-        <v>1502</v>
-      </c>
       <c r="BH24" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="BI24" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="BJ24" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="BK24" s="0" t="s">
         <v>351</v>
@@ -13529,37 +13523,37 @@
         <v>399</v>
       </c>
       <c r="BN24" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="BS24" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="BX24" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CC24" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="CH24" s="0" t="s">
         <v>1503</v>
       </c>
-      <c r="BS24" s="0" t="s">
-        <v>1084</v>
-      </c>
-      <c r="BX24" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CC24" s="0" t="s">
+      <c r="CI24" s="0" t="s">
         <v>1504</v>
       </c>
-      <c r="CH24" s="0" t="s">
+      <c r="CJ24" s="0" t="s">
         <v>1505</v>
       </c>
-      <c r="CI24" s="0" t="s">
+      <c r="CK24" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="CL24" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="CM24" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="CN24" s="0" t="s">
         <v>1506</v>
-      </c>
-      <c r="CJ24" s="0" t="s">
-        <v>1507</v>
-      </c>
-      <c r="CK24" s="0" t="s">
-        <v>1507</v>
-      </c>
-      <c r="CL24" s="0" t="s">
-        <v>1507</v>
-      </c>
-      <c r="CM24" s="0" t="s">
-        <v>1507</v>
-      </c>
-      <c r="CN24" s="0" t="s">
-        <v>1508</v>
       </c>
       <c r="CP24" s="0" t="s">
         <v>365</v>
@@ -13568,61 +13562,61 @@
         <v>365</v>
       </c>
       <c r="DC24" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="DD24" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="DE24" s="0" t="s">
         <v>1509</v>
       </c>
-      <c r="DD24" s="0" t="s">
+      <c r="DF24" s="0" t="s">
         <v>1510</v>
       </c>
-      <c r="DE24" s="0" t="s">
+      <c r="DG24" s="0" t="s">
         <v>1511</v>
       </c>
-      <c r="DF24" s="0" t="s">
+      <c r="DH24" s="0" t="s">
         <v>1512</v>
       </c>
-      <c r="DG24" s="0" t="s">
+      <c r="DI24" s="0" t="s">
         <v>1513</v>
       </c>
-      <c r="DH24" s="0" t="s">
+      <c r="DJ24" s="0" t="s">
         <v>1514</v>
       </c>
-      <c r="DI24" s="0" t="s">
+      <c r="DK24" s="0" t="s">
         <v>1515</v>
       </c>
-      <c r="DJ24" s="0" t="s">
+      <c r="DL24" s="0" t="s">
         <v>1516</v>
       </c>
-      <c r="DK24" s="0" t="s">
+      <c r="DM24" s="0" t="s">
         <v>1517</v>
       </c>
-      <c r="DL24" s="0" t="s">
+      <c r="DN24" s="0" t="s">
         <v>1518</v>
       </c>
-      <c r="DM24" s="0" t="s">
+      <c r="DO24" s="0" t="s">
         <v>1519</v>
       </c>
-      <c r="DN24" s="0" t="s">
+      <c r="DP24" s="0" t="s">
         <v>1520</v>
       </c>
-      <c r="DO24" s="0" t="s">
+      <c r="DQ24" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="DP24" s="0" t="s">
+      <c r="DR24" s="0" t="s">
         <v>1522</v>
       </c>
-      <c r="DQ24" s="0" t="s">
+      <c r="DU24" s="0" t="s">
         <v>1523</v>
       </c>
-      <c r="DR24" s="0" t="s">
+      <c r="DV24" s="0" t="s">
         <v>1524</v>
       </c>
-      <c r="DU24" s="0" t="s">
+      <c r="DW24" s="0" t="s">
         <v>1525</v>
-      </c>
-      <c r="DV24" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="DW24" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="DZ24" s="0" t="s">
         <v>157</v>
@@ -13778,7 +13772,7 @@
         <v>213</v>
       </c>
       <c r="HQ24" s="0" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="JG24" s="0" t="s">
         <v>253</v>
@@ -13871,34 +13865,34 @@
         <v>310</v>
       </c>
       <c r="MB24" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="MC24" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="MF24" s="0" t="s">
         <v>1529</v>
       </c>
-      <c r="MC24" s="0" t="s">
+      <c r="MG24" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="MF24" s="0" t="s">
+      <c r="MH24" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="MG24" s="0" t="s">
+      <c r="MI24" s="0" t="s">
         <v>1532</v>
       </c>
-      <c r="MH24" s="0" t="s">
+      <c r="MK24" s="0" t="s">
         <v>1533</v>
       </c>
-      <c r="MI24" s="0" t="s">
+      <c r="ML24" s="0" t="s">
         <v>1534</v>
       </c>
-      <c r="MK24" s="0" t="s">
+      <c r="MN24" s="0" t="s">
         <v>1535</v>
       </c>
-      <c r="ML24" s="0" t="s">
+      <c r="MS24" s="0" t="s">
         <v>1536</v>
-      </c>
-      <c r="MN24" s="0" t="s">
-        <v>1537</v>
-      </c>
-      <c r="MS24" s="0" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13915,43 +13909,43 @@
         <v>43628.4834606482</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>1539</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>1540</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="L25" s="0" t="s">
         <v>1541</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="M25" s="0" t="s">
         <v>1542</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="N25" s="0" t="s">
         <v>1543</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="O25" s="0" t="s">
         <v>1544</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="P25" s="0" t="s">
         <v>1545</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="Q25" s="0" t="s">
         <v>1546</v>
       </c>
-      <c r="P25" s="0" t="s">
+      <c r="R25" s="0" t="s">
         <v>1547</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="T25" s="0" t="s">
         <v>1548</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="U25" s="0" t="s">
         <v>1549</v>
-      </c>
-      <c r="T25" s="0" t="s">
-        <v>1550</v>
-      </c>
-      <c r="U25" s="0" t="s">
-        <v>1551</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>387</v>
@@ -13963,22 +13957,22 @@
         <v>6</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="AO25" s="0" t="s">
         <v>109</v>
       </c>
       <c r="BB25" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC25" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="BD25" s="0" t="s">
         <v>1552</v>
       </c>
-      <c r="BC25" s="0" t="s">
+      <c r="BE25" s="0" t="s">
         <v>1553</v>
-      </c>
-      <c r="BD25" s="0" t="s">
-        <v>1554</v>
-      </c>
-      <c r="BE25" s="0" t="s">
-        <v>1555</v>
       </c>
       <c r="BH25" s="0" t="s">
         <v>397</v>
@@ -13990,7 +13984,7 @@
         <v>350</v>
       </c>
       <c r="BK25" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL25" s="0" t="s">
         <v>365</v>
@@ -13999,13 +13993,13 @@
         <v>399</v>
       </c>
       <c r="BN25" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BO25" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="BP25" s="0" t="s">
         <v>1556</v>
-      </c>
-      <c r="BO25" s="0" t="s">
-        <v>1557</v>
-      </c>
-      <c r="BP25" s="0" t="s">
-        <v>1558</v>
       </c>
       <c r="BS25" s="0" t="n">
         <v>40</v>
@@ -14014,79 +14008,79 @@
         <v>5</v>
       </c>
       <c r="BU25" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="BX25" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BY25" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BZ25" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CC25" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="CD25" s="0" t="s">
         <v>1559</v>
       </c>
-      <c r="BX25" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BY25" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BZ25" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CC25" s="0" t="s">
+      <c r="CH25" s="0" t="s">
         <v>1560</v>
       </c>
-      <c r="CD25" s="0" t="s">
+      <c r="CI25" s="0" t="s">
         <v>1561</v>
       </c>
-      <c r="CH25" s="0" t="s">
+      <c r="CJ25" s="0" t="s">
         <v>1562</v>
       </c>
-      <c r="CI25" s="0" t="s">
+      <c r="CN25" s="0" t="s">
         <v>1563</v>
       </c>
-      <c r="CJ25" s="0" t="s">
+      <c r="CO25" s="0" t="s">
         <v>1564</v>
       </c>
-      <c r="CN25" s="0" t="s">
+      <c r="CP25" s="0" t="s">
         <v>1565</v>
-      </c>
-      <c r="CO25" s="0" t="s">
-        <v>1566</v>
-      </c>
-      <c r="CP25" s="0" t="s">
-        <v>1567</v>
       </c>
       <c r="CW25" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC25" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="DD25" s="0" t="s">
+        <v>1567</v>
+      </c>
+      <c r="DE25" s="0" t="s">
         <v>1568</v>
       </c>
-      <c r="DD25" s="0" t="s">
+      <c r="DF25" s="0" t="s">
         <v>1569</v>
       </c>
-      <c r="DE25" s="0" t="s">
+      <c r="DO25" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="DP25" s="0" t="s">
         <v>1570</v>
       </c>
-      <c r="DF25" s="0" t="s">
+      <c r="DQ25" s="0" t="s">
         <v>1571</v>
       </c>
-      <c r="DO25" s="0" t="s">
-        <v>1541</v>
-      </c>
-      <c r="DP25" s="0" t="s">
+      <c r="DR25" s="0" t="s">
         <v>1572</v>
       </c>
-      <c r="DQ25" s="0" t="s">
+      <c r="DS25" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="DT25" s="0" t="s">
         <v>1573</v>
       </c>
-      <c r="DR25" s="0" t="s">
+      <c r="DU25" s="0" t="s">
         <v>1574</v>
       </c>
-      <c r="DS25" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="DT25" s="0" t="s">
+      <c r="DV25" s="0" t="s">
         <v>1575</v>
-      </c>
-      <c r="DU25" s="0" t="s">
-        <v>1576</v>
-      </c>
-      <c r="DV25" s="0" t="s">
-        <v>1577</v>
       </c>
       <c r="DZ25" s="0" t="s">
         <v>157</v>
@@ -14122,19 +14116,19 @@
         <v>119</v>
       </c>
       <c r="HR25" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="HS25" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="HT25" s="0" t="s">
         <v>1578</v>
       </c>
-      <c r="HS25" s="0" t="s">
+      <c r="HU25" s="0" t="s">
         <v>1579</v>
       </c>
-      <c r="HT25" s="0" t="s">
+      <c r="HV25" s="0" t="s">
         <v>1580</v>
-      </c>
-      <c r="HU25" s="0" t="s">
-        <v>1581</v>
-      </c>
-      <c r="HV25" s="0" t="s">
-        <v>1582</v>
       </c>
       <c r="IE25" s="0" t="s">
         <v>227</v>
@@ -14182,25 +14176,25 @@
         <v>306</v>
       </c>
       <c r="MA25" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="MB25" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="MC25" s="0" t="s">
         <v>1583</v>
       </c>
-      <c r="MB25" s="0" t="s">
+      <c r="MK25" s="0" t="s">
         <v>1584</v>
       </c>
-      <c r="MC25" s="0" t="s">
+      <c r="ML25" s="0" t="s">
         <v>1585</v>
       </c>
-      <c r="MK25" s="0" t="s">
+      <c r="MN25" s="0" t="s">
         <v>1586</v>
       </c>
-      <c r="ML25" s="0" t="s">
+      <c r="MT25" s="0" t="s">
         <v>1587</v>
-      </c>
-      <c r="MN25" s="0" t="s">
-        <v>1588</v>
-      </c>
-      <c r="MT25" s="0" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14214,43 +14208,43 @@
         <v>43520.3909143518</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43627.6728240741</v>
+        <v>43661.9166087963</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>1590</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="L26" s="0" t="s">
         <v>1591</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="M26" s="0" t="s">
         <v>1592</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="N26" s="0" t="s">
         <v>1593</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="O26" s="0" t="s">
         <v>1594</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="P26" s="0" t="s">
         <v>1595</v>
       </c>
-      <c r="O26" s="0" t="s">
+      <c r="Q26" s="0" t="s">
         <v>1596</v>
       </c>
-      <c r="P26" s="0" t="s">
+      <c r="R26" s="0" t="s">
         <v>1597</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>1598</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>1599</v>
       </c>
       <c r="T26" s="0" t="s">
         <v>385</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="V26" s="0" t="s">
         <v>330</v>
@@ -14262,58 +14256,58 @@
         <v>388</v>
       </c>
       <c r="AA26" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AC26" s="0" t="s">
         <v>1601</v>
       </c>
-      <c r="AB26" s="0" t="s">
+      <c r="AD26" s="0" t="s">
         <v>1602</v>
       </c>
-      <c r="AC26" s="0" t="s">
+      <c r="AE26" s="0" t="s">
         <v>1603</v>
       </c>
-      <c r="AD26" s="0" t="s">
+      <c r="AF26" s="0" t="s">
         <v>1604</v>
       </c>
-      <c r="AE26" s="0" t="s">
+      <c r="AG26" s="0" t="s">
         <v>1605</v>
       </c>
-      <c r="AF26" s="0" t="s">
+      <c r="AH26" s="0" t="s">
         <v>1606</v>
       </c>
-      <c r="AG26" s="0" t="s">
+      <c r="AI26" s="0" t="s">
         <v>1607</v>
       </c>
-      <c r="AH26" s="0" t="s">
+      <c r="AJ26" s="0" t="s">
         <v>1608</v>
       </c>
-      <c r="AI26" s="0" t="s">
+      <c r="AK26" s="0" t="s">
         <v>1609</v>
       </c>
-      <c r="AJ26" s="0" t="s">
+      <c r="AL26" s="0" t="s">
         <v>1610</v>
-      </c>
-      <c r="AK26" s="0" t="s">
-        <v>1611</v>
-      </c>
-      <c r="AL26" s="0" t="s">
-        <v>1612</v>
       </c>
       <c r="AP26" s="0" t="s">
         <v>110</v>
       </c>
       <c r="BB26" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="BC26" s="0" t="s">
+        <v>1612</v>
+      </c>
+      <c r="BD26" s="0" t="s">
         <v>1613</v>
       </c>
-      <c r="BC26" s="0" t="s">
+      <c r="BE26" s="0" t="s">
         <v>1614</v>
       </c>
-      <c r="BD26" s="0" t="s">
-        <v>1615</v>
-      </c>
-      <c r="BE26" s="0" t="s">
-        <v>1616</v>
-      </c>
       <c r="BH26" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="BI26" s="0" t="s">
         <v>349</v>
@@ -14322,7 +14316,7 @@
         <v>350</v>
       </c>
       <c r="BK26" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="BL26" s="0" t="s">
         <v>365</v>
@@ -14331,7 +14325,7 @@
         <v>399</v>
       </c>
       <c r="BN26" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="BO26" s="0" t="s">
         <v>309</v>
@@ -14349,70 +14343,67 @@
         <v>52</v>
       </c>
       <c r="CC26" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="CD26" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="CH26" s="0" t="s">
         <v>1618</v>
       </c>
-      <c r="CD26" s="0" t="s">
+      <c r="CI26" s="0" t="s">
         <v>1619</v>
       </c>
-      <c r="CH26" s="0" t="s">
+      <c r="CJ26" s="0" t="s">
         <v>1620</v>
       </c>
-      <c r="CI26" s="0" t="s">
+      <c r="CN26" s="0" t="s">
         <v>1621</v>
       </c>
-      <c r="CJ26" s="0" t="s">
+      <c r="CO26" s="0" t="s">
         <v>1622</v>
       </c>
-      <c r="CN26" s="0" t="s">
+      <c r="CP26" s="0" t="s">
         <v>1623</v>
-      </c>
-      <c r="CO26" s="0" t="s">
-        <v>1624</v>
-      </c>
-      <c r="CP26" s="0" t="s">
-        <v>1625</v>
-      </c>
-      <c r="CQ26" s="0" t="s">
-        <v>663</v>
       </c>
       <c r="CW26" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC26" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="DD26" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="DE26" s="0" t="s">
         <v>1626</v>
       </c>
-      <c r="DD26" s="0" t="s">
+      <c r="DF26" s="0" t="s">
         <v>1627</v>
       </c>
-      <c r="DE26" s="0" t="s">
+      <c r="DG26" s="0" t="s">
         <v>1628</v>
       </c>
-      <c r="DF26" s="0" t="s">
+      <c r="DH26" s="0" t="s">
         <v>1629</v>
       </c>
-      <c r="DG26" s="0" t="s">
+      <c r="DO26" s="0" t="s">
         <v>1630</v>
       </c>
-      <c r="DH26" s="0" t="s">
+      <c r="DP26" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="DR26" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="DS26" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="DT26" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="DU26" s="0" t="s">
         <v>1631</v>
-      </c>
-      <c r="DO26" s="0" t="s">
-        <v>1632</v>
-      </c>
-      <c r="DP26" s="0" t="s">
-        <v>1596</v>
-      </c>
-      <c r="DR26" s="0" t="s">
-        <v>1597</v>
-      </c>
-      <c r="DS26" s="0" t="s">
-        <v>1598</v>
-      </c>
-      <c r="DT26" s="0" t="s">
-        <v>1599</v>
-      </c>
-      <c r="DU26" s="0" t="s">
-        <v>1633</v>
       </c>
       <c r="DZ26" s="0" t="s">
         <v>157</v>
@@ -14463,25 +14454,25 @@
         <v>119</v>
       </c>
       <c r="HR26" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="HS26" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="HT26" s="0" t="s">
         <v>1634</v>
       </c>
-      <c r="HS26" s="0" t="s">
+      <c r="HU26" s="0" t="s">
         <v>1635</v>
       </c>
-      <c r="HT26" s="0" t="s">
+      <c r="HV26" s="0" t="s">
         <v>1636</v>
-      </c>
-      <c r="HU26" s="0" t="s">
-        <v>1637</v>
-      </c>
-      <c r="HV26" s="0" t="s">
-        <v>1638</v>
       </c>
       <c r="JE26" s="0" t="s">
         <v>252</v>
       </c>
       <c r="JR26" s="0" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="KD26" s="0" t="s">
         <v>273</v>
@@ -14511,13 +14502,13 @@
         <v>309</v>
       </c>
       <c r="MB26" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="MJ26" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="MT26" s="0" t="s">
         <v>1640</v>
-      </c>
-      <c r="MJ26" s="0" t="s">
-        <v>1641</v>
-      </c>
-      <c r="MT26" s="0" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14531,43 +14522,43 @@
         <v>43518.4888194444</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43628.4513425926</v>
+        <v>43655.5522337963</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>1643</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="L27" s="0" t="s">
         <v>1644</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K27" s="0" t="s">
+      <c r="M27" s="0" t="s">
         <v>1645</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="N27" s="0" t="s">
         <v>1646</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="O27" s="0" t="s">
         <v>1647</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="P27" s="0" t="s">
         <v>1648</v>
       </c>
-      <c r="O27" s="0" t="s">
+      <c r="Q27" s="0" t="s">
         <v>1649</v>
       </c>
-      <c r="P27" s="0" t="s">
+      <c r="T27" s="0" t="s">
         <v>1650</v>
       </c>
-      <c r="Q27" s="0" t="s">
-        <v>1651</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>1652</v>
-      </c>
       <c r="U27" s="0" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>387</v>
@@ -14582,46 +14573,46 @@
         <v>388</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="AB27" s="0" t="s">
         <v>333</v>
       </c>
       <c r="AC27" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AE27" s="0" t="s">
         <v>1654</v>
       </c>
-      <c r="AD27" s="0" t="s">
+      <c r="AF27" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG27" s="0" t="s">
         <v>1655</v>
       </c>
-      <c r="AE27" s="0" t="s">
+      <c r="AH27" s="0" t="s">
         <v>1656</v>
-      </c>
-      <c r="AF27" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG27" s="0" t="s">
-        <v>1657</v>
-      </c>
-      <c r="AH27" s="0" t="s">
-        <v>1658</v>
       </c>
       <c r="AP27" s="0" t="s">
         <v>110</v>
       </c>
       <c r="BA27" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BB27" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="BC27" s="0" t="s">
         <v>1659</v>
-      </c>
-      <c r="BB27" s="0" t="s">
-        <v>1660</v>
-      </c>
-      <c r="BC27" s="0" t="s">
-        <v>1661</v>
       </c>
       <c r="BH27" s="0" t="s">
         <v>348</v>
       </c>
       <c r="BI27" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BJ27" s="0" t="s">
         <v>349</v>
@@ -14636,139 +14627,139 @@
         <v>399</v>
       </c>
       <c r="BN27" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="BO27" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="BP27" s="0" t="s">
         <v>1662</v>
       </c>
-      <c r="BO27" s="0" t="s">
+      <c r="BQ27" s="0" t="s">
         <v>1663</v>
       </c>
-      <c r="BP27" s="0" t="s">
+      <c r="BR27" s="0" t="s">
         <v>1664</v>
       </c>
-      <c r="BQ27" s="0" t="s">
+      <c r="BS27" s="0" t="s">
         <v>1665</v>
       </c>
-      <c r="BR27" s="0" t="s">
+      <c r="BT27" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="BU27" s="0" t="s">
         <v>1666</v>
       </c>
-      <c r="BS27" s="0" t="s">
+      <c r="BV27" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="BW27" s="0" t="s">
         <v>1667</v>
       </c>
-      <c r="BT27" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="BU27" s="0" t="s">
+      <c r="BX27" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BY27" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BZ27" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CA27" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="CB27" s="0" t="s">
         <v>1668</v>
       </c>
-      <c r="BV27" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="BW27" s="0" t="s">
+      <c r="CC27" s="0" t="s">
         <v>1669</v>
       </c>
-      <c r="BX27" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BY27" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="BZ27" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CA27" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="CB27" s="0" t="s">
+      <c r="CD27" s="0" t="s">
         <v>1670</v>
       </c>
-      <c r="CC27" s="0" t="s">
+      <c r="CH27" s="0" t="s">
         <v>1671</v>
       </c>
-      <c r="CD27" s="0" t="s">
+      <c r="CI27" s="0" t="s">
         <v>1672</v>
       </c>
-      <c r="CH27" s="0" t="s">
+      <c r="CJ27" s="0" t="s">
         <v>1673</v>
       </c>
-      <c r="CI27" s="0" t="s">
+      <c r="CK27" s="0" t="s">
         <v>1674</v>
       </c>
-      <c r="CJ27" s="0" t="s">
+      <c r="CL27" s="0" t="s">
         <v>1675</v>
       </c>
-      <c r="CK27" s="0" t="s">
+      <c r="CN27" s="0" t="s">
         <v>1676</v>
       </c>
-      <c r="CL27" s="0" t="s">
+      <c r="CO27" s="0" t="s">
         <v>1677</v>
       </c>
-      <c r="CN27" s="0" t="s">
+      <c r="CP27" s="0" t="s">
         <v>1678</v>
       </c>
-      <c r="CO27" s="0" t="s">
+      <c r="CQ27" s="0" t="s">
         <v>1679</v>
       </c>
-      <c r="CP27" s="0" t="s">
+      <c r="CR27" s="0" t="s">
         <v>1680</v>
-      </c>
-      <c r="CQ27" s="0" t="s">
-        <v>1681</v>
-      </c>
-      <c r="CR27" s="0" t="s">
-        <v>1682</v>
       </c>
       <c r="CW27" s="0" t="s">
         <v>365</v>
       </c>
       <c r="DC27" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="DD27" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="DE27" s="0" t="s">
         <v>1683</v>
       </c>
-      <c r="DD27" s="0" t="s">
+      <c r="DF27" s="0" t="s">
         <v>1684</v>
       </c>
-      <c r="DE27" s="0" t="s">
+      <c r="DG27" s="0" t="s">
         <v>1685</v>
       </c>
-      <c r="DF27" s="0" t="s">
+      <c r="DH27" s="0" t="s">
         <v>1686</v>
       </c>
-      <c r="DG27" s="0" t="s">
+      <c r="DI27" s="0" t="s">
         <v>1687</v>
       </c>
-      <c r="DH27" s="0" t="s">
+      <c r="DL27" s="0" t="s">
         <v>1688</v>
       </c>
-      <c r="DI27" s="0" t="s">
+      <c r="DO27" s="0" t="s">
         <v>1689</v>
       </c>
-      <c r="DL27" s="0" t="s">
+      <c r="DP27" s="0" t="s">
         <v>1690</v>
       </c>
-      <c r="DO27" s="0" t="s">
+      <c r="DQ27" s="0" t="s">
         <v>1691</v>
       </c>
-      <c r="DP27" s="0" t="s">
+      <c r="DR27" s="0" t="s">
         <v>1692</v>
       </c>
-      <c r="DQ27" s="0" t="s">
+      <c r="DS27" s="0" t="s">
         <v>1693</v>
       </c>
-      <c r="DR27" s="0" t="s">
+      <c r="DU27" s="0" t="s">
         <v>1694</v>
       </c>
-      <c r="DS27" s="0" t="s">
+      <c r="DV27" s="0" t="s">
         <v>1695</v>
       </c>
-      <c r="DU27" s="0" t="s">
+      <c r="DW27" s="0" t="s">
         <v>1696</v>
       </c>
-      <c r="DV27" s="0" t="s">
+      <c r="DX27" s="0" t="s">
         <v>1697</v>
-      </c>
-      <c r="DW27" s="0" t="s">
-        <v>1698</v>
-      </c>
-      <c r="DX27" s="0" t="s">
-        <v>1699</v>
       </c>
       <c r="DZ27" s="0" t="s">
         <v>157</v>
@@ -14798,16 +14789,16 @@
         <v>119</v>
       </c>
       <c r="HR27" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="HS27" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="HT27" s="0" t="s">
         <v>1700</v>
       </c>
-      <c r="HS27" s="0" t="s">
+      <c r="HU27" s="0" t="s">
         <v>1701</v>
-      </c>
-      <c r="HT27" s="0" t="s">
-        <v>1702</v>
-      </c>
-      <c r="HU27" s="0" t="s">
-        <v>1703</v>
       </c>
       <c r="JF27" s="0" t="s">
         <v>119</v>
@@ -14831,37 +14822,37 @@
         <v>304</v>
       </c>
       <c r="MA27" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="MB27" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="MC27" s="0" t="s">
         <v>1704</v>
       </c>
-      <c r="MB27" s="0" t="s">
+      <c r="MD27" s="0" t="s">
         <v>1705</v>
       </c>
-      <c r="MC27" s="0" t="s">
+      <c r="ME27" s="0" t="s">
         <v>1706</v>
       </c>
-      <c r="MD27" s="0" t="s">
+      <c r="MF27" s="0" t="s">
         <v>1707</v>
       </c>
-      <c r="ME27" s="0" t="s">
+      <c r="MI27" s="0" t="s">
         <v>1708</v>
       </c>
-      <c r="MF27" s="0" t="s">
+      <c r="MJ27" s="0" t="s">
         <v>1709</v>
       </c>
-      <c r="MI27" s="0" t="s">
+      <c r="MK27" s="0" t="s">
         <v>1710</v>
       </c>
-      <c r="MJ27" s="0" t="s">
+      <c r="MS27" s="0" t="s">
         <v>1711</v>
       </c>
-      <c r="MK27" s="0" t="s">
+      <c r="MT27" s="0" t="s">
         <v>1712</v>
-      </c>
-      <c r="MS27" s="0" t="s">
-        <v>1713</v>
-      </c>
-      <c r="MT27" s="0" t="s">
-        <v>1714</v>
       </c>
     </row>
   </sheetData>

--- a/lib/assets/Diffusion_Marketplace.xlsx
+++ b/lib/assets/Diffusion_Marketplace.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1713">
   <si>
     <t xml:space="preserve">Respondent ID</t>
   </si>
@@ -1884,7 +1884,7 @@
     <t xml:space="preserve">Kristina.Cordasco@va.gov</t>
   </si>
   <si>
-    <t xml:space="preserve">kristina.cordasco@va.gov</t>
+    <t xml:space="preserve">VHAWLAEDPACT@va.gov</t>
   </si>
   <si>
     <t xml:space="preserve">The ED-PACT Tool</t>
@@ -2007,19 +2007,19 @@
     <t xml:space="preserve">permanent</t>
   </si>
   <si>
+    <t xml:space="preserve">Clinical Champion; Administrative Assistant/Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description of ED-PACT Tool and discussion of 5 cases, review of RN Care Manager guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical Champion; Administrative Assistant/Project Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description of ED-PACT Tool and discussion of 5 cases, review of RN Care Manager guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">ED Director Permission</t>
@@ -5358,7 +5358,7 @@
   <dimension ref="A1:MT27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8618,7 +8618,7 @@
         <v>43603.4922106482</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43622.6010648148</v>
+        <v>43668.3460416667</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>618</v>
@@ -8797,26 +8797,23 @@
       <c r="CB9" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="CC9" s="0" t="s">
+      <c r="CH9" s="0" t="s">
         <v>661</v>
-      </c>
-      <c r="CH9" s="0" t="s">
-        <v>662</v>
       </c>
       <c r="CI9" s="0" t="s">
         <v>653</v>
       </c>
       <c r="CN9" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="CO9" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="CO9" s="0" t="s">
+      <c r="CP9" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="CP9" s="0" t="s">
+      <c r="CQ9" s="0" t="s">
         <v>665</v>
-      </c>
-      <c r="CQ9" s="0" t="s">
-        <v>661</v>
       </c>
       <c r="CW9" s="0" t="s">
         <v>365</v>
@@ -11241,7 +11238,7 @@
         <v>1088</v>
       </c>
       <c r="CP17" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CQ17" s="0" t="s">
         <v>1083</v>
@@ -11881,7 +11878,7 @@
         <v>1207</v>
       </c>
       <c r="CP19" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CW19" s="0" t="s">
         <v>365</v>
@@ -12243,7 +12240,7 @@
         <v>1279</v>
       </c>
       <c r="CN20" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="CO20" s="0" t="s">
         <v>1280</v>
@@ -13317,7 +13314,7 @@
         <v>1466</v>
       </c>
       <c r="CP23" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CQ23" s="0" t="s">
         <v>1467</v>

--- a/lib/assets/Diffusion_Marketplace.xlsx
+++ b/lib/assets/Diffusion_Marketplace.xlsx
@@ -7921,7 +7921,7 @@
         <v>43734.60157407408</v>
       </c>
       <c r="D15" s="1">
-        <v>43753.32494212963</v>
+        <v>43754.683333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -8382,6 +8382,11 @@
           <t>17-minute video developed by VA Employee Education System (EES). VA subject matter experts for tinnitus worked with EES staff to create and produce this video. It is intended as a general information video for Veterans to ensure them that good help is available for tinnitus using the VA-endorsed method of Progressive Tinnitus Management (PTM). The first approximately 12 minutes show an entertaining and informative skit of a younger and older Veteran addressing the younger Veteran’s tinnitus. The remaining 5 minutes are an explanation of tinnitus by a VA audiologist as well as a description of PTM. </t>
         </is>
       </c>
+      <c r="MG15" t="inlineStr">
+        <is>
+          <t>Item 67 combined docs.pdf</t>
+        </is>
+      </c>
       <c r="MH15" t="inlineStr">
         <is>
           <t>Item 68 Links to PTM resources.pdf</t>
@@ -8389,7 +8394,7 @@
       </c>
       <c r="MM15" t="inlineStr">
         <is>
-          <t>Item 73 Peer reviewed article 2.pdf</t>
+          <t>Item 73 combined docs.pdf</t>
         </is>
       </c>
       <c r="MN15" t="inlineStr">
@@ -10404,7 +10409,7 @@
         <v>43713.234456018516</v>
       </c>
       <c r="D20" s="1">
-        <v>43739.343125</v>
+        <v>43755.35863425926</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -10438,7 +10443,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>With our teleRehabilitation wheeled mobility clinic, we partnered with our contract nursing home facilities to complete complex wheelchair seating assessments and deliver equipment to our Veterans without the need for travel to a VA facility. Using telehealth technology, rehab clinicians work together with the community therapists to evaluate, measure, fit, train and deliver a specialized wheelchair over the course of multiple visits. Vendors are used to assist with delivery of the equipment and provide hands on assist with set up of the wheelchair. Using telerehabilitation has enabled Veterans to get the care they need, eliminating hardships with travel to the VA. </t>
+          <t>With our TeleRehabilitation wheeled mobility clinic, we partnered with our contract nursing home facilities to complete complex wheelchair seating assessments and deliver equipment to our Veterans without the need for travel to a VA facility. Using telehealth technology, rehab clinicians work together with the community therapists to evaluate, measure, fit, train and deliver a specialized wheelchair over the course of multiple visits. Vendors are used to assist with delivery of the equipment and provide hands on assist with set up of the wheelchair. Using telerehabilitation has enabled Veterans to get the care they need, eliminating hardships with travel to the VA. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -10468,7 +10473,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>VHA_618</t>
+          <t>vha_618</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -10489,7 +10494,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Identify your team: PT/OT/CNH Coordinator</t>
+          <t>Identify your team: PT/OT/CNH (Community Nursing Home) Coordinator</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -10509,7 +10514,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Complete telehealth training/requirements (VA Staff, CNH, vendors)</t>
+          <t>Complete telehealth training/requirements (VA Staff, Community Nursing Home, vendors)</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -10559,12 +10564,37 @@
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>dddgadgdg</t>
+          <t>CNH (Community Nursing Home) liaison </t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>Identify alternative coodinator role</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>Clinicians lack specialized training to initiate </t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>Identify other clinicians available via telehealth, or provide funds for training</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>CNH willingness to participate</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>Education, marketing, training, benefits</t>
         </is>
       </c>
       <c r="BI20" t="inlineStr">
         <is>
-          <t>2. $10,000 - $50,000</t>
+          <t>3. $50,000 - $250,000</t>
         </is>
       </c>
       <c r="BJ20" t="inlineStr">
@@ -10584,22 +10614,142 @@
       </c>
       <c r="BM20" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>New Clinical Approach or New Process</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>Coordinator</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>Physical Therapist</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>Occupational Therapist</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>MSA ( Medical Support Assistant) </t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>1 hr</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>4 hrs</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>4 hrs</t>
+        </is>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>&gt;1 hr</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>I Pad, or TeleHealth Computer </t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>Space for Telehealth computer and meeting</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>TeleRehab Program Manager/CNH Coordinator</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>Coordinator/Staff</t>
+        </is>
+      </c>
+      <c r="CK20" t="inlineStr">
+        <is>
+          <t>Physical Therapist</t>
+        </is>
+      </c>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>Occupational Therapist</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>Occupational Therapist</t>
+        </is>
+      </c>
+      <c r="CN20" t="inlineStr">
+        <is>
+          <t>MD assigned to CNH</t>
+        </is>
+      </c>
+      <c r="CO20" t="inlineStr">
+        <is>
+          <t>60 min</t>
+        </is>
+      </c>
+      <c r="CP20" t="inlineStr">
+        <is>
+          <t>SOP and Telehealth Training TMS</t>
+        </is>
+      </c>
+      <c r="CQ20" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BN20" t="inlineStr">
-        <is>
-          <t>Modification of an established process</t>
-        </is>
-      </c>
-      <c r="CD20" t="inlineStr">
-        <is>
-          <t>I Pad , or Tele Health Computer </t>
-        </is>
-      </c>
-      <c r="CE20" t="inlineStr">
-        <is>
-          <t>Space for telehealth computer and meeting</t>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>Prosthetic funding to pay vendor</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>CNH program pays community therapists' time</t>
         </is>
       </c>
       <c r="CX20" t="inlineStr">
@@ -10607,6 +10757,76 @@
           <t>No</t>
         </is>
       </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>CNH contract</t>
+        </is>
+      </c>
+      <c r="DD20" t="inlineStr">
+        <is>
+          <t>Grace Wilske150x150.jpg</t>
+        </is>
+      </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>TeleRehab tasked to create Wheeled Mobility clinic</t>
+        </is>
+      </c>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>In 2017, the Office of Rural Health funded the TeleRehabilitation Enterprise Wide Initiative. Many telehealth protocols were created, and our teams were tasked to innovate a practice to provide wheeled mobility services to Veterans via telehealth. Many ideas were generated to build a successful clinic, but there were difficulties and barriers along the way as we needed support where the Veteran was located. Once we met with our CNH director, we knew we had found a collaborative approach to connect our Veterans in the CNH to our specialized services. This has been the bridge for a successful partnership!</t>
+        </is>
+      </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>Impact1CNH696x392.jpg</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>Wheelchair Telerehab to the Community Nursing Home</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>Through telerehab visits, our VA Occupational Therapist guides the community therapist with adjustments or modifications. We provide education to the functionality of the power wheelchair issued to the Veteran. The community therapist helps facilitate through their eyes, hands, and skills. </t>
+        </is>
+      </c>
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>Impact2VAOTvideoclinic696x392.jpg</t>
+        </is>
+      </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>VA Therapist conducts WC evaluation</t>
+        </is>
+      </c>
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>Through telerehab visits, our VA therapist instructs the community therapist in measuring for a custom fit. The Veteran may trial different wheelchairs in their home environment for optimal use. </t>
+        </is>
+      </c>
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>Impact3CoordinatorTestCall 696x392.jpg</t>
+        </is>
+      </c>
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>Coordinator completing test call with CNH</t>
+        </is>
+      </c>
+      <c r="DO20" t="inlineStr">
+        <is>
+          <t>Our CNH coordinator completes a test call with the therapist at the CNH, to ensure good technology connection during the visit. Details about the visit are provided and a welcome letter is sent with instructions. </t>
+        </is>
+      </c>
+      <c r="DP20" t="inlineStr">
+        <is>
+          <t>VHAMINTREWIWC@va.gov</t>
+        </is>
+      </c>
       <c r="DQ20" t="inlineStr">
         <is>
           <t>Grace Wilske\TeleRehab Program Manager, Occupational Therapist </t>
@@ -10627,6 +10847,36 @@
           <t> Benjamin Barrett\Occupational Therapist </t>
         </is>
       </c>
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>Dr. Larisa Kusar\MD,Dr. Mary Matsumoto\MD,Taylor Nelson, Lead MSA,Tad Nielsen, OTR/L, ATP</t>
+        </is>
+      </c>
+      <c r="DV20" t="inlineStr">
+        <is>
+          <t>Grace Wilske65x65(1).jpg</t>
+        </is>
+      </c>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>Jessica Hollie65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DX20" t="inlineStr">
+        <is>
+          <t>Kristin Hanowski65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DY20" t="inlineStr">
+        <is>
+          <t>Benjamin Barrett65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DZ20" t="inlineStr">
+        <is>
+          <t>Teamsupport65x65.jpg</t>
+        </is>
+      </c>
       <c r="EA20" t="inlineStr">
         <is>
           <t>Veteran - Enables an improvement in satisfaction or customer experience for Veterans</t>
@@ -10677,9 +10927,29 @@
           <t>All primary care specialties equally - not a search differentiator</t>
         </is>
       </c>
-      <c r="GT20" t="inlineStr">
-        <is>
-          <t>All medical sub-specialties equally - not a search differentiator</t>
+      <c r="GN20" t="inlineStr">
+        <is>
+          <t>Rehab Medicine</t>
+        </is>
+      </c>
+      <c r="GQ20" t="inlineStr">
+        <is>
+          <t>Specialty Care (outside of VA)</t>
+        </is>
+      </c>
+      <c r="HB20" t="inlineStr">
+        <is>
+          <t>Orthopedic Surgery</t>
+        </is>
+      </c>
+      <c r="HD20" t="inlineStr">
+        <is>
+          <t>Specialty Care (outside of VA)</t>
+        </is>
+      </c>
+      <c r="HF20" t="inlineStr">
+        <is>
+          <t>Trauma Surgery</t>
         </is>
       </c>
       <c r="HI20" t="inlineStr">
@@ -10692,9 +10962,99 @@
           <t>Complementary Therapies</t>
         </is>
       </c>
-      <c r="JF20" t="inlineStr">
-        <is>
-          <t>All clinical conditions equally - not a search differentiator</t>
+      <c r="HS20" t="inlineStr">
+        <is>
+          <t>Parkinson's disease</t>
+        </is>
+      </c>
+      <c r="HT20" t="inlineStr">
+        <is>
+          <t>Wheelchair dependent</t>
+        </is>
+      </c>
+      <c r="HU20" t="inlineStr">
+        <is>
+          <t>SCI (Spinal Cord Injury)</t>
+        </is>
+      </c>
+      <c r="HV20" t="inlineStr">
+        <is>
+          <t>Amputation</t>
+        </is>
+      </c>
+      <c r="HW20" t="inlineStr">
+        <is>
+          <t>Failure to thrive</t>
+        </is>
+      </c>
+      <c r="HX20" t="inlineStr">
+        <is>
+          <t>Neurology</t>
+        </is>
+      </c>
+      <c r="HZ20" t="inlineStr">
+        <is>
+          <t>Stroke</t>
+        </is>
+      </c>
+      <c r="IB20" t="inlineStr">
+        <is>
+          <t>Trauma</t>
+        </is>
+      </c>
+      <c r="IE20" t="inlineStr">
+        <is>
+          <t>Infection</t>
+        </is>
+      </c>
+      <c r="IF20" t="inlineStr">
+        <is>
+          <t>Cardiovascular</t>
+        </is>
+      </c>
+      <c r="IG20" t="inlineStr">
+        <is>
+          <t>Congestive heart failure (CHF)</t>
+        </is>
+      </c>
+      <c r="IJ20" t="inlineStr">
+        <is>
+          <t>Pulmonary</t>
+        </is>
+      </c>
+      <c r="IK20" t="inlineStr">
+        <is>
+          <t>Chronic Obstructive Pulmonary Disease (COPD)</t>
+        </is>
+      </c>
+      <c r="IQ20" t="inlineStr">
+        <is>
+          <t>Obesity</t>
+        </is>
+      </c>
+      <c r="IT20" t="inlineStr">
+        <is>
+          <t>Pelvis</t>
+        </is>
+      </c>
+      <c r="IU20" t="inlineStr">
+        <is>
+          <t>Extremities</t>
+        </is>
+      </c>
+      <c r="IV20" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="IW20" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="IZ20" t="inlineStr">
+        <is>
+          <t>Trauma</t>
         </is>
       </c>
       <c r="JJ20" t="inlineStr">
@@ -10717,6 +11077,16 @@
           <t>Social Work</t>
         </is>
       </c>
+      <c r="KD20" t="inlineStr">
+        <is>
+          <t>Discharge Planning</t>
+        </is>
+      </c>
+      <c r="KE20" t="inlineStr">
+        <is>
+          <t>Education and Training</t>
+        </is>
+      </c>
       <c r="KF20" t="inlineStr">
         <is>
           <t>Elderly Services</t>
@@ -10737,9 +11107,39 @@
           <t>Occupational Health and Safety</t>
         </is>
       </c>
-      <c r="MA20" t="inlineStr">
-        <is>
-          <t>All job titles equally - not a search differentiator</t>
+      <c r="LS20" t="inlineStr">
+        <is>
+          <t>Clinic based physician</t>
+        </is>
+      </c>
+      <c r="MB20" t="inlineStr">
+        <is>
+          <t>Community based therapy</t>
+        </is>
+      </c>
+      <c r="MC20" t="inlineStr">
+        <is>
+          <t>Tele rehab 384x216.jpg</t>
+        </is>
+      </c>
+      <c r="ME20" t="inlineStr">
+        <is>
+          <t>Telerehab makes Veterans lives easier</t>
+        </is>
+      </c>
+      <c r="MF20" t="inlineStr">
+        <is>
+          <t>Using Telerehab wheeled mobility clinics. Veterans receive care by bridging the gap for rural access to rehabilitation services. </t>
+        </is>
+      </c>
+      <c r="ML20" t="inlineStr">
+        <is>
+          <t>https://www.vapulse.net/groups/trewi-telerehabilitation-enterprise-wide-initiative</t>
+        </is>
+      </c>
+      <c r="MU20" t="inlineStr">
+        <is>
+          <t>Clarifying implementation of new practice vs new practice in motion</t>
         </is>
       </c>
     </row>
@@ -12233,7 +12633,7 @@
         <v>43705.50811342592</v>
       </c>
       <c r="D24" s="1">
-        <v>43746.34297453704</v>
+        <v>43754.741944444446</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -12257,12 +12657,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>On demand tele-geropsychiatry consultation through tele-health. </t>
+          <t>On demand tele-geropsychiatry consultation through telehealth. </t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Provide rapid consultation on geropsychiatry issues to Veterans across VISN 23. Platforms include tele-health (VA video connect to home, clinical video telehealth) e-consultation and team meetings as requested. </t>
+          <t>Provide rapid consultation on geropsychiatry issues to Veterans across VISN 23. Platforms include telehealth (VA video connect to home, clinical video telehealth) e-consultation and team meetings as requested. </t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -12297,7 +12697,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>VISN23</t>
+          <t>vha_VISN23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -12446,51 +12846,43 @@
           <t>Assoc. Director of tele-mental health </t>
         </is>
       </c>
-      <c r="BT24" t="inlineStr">
+      <c r="BT24">
+        <v>40</v>
+      </c>
+      <c r="BU24">
+        <v>20</v>
+      </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t>5 to 7</t>
+        </is>
+      </c>
+      <c r="BW24">
+        <v>2</v>
+      </c>
+      <c r="BX24">
+        <v>1</v>
+      </c>
+      <c r="BY24" t="inlineStr">
         <is>
           <t>Permanent</t>
         </is>
       </c>
-      <c r="BU24" t="inlineStr">
+      <c r="BZ24" t="inlineStr">
         <is>
           <t>Permanent</t>
         </is>
       </c>
-      <c r="BV24" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="BW24" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="BX24" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="BY24" t="inlineStr">
-        <is>
-          <t>Tele-health equipment. (All tele-health staff on Hub side and pt side).</t>
-        </is>
-      </c>
-      <c r="BZ24" t="inlineStr">
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>Telehealth equipment. (All tele-health staff on Hub side and pt side).</t>
+        </is>
+      </c>
+      <c r="CE24" t="inlineStr">
         <is>
           <t>Dx, ipads, computers, phone, etc. </t>
         </is>
       </c>
-      <c r="CD24" t="inlineStr">
-        <is>
-          <t>Tele-health equipment. (All tele-health staff on Hub side and pt side).</t>
-        </is>
-      </c>
-      <c r="CE24" t="inlineStr">
-        <is>
-          <t>Dx, ipads, computers, phone, etc. </t>
-        </is>
-      </c>
       <c r="CI24" t="inlineStr">
         <is>
           <t>For Hub employees are trained by Hub. Spoke sites are trained by Spoke FTC</t>
@@ -12528,12 +12920,12 @@
       </c>
       <c r="CY24" t="inlineStr">
         <is>
-          <t>MOU</t>
+          <t>MOU  (Memorandum of Understanding)</t>
         </is>
       </c>
       <c r="CZ24" t="inlineStr">
         <is>
-          <t>TSA</t>
+          <t>TSA  (Telehealth service agreement)</t>
         </is>
       </c>
       <c r="DD24" t="inlineStr">
@@ -12553,12 +12945,22 @@
       </c>
       <c r="DG24" t="inlineStr">
         <is>
-          <t>696x392 placeholder(1).jpg</t>
+          <t>impactHoldrege_696x392.jpg</t>
         </is>
       </c>
       <c r="DH24" t="inlineStr">
         <is>
-          <t>Innovation in Action</t>
+          <t>Innovative Specialty Care in Action-Reaching Veterans in Rural Clinics or in Their Own Homes</t>
+        </is>
+      </c>
+      <c r="DI24" t="inlineStr">
+        <is>
+          <t>Veterans in the rural Heartland are typically several miles from the nearest medical center, be it private or VA. Travel for the older veteran is also complicated by the his/her own physical limitations including inability to drive. By providing geriatric specialty care via telehealth this vulnerable population has timely access to specialty medicine when the need is recognized.</t>
+        </is>
+      </c>
+      <c r="DJ24" t="inlineStr">
+        <is>
+          <t>house696x392.jpg</t>
         </is>
       </c>
       <c r="DP24" t="inlineStr">

--- a/lib/assets/Diffusion_Marketplace.xlsx
+++ b/lib/assets/Diffusion_Marketplace.xlsx
@@ -2302,10 +2302,10 @@
         <v>226101601</v>
       </c>
       <c r="C3" s="1">
-        <v>43752.27253472222</v>
+        <v>43752.39753472222</v>
       </c>
       <c r="D3" s="1">
-        <v>43752.29478009259</v>
+        <v>43758.80604166666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2551,6 +2551,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>Katie150x150.jpg</t>
+        </is>
+      </c>
       <c r="DE3" t="inlineStr">
         <is>
           <t>How do we put critical resources and coping skills into the hands of those in need?</t>
@@ -2561,6 +2566,11 @@
           <t>Katie Juhasz routinely attended community events to share PTSD resources. Increasingly, people asked for resources for homeless Veterans. Paper handouts weren't particularly durable, and many homeless Veterans do not have reliable access to the internet. Katie wanted something easily accessible and discreet, that would provide useful information in a durable format. The Veterans Crisis Line had plastic-coated wallet cards that people liked; if one card was good, 52 should be great! We created Cards for Connection with the support of an iNet Spark award, and we’re expanding its reach with a Seed award.</t>
         </is>
       </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>2017 0913 HCD 696x392Workshop.jpg</t>
+        </is>
+      </c>
       <c r="DH3" t="inlineStr">
         <is>
           <t>Our first Human-Centered Design Workshop to flesh out the idea</t>
@@ -2571,6 +2581,11 @@
           <t>During a Human-Centered Design workshop hosted by Drs. Kayt Havens and Shannon McCaslin, we fleshed out the idea for Cards for Connection using content from discovery interviews with two Veterans who work with homeless Veterans, one of whom had previously experienced homelessness. By the end of the workshop we had our first prototype and enough of an idea to start interviews with key stakeholders, to assess acceptability and feasibility for the idea.</t>
         </is>
       </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>Cards 696x392.jpg</t>
+        </is>
+      </c>
       <c r="DK3" t="inlineStr">
         <is>
           <t>A Veteran's favorite cards</t>
@@ -2581,6 +2596,11 @@
           <t>We received our first real decks in August 2018. That fall, we conducted focus groups with homeless Veterans living in residential programs to see how they used the cards, and several spontaneously sorted them to identify their favorites. These are the cards selected by one Veteran.</t>
         </is>
       </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>Thinkofsomething 696x392....jpg</t>
+        </is>
+      </c>
       <c r="DN3" t="inlineStr">
         <is>
           <t>Think of something you're proud of.</t>
@@ -2621,6 +2641,31 @@
           <t>Nicole Muller\Social Worker</t>
         </is>
       </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>Katie65x65JPG.jpg</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>Jeremy_65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>ElizabethWilliams65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>Shannon_65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>Nicole_65x65.jpg</t>
+        </is>
+      </c>
       <c r="EA3" t="inlineStr">
         <is>
           <t>Veteran - Enables an improvement in satisfaction or customer experience for Veterans</t>
@@ -2764,6 +2809,11 @@
       <c r="LV3" t="inlineStr">
         <is>
           <t>Nursing Assistant</t>
+        </is>
+      </c>
+      <c r="MC3" t="inlineStr">
+        <is>
+          <t>384x216AllCards.jpg</t>
         </is>
       </c>
       <c r="MD3" t="inlineStr">
@@ -2795,10 +2845,10 @@
         <v>226101601</v>
       </c>
       <c r="C4" s="1">
-        <v>43749.3374537037</v>
+        <v>43749.4624537037</v>
       </c>
       <c r="D4" s="1">
-        <v>43752.310277777775</v>
+        <v>43758.95018518518</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +2872,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Informing Veterans that they have CKD and how to slow progression through lifestyle change. Veterans enjoy a cooking demonstration, pedometer and resistance band use, along with Medical Nutrition Therapy from a Registered Dietitian. </t>
+          <t>Informing Veterans that they have CKD (Chronic Kideny Disease) and how to slow progression through lifestyle change. Veterans enjoy a cooking demonstration, pedometer and resistance band use, along with Medical Nutrition Therapy from a Registered Dietitian. </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3086,6 +3136,11 @@
           <t>New spread sites receiving funding from iNET will be expected to sign a MOU</t>
         </is>
       </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>150x150 placeholder copy.jpg</t>
+        </is>
+      </c>
       <c r="DE4" t="inlineStr">
         <is>
           <t>Many who have Chronic Kidney Disease are unaware they have it.</t>
@@ -3354,6 +3409,11 @@
       <c r="LY4" t="inlineStr">
         <is>
           <t>Researcher</t>
+        </is>
+      </c>
+      <c r="MC4" t="inlineStr">
+        <is>
+          <t>384x216 placeholder.jpg</t>
         </is>
       </c>
       <c r="ME4" t="inlineStr">
@@ -3385,10 +3445,10 @@
         <v>241758028</v>
       </c>
       <c r="C5" s="1">
-        <v>43749.31</v>
+        <v>43749.435</v>
       </c>
       <c r="D5" s="1">
-        <v>43749.328206018516</v>
+        <v>43759.023125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3427,12 +3487,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Mike Moates</t>
+          <t>Dr. Joseph Moates\Provider \Director</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sherry Cox</t>
+          <t>Sherry Cox\Rn Facilitator Coach</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -3442,7 +3502,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Birmingham VA Medical Center</t>
+          <t>vha_521gj</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -3726,6 +3786,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>150x150 placeholder copy.jpg</t>
+        </is>
+      </c>
       <c r="DE5" t="inlineStr">
         <is>
           <t>Whole Health Opioid Safety Shared Medical Appt.</t>
@@ -3869,6 +3934,11 @@
       <c r="LW5" t="inlineStr">
         <is>
           <t>Pharmacist</t>
+        </is>
+      </c>
+      <c r="MC5" t="inlineStr">
+        <is>
+          <t>384x216 placeholder.jpg</t>
         </is>
       </c>
       <c r="ML5" t="inlineStr">
@@ -3885,10 +3955,10 @@
         <v>241758028</v>
       </c>
       <c r="C6" s="1">
-        <v>43749.26231481481</v>
+        <v>43749.38731481481</v>
       </c>
       <c r="D6" s="1">
-        <v>43749.28013888889</v>
+        <v>43756.05474537037</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -4136,6 +4206,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>150x150 placeholder copy.jpg</t>
+        </is>
+      </c>
       <c r="DE6" t="inlineStr">
         <is>
           <t>Developed by the Robley Rex VA Medical Center for the improvement of the cleanliness and safety of the facility.</t>
@@ -4201,6 +4276,11 @@
           <t>None</t>
         </is>
       </c>
+      <c r="MC6" t="inlineStr">
+        <is>
+          <t>Green Gloves.jpg</t>
+        </is>
+      </c>
       <c r="MD6" t="inlineStr">
         <is>
           <t>https://www.vapulse.va.gov/videos/31083</t>
@@ -4217,6 +4297,11 @@
         </is>
       </c>
       <c r="ML6" t="inlineStr">
+        <is>
+          <t>https://www.vapulse.va.gov/groups/vha-patient-experience/projects/toolkit-green-gloves</t>
+        </is>
+      </c>
+      <c r="MO6" t="inlineStr">
         <is>
           <t>https://www.vapulse.va.gov/groups/vha-patient-experience/projects/toolkit-green-gloves</t>
         </is>
@@ -4230,10 +4315,10 @@
         <v>241758028</v>
       </c>
       <c r="C7" s="1">
-        <v>43747.48888888889</v>
+        <v>43747.61388888889</v>
       </c>
       <c r="D7" s="1">
-        <v>43747.514918981484</v>
+        <v>43758.62125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4267,7 +4352,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>:  Geriatric Emergency Room Interventions for Veterans (GERI-VET), an evidence-based multidisciplinary program performing geriatric screens and care coordination for at-risk older Veterans treated in the ED, was implemented based on established best practices for Geriatric ED care.  ED staff receive multimodal geriatric emergency medicine training and champion the care of the most frail, older Veterans during their ED visit.  GERI-VET serves as a platform for Geriatric ED Accreditation through the American College of Emergency Physicians.</t>
+          <t>Geriatric Emergency Room Interventions for Veterans (GERI-VET), an evidence-based multidisciplinary program performing geriatric screens and care coordination for at-risk older Veterans treated in the ED, was implemented based on established best practices for Geriatric ED care.  ED staff receive multimodal geriatric emergency medicine training and champion the care of the most frail, older Veterans during their ED visit.  GERI-VET serves as a platform for Geriatric ED Accreditation through the American College of Emergency Physicians.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -4469,7 +4554,7 @@
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>local facility (+/- training through Cleveland GRECC)</t>
+          <t>Local facility (+/- training through Cleveland GRECC)</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
@@ -4497,6 +4582,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>Huded cropped 150x150.jpg</t>
+        </is>
+      </c>
       <c r="DE7" t="inlineStr">
         <is>
           <t>How the VA's first comprehensive geriatric ED program got it's start</t>
@@ -4507,6 +4597,56 @@
           <t>Dr. Huded, Co-Director of GERI-VET, had the opportunity to participate in the multisite GEDI WISE program at Northwestern Memorial Hospital during her Geriatric fellowship.  Wanting to bring a similar evidence-based model of Geriatric ED care to the VHA, she initiated GERI-VET in 2016 with the support of the Cleveland GRECC and VA Innovators Network.  GERI-VET has worked with over a dozen sites in 2018 and 2019 interested in similar programming.</t>
         </is>
       </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>GV696x392.jpg</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>Veteran receives Geri-Vet care</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>Veteran being assessed for physical, psychological, and social factors that impact the older Veterans’ overall health.</t>
+        </is>
+      </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>geri  group photo696x392.jpg</t>
+        </is>
+      </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>Geri-Vet group</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>Geri- Vet group engages others to works collaboratively to ensure proper measures are in place to treat all Veteran and caregiver needs upon discharge from the ED ( Emergency Department)</t>
+        </is>
+      </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>GV Bootcamp 696x392.jpg</t>
+        </is>
+      </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>Geri-vet Boot Camp</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>GERI-VET program group train to enhance care for Veterans who present to the emergency department.</t>
+        </is>
+      </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>jill.huded@va.gov</t>
+        </is>
+      </c>
       <c r="DQ7" t="inlineStr">
         <is>
           <t>Dr. Robert Bonomo/Director of Cleveland GRECC</t>
@@ -4522,6 +4662,16 @@
           <t>Dr. Tom Edes/Director of Comprehensive Geriatrics &amp; Palliative Care Clinical Operations</t>
         </is>
       </c>
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t> Jill Huded\Co-Director </t>
+        </is>
+      </c>
+      <c r="DY7" t="inlineStr">
+        <is>
+          <t>Huded cropped 65x65.jpg</t>
+        </is>
+      </c>
       <c r="EA7" t="inlineStr">
         <is>
           <t>Veteran - Enables an improvement in satisfaction or customer experience for Veterans</t>
@@ -4657,6 +4807,11 @@
           <t>Intermediate Care Technician\Licensed Practical Nurse</t>
         </is>
       </c>
+      <c r="MC7" t="inlineStr">
+        <is>
+          <t>GERVET64.384x216.jpg</t>
+        </is>
+      </c>
       <c r="MD7" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=MDIwu5hQatw</t>
@@ -4672,6 +4827,26 @@
           <t>Dr. Todd Smith discusses the GERI-VET program for the 2018 VA Innovation Experience</t>
         </is>
       </c>
+      <c r="MG7" t="inlineStr">
+        <is>
+          <t>2019 GERI-VET brochure (2).pdf</t>
+        </is>
+      </c>
+      <c r="MH7" t="inlineStr">
+        <is>
+          <t>GERI-VET book for accreditation 10.10.19.pdf</t>
+        </is>
+      </c>
+      <c r="MI7" t="inlineStr">
+        <is>
+          <t>ACEP Cleveland VA Geriatric ED Flyer 5.2019.pdf</t>
+        </is>
+      </c>
+      <c r="MN7" t="inlineStr">
+        <is>
+          <t>FOR IMMEDIATE RELEASE - Cleveland VA Becomes First to Receive Geriatric Emergency Department Accreditation.docx</t>
+        </is>
+      </c>
       <c r="MO7" t="inlineStr">
         <is>
           <t>https://emj.bmj.com/content/35/1/72</t>
@@ -4679,7 +4854,7 @@
       </c>
       <c r="MU7" t="inlineStr">
         <is>
-          <t>wasn't able to upload files :(</t>
+          <t>wasn't able to upload files :(  Impact photo is paid actor. Not real vet. All photos have consent. </t>
         </is>
       </c>
     </row>
@@ -4691,10 +4866,10 @@
         <v>241758028</v>
       </c>
       <c r="C8" s="1">
-        <v>43745.53488425926</v>
+        <v>43745.65988425926</v>
       </c>
       <c r="D8" s="1">
-        <v>43754.33277777778</v>
+        <v>43758.96394675926</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4761,8 +4936,10 @@
           <t>07/01/2011</t>
         </is>
       </c>
-      <c r="U8">
-        <v>636</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>vha_636</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -4837,17 +5014,12 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>dfgsdfg</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>adsg</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>sdgsdfg</t>
+          <t>Not using the RAI ( RIsk Assesment Indicator) tool consistantly.</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>Make it part of new training and create leadership in asking for it everytime. </t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
@@ -4885,6 +5057,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>150x150 placeholder copy.jpg</t>
+        </is>
+      </c>
       <c r="DP8" t="inlineStr">
         <is>
           <t>Daniel.Hall2@va.gov</t>
@@ -5068,6 +5245,11 @@
       <c r="LW8" t="inlineStr">
         <is>
           <t>Pharmacist</t>
+        </is>
+      </c>
+      <c r="MC8" t="inlineStr">
+        <is>
+          <t>384x216 placeholder.jpg</t>
         </is>
       </c>
     </row>
@@ -5079,10 +5261,10 @@
         <v>241758028</v>
       </c>
       <c r="C9" s="1">
-        <v>43745.47375</v>
+        <v>43745.59875</v>
       </c>
       <c r="D9" s="1">
-        <v>43745.5174537037</v>
+        <v>43758.78134259259</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5139,8 +5321,10 @@
           <t>01/20/2016</t>
         </is>
       </c>
-      <c r="U9">
-        <v>590</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>vha_590</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -5413,6 +5597,11 @@
           <t>User Agreement Form</t>
         </is>
       </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>PRIDE Williams150x150.jpg</t>
+        </is>
+      </c>
       <c r="DE9" t="inlineStr">
         <is>
           <t>Created By Veterans, For Veterans</t>
@@ -5463,6 +5652,11 @@
           <t>Tuscaloosa VA Executive Leadership &amp; Staff</t>
         </is>
       </c>
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>PRIDE Williams65x65.jpg</t>
+        </is>
+      </c>
       <c r="EA9" t="inlineStr">
         <is>
           <t>Veteran - Enables an improvement in satisfaction or customer experience for Veterans</t>
@@ -5711,6 +5905,11 @@
       <c r="MA9" t="inlineStr">
         <is>
           <t>All job titles equally - not a search differentiator</t>
+        </is>
+      </c>
+      <c r="MC9" t="inlineStr">
+        <is>
+          <t>Pride Placeholder364x216.jpg</t>
         </is>
       </c>
       <c r="MD9" t="inlineStr">
@@ -5747,10 +5946,10 @@
         <v>241758028</v>
       </c>
       <c r="C10" s="1">
-        <v>43742.50230324074</v>
+        <v>43742.62730324074</v>
       </c>
       <c r="D10" s="1">
-        <v>43742.51479166667</v>
+        <v>43756.034317129626</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5799,7 +5998,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>vha_</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -5940,7 +6139,7 @@
       </c>
       <c r="CO10" t="inlineStr">
         <is>
-          <t>Less than 30minutes</t>
+          <t>Less than 30 minutes</t>
         </is>
       </c>
       <c r="CP10" t="inlineStr">
@@ -5958,6 +6157,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t>150x150 placeholder copy.jpg</t>
+        </is>
+      </c>
       <c r="DE10" t="inlineStr">
         <is>
           <t>Addressing the first Moment that Matters most to Veterans in their Outpatient journey.</t>
@@ -6023,7 +6227,17 @@
           <t>All job titles equally - not a search differentiator</t>
         </is>
       </c>
+      <c r="MC10" t="inlineStr">
+        <is>
+          <t>SPG 384x216.jpg</t>
+        </is>
+      </c>
       <c r="ML10" t="inlineStr">
+        <is>
+          <t>https://www.vapulse.va.gov/groups/vha-patient-experience/projects/spg</t>
+        </is>
+      </c>
+      <c r="MO10" t="inlineStr">
         <is>
           <t>https://www.vapulse.va.gov/groups/vha-patient-experience/projects/spg</t>
         </is>
@@ -6037,10 +6251,10 @@
         <v>241758028</v>
       </c>
       <c r="C11" s="1">
-        <v>43742.421423611115</v>
+        <v>43742.546423611115</v>
       </c>
       <c r="D11" s="1">
-        <v>43742.45453703704</v>
+        <v>43756.024247685185</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6399,7 +6613,32 @@
           <t>None</t>
         </is>
       </c>
+      <c r="MC11" t="inlineStr">
+        <is>
+          <t>- PatientAmbassador384x216 pdf.jpg</t>
+        </is>
+      </c>
+      <c r="MD11" t="inlineStr">
+        <is>
+          <t>https://youtu.be/tH-EEV8z1rs</t>
+        </is>
+      </c>
+      <c r="ME11" t="inlineStr">
+        <is>
+          <t>Improving the Veteran Experience: Red Coat Ambassadors</t>
+        </is>
+      </c>
+      <c r="MF11" t="inlineStr">
+        <is>
+          <t>How RCA makes it easie for Veterans </t>
+        </is>
+      </c>
       <c r="ML11" t="inlineStr">
+        <is>
+          <t>https://www.vapulse.va.gov/groups/vha-patient-experience/projects/toolkit-red-coat-ambassadors</t>
+        </is>
+      </c>
+      <c r="MO11" t="inlineStr">
         <is>
           <t>https://www.vapulse.va.gov/groups/vha-patient-experience/projects/toolkit-red-coat-ambassadors</t>
         </is>
@@ -6413,10 +6652,10 @@
         <v>241758028</v>
       </c>
       <c r="C12" s="1">
-        <v>43742.23888888889</v>
+        <v>43742.36388888889</v>
       </c>
       <c r="D12" s="1">
-        <v>43746.624074074076</v>
+        <v>43758.816400462965</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6483,8 +6722,10 @@
           <t>09/01/2018</t>
         </is>
       </c>
-      <c r="U12">
-        <v>652</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>vha_652</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -6562,146 +6803,126 @@
           <t>We plan to only use the secure, HIPAA-compliant CPRS system to collect patient outcome information. </t>
         </is>
       </c>
-      <c r="BE12" t="inlineStr">
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>3. $50,000 - $250,000</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>2. Some complexity</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>1. Little to no complexity</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>1. Single department</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>New Clinical Approach or New Process</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>Social Worker</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>Psychologist</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>No more hours than what is already expected as part of standard care</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>No more hours than what is already expected as part of standard care</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>The same as would typically be required for treatment, they will just be using their time more efficiently </t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>The same as would typically be required for treatment, they will just be using their time more efficiently </t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>TST Individual Client Book (free of charge)</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>TST Individual Facilitator Book (free of charge)</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>TST Group Client Book (free of charge)</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>TST Group Facilitator Book (free of charge)</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>TST developers host train-the-trainers workshops. Attendees of this one-to-two-day workshop then become TST trainers.</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>Anyone who is planning to use TST with their clients must receive training (such as social workers and psychologists)</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>One to two days long</t>
+        </is>
+      </c>
+      <c r="CP12" t="inlineStr">
+        <is>
+          <t>Providers who would like to be TST trainers must attend a two-day train-the-trainers workshop. Providers who would like to be trained in TST must attend a one to two-day training workshop hosted by a TST trainer.  </t>
+        </is>
+      </c>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>Potentially</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>Can be free to charge </t>
+        </is>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CY12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>N/A </t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>N/A </t>
-        </is>
-      </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>3. $50,000 - $250,000</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>2. Some complexity</t>
-        </is>
-      </c>
-      <c r="BK12" t="inlineStr">
-        <is>
-          <t>1. Little to no complexity</t>
-        </is>
-      </c>
-      <c r="BL12" t="inlineStr">
-        <is>
-          <t>1. Single department</t>
-        </is>
-      </c>
-      <c r="BM12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BN12" t="inlineStr">
-        <is>
-          <t>New Clinical Approach or New Process</t>
-        </is>
-      </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>Social Worker</t>
-        </is>
-      </c>
-      <c r="BP12" t="inlineStr">
-        <is>
-          <t>Psychologist</t>
-        </is>
-      </c>
-      <c r="BT12" t="inlineStr">
-        <is>
-          <t>No more hours than what is already expected as part of standard care</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>No more hours than what is already expected as part of standard care</t>
-        </is>
-      </c>
-      <c r="BY12" t="inlineStr">
-        <is>
-          <t>The same as would typically be required for treatment, they will just be using their time more efficiently </t>
-        </is>
-      </c>
-      <c r="BZ12" t="inlineStr">
-        <is>
-          <t>The same as would typically be required for treatment, they will just be using their time more efficiently </t>
-        </is>
-      </c>
-      <c r="CD12" t="inlineStr">
-        <is>
-          <t>TST Individual Client Book (free of charge)</t>
-        </is>
-      </c>
-      <c r="CE12" t="inlineStr">
-        <is>
-          <t>TST Individual Facilitator Book (free of charge)</t>
-        </is>
-      </c>
-      <c r="CF12" t="inlineStr">
-        <is>
-          <t>TST Group Client Book (free of charge)</t>
-        </is>
-      </c>
-      <c r="CG12" t="inlineStr">
-        <is>
-          <t>TST Group Facilitator Book (free of charge)</t>
-        </is>
-      </c>
-      <c r="CI12" t="inlineStr">
-        <is>
-          <t>TST developers host train-the-trainers workshops. Attendees of this one-to-two-day workshop then become TST trainers.</t>
-        </is>
-      </c>
-      <c r="CJ12" t="inlineStr">
-        <is>
-          <t>Anyone who is planning to use TST with their clients must receive training (such as social workers and psychologists)</t>
-        </is>
-      </c>
-      <c r="CO12" t="inlineStr">
-        <is>
-          <t>One to two days long</t>
-        </is>
-      </c>
-      <c r="CP12" t="inlineStr">
-        <is>
-          <t>Providers who would like to be TST trainers must attend a two-day train-the-trainers workshop. Providers who would like to be trained in TST must attend a one to two-day training workshop hosted by a TST trainer.  </t>
-        </is>
-      </c>
-      <c r="CQ12" t="inlineStr">
-        <is>
-          <t>Potentially</t>
-        </is>
-      </c>
-      <c r="CR12" t="inlineStr">
-        <is>
-          <t>Can be free to charge </t>
-        </is>
-      </c>
-      <c r="CX12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="CY12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="DD12" t="inlineStr">
         <is>
           <t>2019 Head Shot.jpg</t>
@@ -6867,9 +7088,14 @@
           <t>Psychologist\Social Worker</t>
         </is>
       </c>
-      <c r="ME12" t="inlineStr">
-        <is>
-          <t>Video to be added later</t>
+      <c r="MC12" t="inlineStr">
+        <is>
+          <t>384x216 placeholder.jpg</t>
+        </is>
+      </c>
+      <c r="MG12" t="inlineStr">
+        <is>
+          <t>TST Journal 4-24-19(1).pdf</t>
         </is>
       </c>
       <c r="MJ12" t="inlineStr">
@@ -6896,10 +7122,10 @@
         <v>241758028</v>
       </c>
       <c r="C13" s="1">
-        <v>43738.31664351852</v>
+        <v>43738.44164351852</v>
       </c>
       <c r="D13" s="1">
-        <v>43738.34155092593</v>
+        <v>43755.81554398148</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6943,12 +7169,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Michael Broady</t>
+          <t>Michael Broady\CSM(R), MHRM  Patient Experience (PX) Consultant/Facilitator</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Cajun Comeau</t>
+          <t>Cajun Comeau\Patient Experience Consultant</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -7034,7 +7260,12 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>jsbdjbsdjf</t>
+          <t>Team does not adopt and work together, lack of patient engagement</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>Connection and leading by example through multiple disiplines through a team coach. </t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
@@ -7069,7 +7300,7 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Training/Trainer</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
@@ -7084,7 +7315,7 @@
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>VA support and clinicain staff </t>
+          <t>VA support and clinic staff </t>
         </is>
       </c>
       <c r="CO13" t="inlineStr">
@@ -7112,11 +7343,81 @@
           <t>No</t>
         </is>
       </c>
+      <c r="DD13" t="inlineStr">
+        <is>
+          <t>150x150TOD.jpg</t>
+        </is>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>Military Cultural Competency - Veterans and Employee Experience orientation </t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>Understanding and using Military Cultural Competency (MCC) to connect more viscerally with Veterans at the VA is a “not a nice to have”, it is a required skill set in the NEW  Veterans and Employee Experience oriented VA.  If we are to enhance the Veteran and Employee experience, we must provide the training necessary to make our VA workforce feel more confident and valued…presently, very few get any training and learn on the job often dealing with difficult Veterans relying on a limited skill set. Our VA professionals and Veterans deserve better!   MCC is also about healing relationships based on interactions and conversations that change the way Veterans feel about their value, employees, and their over-all VA experience.    </t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>ToD Impact696x392(1).jpg</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>What matters to Veterans matters to us!</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>Understanding military culture, creating environments for caring. Whole health ideals for veterans and their support community.   </t>
+        </is>
+      </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>So help me impact-696x392png.jpg</t>
+        </is>
+      </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>Shared Ethos</t>
+        </is>
+      </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>If you are a Veteran, I am sure that you immediately recognize the words shown here as an oath that you took when you joined the military.  Civil Servants take the same oath… think about what that oath actually says….it ties in nicely with our ICARE values/ethos.  The commitment we take to raise our hand and take a Federal Oath is not to be taken lightly!  It is a promise and commitment that compels you to do the right thing and protect and defend the constitution of the United States.  The oath doesn’t discuss caring for Veterans, but that is certainly implied.  It directly speaks to the larger calling of serving our nation, without a uniform; Civil and Public Service.  The Military takes a variation of the same exact Federal oath.  Our nation could not function with just a military; there must always be others willing to care for and save lives in the Homeland…at the VA.  The oath is much more than ceremonial, it is dedication the highest ideals and commitment to our nation!    It is not enough to take the oath without truly understanding what it stands for.  In large Government organizations over time, a re-commitment and study of the importance of the oath is required to keep the force inspired, valued and motivated.    </t>
+        </is>
+      </c>
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>ToD3 696x392.jpg</t>
+        </is>
+      </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>Valued</t>
+        </is>
+      </c>
+      <c r="DO13" t="inlineStr">
+        <is>
+          <t>The Practice of Whole Health for the VA workforce combines exploring what matters most to an individual along with empowering them to action with self care strategies to support their bodies own self healing capabilities while providing excellent clinical care through our professional care while also connecting them to helpful resources within their community. Employee-centered practice affirms the importance of the relationship + partnership between you and fellow employees. This includes focus on self-care and the entire VA workforce community.  If leaders say “I really care about my workforce” whole health as a workforce strategy can make those words actionable…people can feel that they are valued  </t>
+        </is>
+      </c>
+      <c r="DP13" t="inlineStr">
+        <is>
+          <t>Michael.Broady@va.gov</t>
+        </is>
+      </c>
       <c r="DQ13" t="inlineStr">
         <is>
           <t>Michael Broady/CSM(R), MHRM  Patient Experience (PX) Consultant/Facilitator</t>
         </is>
       </c>
+      <c r="DR13" t="inlineStr">
+        <is>
+          <t>Cajun Comeau\Patient Experience Consultant</t>
+        </is>
+      </c>
       <c r="EA13" t="inlineStr">
         <is>
           <t>Veteran - Enables an improvement in satisfaction or customer experience for Veterans</t>
@@ -7195,6 +7496,11 @@
       <c r="MA13" t="inlineStr">
         <is>
           <t>All job titles equally - not a search differentiator</t>
+        </is>
+      </c>
+      <c r="MC13" t="inlineStr">
+        <is>
+          <t>ToD384x216.jpg</t>
         </is>
       </c>
       <c r="ML13" t="inlineStr">
@@ -7211,10 +7517,10 @@
         <v>241758028</v>
       </c>
       <c r="C14" s="1">
-        <v>43734.89344907407</v>
+        <v>43735.01844907407</v>
       </c>
       <c r="D14" s="1">
-        <v>43738.30342592593</v>
+        <v>43759.0365625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -7278,7 +7584,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>VA_588</t>
+          <t>vha_588</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -7918,10 +8224,10 @@
         <v>241758028</v>
       </c>
       <c r="C15" s="1">
-        <v>43734.60157407408</v>
+        <v>43734.72657407408</v>
       </c>
       <c r="D15" s="1">
-        <v>43754.683333333334</v>
+        <v>43754.808333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -8436,10 +8742,10 @@
         <v>241758028</v>
       </c>
       <c r="C16" s="1">
-        <v>43728.38668981481</v>
+        <v>43728.51168981481</v>
       </c>
       <c r="D16" s="1">
-        <v>43731.31579861111</v>
+        <v>43759.03747685185</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -8488,7 +8794,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>636A6</t>
+          <t>vha_636A6</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -9016,10 +9322,10 @@
         <v>241758028</v>
       </c>
       <c r="C17" s="1">
-        <v>43728.34165509259</v>
+        <v>43728.46665509259</v>
       </c>
       <c r="D17" s="1">
-        <v>43749.24946759259</v>
+        <v>43749.37446759259</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -9356,10 +9662,10 @@
         <v>241758028</v>
       </c>
       <c r="C18" s="1">
-        <v>43727.2680787037</v>
+        <v>43727.3930787037</v>
       </c>
       <c r="D18" s="1">
-        <v>43741.46246527778</v>
+        <v>43758.843668981484</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -9426,8 +9732,10 @@
           <t>08/24/2018</t>
         </is>
       </c>
-      <c r="U18">
-        <v>600</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>vha_600</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -9502,7 +9810,7 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>two weeks</t>
+          <t>Two weeks</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -9512,7 +9820,7 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>ongoing </t>
+          <t>Ongoing </t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -9527,12 +9835,12 @@
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>ongoing continued rick assesment and training</t>
+          <t>Ongoing continued rick assesment and training</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>inneffective or undertrained staff </t>
+          <t>Inneffective or undertrained staff </t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
@@ -9542,7 +9850,7 @@
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>lack of support and collaboration</t>
+          <t>Lack of support and collaboration</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
@@ -9692,6 +10000,11 @@
           <t>902 request</t>
         </is>
       </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>vmet 150x150.jpg</t>
+        </is>
+      </c>
       <c r="DE18" t="inlineStr">
         <is>
           <t>Mitigating incareration, Deesculating crisis, and expiditing access to care</t>
@@ -9702,6 +10015,11 @@
           <t>VMET is a proactive utilization of VA Police officers in conjunction with Mental Health Clinicians to conduct outreach and follow-up on cases of veterans experiencing mental health crises, additionally those veterans expressing a danger to self, others, and inability to care for themselves.   By pairing a social worker with police, the engagement process could potentially decrease the veteran’s anxiety and barriers, providing an opportunity for veterans to receive the appropriate treatment unique to their needs.  VMET reduces veterans from ending up in jail or at a local hospital where continuity of care is extremely difficult. First program of its kind.</t>
         </is>
       </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>jumper692x392.jpg</t>
+        </is>
+      </c>
       <c r="DH18" t="inlineStr">
         <is>
           <t>The Jumper</t>
@@ -9712,6 +10030,11 @@
           <t>This is an image of a suicidal veteran on a call we went on who was wanted to jump after being frustrated about his VA benefits. Through VMET, we were able to deescalate and bring the veteran to safety. He was brought back to VA for VA care. </t>
         </is>
       </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>HOUSE692x392.jpg</t>
+        </is>
+      </c>
       <c r="DK18" t="inlineStr">
         <is>
           <t>House to Home</t>
@@ -9722,6 +10045,11 @@
           <t>This is a call for service to a veteran who was Gravely disabled. With joint effort of local law enforcement, we were able to place the veteran on a psychiatric care and prevent danger to the veteran, his family and community providers.  He was ultimately bought to VA for mental health treatment and substance abuse and housing services. </t>
         </is>
       </c>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>in action696x392.jpg</t>
+        </is>
+      </c>
       <c r="DN18" t="inlineStr">
         <is>
           <t>In Action- Crisis Call</t>
@@ -9762,6 +10090,31 @@
           <t>Walt Dannenberg/ Director Tibor RUbin VA </t>
         </is>
       </c>
+      <c r="DV18" t="inlineStr">
+        <is>
+          <t>shannon head shot65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t>tbone headshot65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DX18" t="inlineStr">
+        <is>
+          <t>hayter65x65.jpg</t>
+        </is>
+      </c>
+      <c r="DY18" t="inlineStr">
+        <is>
+          <t>Carol65x65.png</t>
+        </is>
+      </c>
+      <c r="DZ18" t="inlineStr">
+        <is>
+          <t>Dannenberg Official Portrait (65x65)(1).jpg</t>
+        </is>
+      </c>
       <c r="EA18" t="inlineStr">
         <is>
           <t>Veteran - Enables an improvement in satisfaction or customer experience for Veterans</t>
@@ -9897,6 +10250,11 @@
           <t>Social Work/Police</t>
         </is>
       </c>
+      <c r="MC18" t="inlineStr">
+        <is>
+          <t>JP intervention384x216.jpg</t>
+        </is>
+      </c>
       <c r="MD18" t="inlineStr">
         <is>
           <t>https://www.wunc.org/post/help-veterans-crisis-va-counselors-are-riding-along-police</t>
@@ -9910,6 +10268,21 @@
       <c r="MF18" t="inlineStr">
         <is>
           <t>This is an interview done about VMET and story published </t>
+        </is>
+      </c>
+      <c r="ML18" t="inlineStr">
+        <is>
+          <t> https://www.vapulse.net/docs/DOC-265342</t>
+        </is>
+      </c>
+      <c r="MO18" t="inlineStr">
+        <is>
+          <t> https://www.washingtonpost.com/national/veterans-talking-veterans-back-from-the-brink-a-new-approach-to-policing-and-lives-in-crisis/2019/03/20/c1add29e-4508-11e9-8aab-95b8d80a1e4f_story.html</t>
+        </is>
+      </c>
+      <c r="MP18" t="inlineStr">
+        <is>
+          <t>https://www.blogs.va.gov/VAntage/60186/va-and-law-enforcement-partnership-supports-veterans-in-need/</t>
         </is>
       </c>
       <c r="MT18" t="inlineStr">
@@ -9931,10 +10304,10 @@
         <v>241758028</v>
       </c>
       <c r="C19" s="1">
-        <v>43713.30734953703</v>
+        <v>43713.43234953703</v>
       </c>
       <c r="D19" s="1">
-        <v>43746.31810185185</v>
+        <v>43746.44310185185</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -10406,10 +10779,10 @@
         <v>241758028</v>
       </c>
       <c r="C20" s="1">
-        <v>43713.234456018516</v>
+        <v>43713.359456018516</v>
       </c>
       <c r="D20" s="1">
-        <v>43755.35863425926</v>
+        <v>43755.48363425926</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -11151,10 +11524,10 @@
         <v>241758028</v>
       </c>
       <c r="C21" s="1">
-        <v>43711.37951388889</v>
+        <v>43711.50451388889</v>
       </c>
       <c r="D21" s="1">
-        <v>43746.379791666666</v>
+        <v>43746.504791666666</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -11621,10 +11994,10 @@
         <v>241758028</v>
       </c>
       <c r="C22" s="1">
-        <v>43707.321122685185</v>
+        <v>43707.446122685185</v>
       </c>
       <c r="D22" s="1">
-        <v>43746.37315972222</v>
+        <v>43746.49815972222</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -12029,10 +12402,10 @@
         <v>241758028</v>
       </c>
       <c r="C23" s="1">
-        <v>43705.685625</v>
+        <v>43705.810625</v>
       </c>
       <c r="D23" s="1">
-        <v>43744.95313657408</v>
+        <v>43745.07813657408</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -12630,10 +13003,10 @@
         <v>241758028</v>
       </c>
       <c r="C24" s="1">
-        <v>43705.50811342592</v>
+        <v>43705.63311342592</v>
       </c>
       <c r="D24" s="1">
-        <v>43754.741944444446</v>
+        <v>43759.01363425926</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -12697,7 +13070,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>vha_VISN23</t>
+          <t>vha_23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -12783,7 +13156,7 @@
       </c>
       <c r="BG24" t="inlineStr">
         <is>
-          <t>Sensory and cognitive deficit of pt population. </t>
+          <t>Sensory and cognitive deficit of patient population. </t>
         </is>
       </c>
       <c r="BH24" t="inlineStr">
@@ -13407,10 +13780,10 @@
         <v>241758028</v>
       </c>
       <c r="C25" s="1">
-        <v>43689.29115740741</v>
+        <v>43689.41615740741</v>
       </c>
       <c r="D25" s="1">
-        <v>43693.56576388889</v>
+        <v>43693.69076388889</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -13935,10 +14308,10 @@
         <v>241758028</v>
       </c>
       <c r="C26" s="1">
-        <v>43687.47125</v>
+        <v>43687.59625</v>
       </c>
       <c r="D26" s="1">
-        <v>43745.7534375</v>
+        <v>43745.8784375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -14560,10 +14933,10 @@
         <v>241758028</v>
       </c>
       <c r="C27" s="1">
-        <v>43685.49167824074</v>
+        <v>43685.61667824074</v>
       </c>
       <c r="D27" s="1">
-        <v>43745.78134259259</v>
+        <v>43759.03574074074</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -14630,8 +15003,10 @@
           <t>08/01/0014</t>
         </is>
       </c>
-      <c r="U27">
-        <v>542</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>vha_542</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -15248,10 +15623,10 @@
         <v>241758028</v>
       </c>
       <c r="C28" s="1">
-        <v>43685.440405092595</v>
+        <v>43685.565405092595</v>
       </c>
       <c r="D28" s="1">
-        <v>43709.903495370374</v>
+        <v>43759.0384375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -15318,8 +15693,10 @@
           <t>09/01/2014</t>
         </is>
       </c>
-      <c r="U28">
-        <v>607</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>vha_607</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -15971,10 +16348,10 @@
         <v>241758028</v>
       </c>
       <c r="C29" s="1">
-        <v>43677.60171296296</v>
+        <v>43677.72671296296</v>
       </c>
       <c r="D29" s="1">
-        <v>43744.340104166666</v>
+        <v>43758.76136574074</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -16008,7 +16385,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Home Sleep Apnea Testing is sharply increasing to meet Veteran demands.  Implementation of a home sleep apnea testing program has become an intragal part of the Sleep Medicine Program Office as a way to address access issues.  Implementation of a home sleep testing program bring many beneifts to sleep programs such as reduced costs over Community Care and Veteran travel.  It also opens opportunities to partner with another VA through inter and intrafacility agreements for scoring and interpretation.</t>
+          <t>Utilization of home sleep apnea testing (HSAT) to diagnose sleep apnea is rapidly increasing to better meet demand for Veteran evaluation of suspected OSA (Obstructive Sleep Apnea). HSAT( Home Sleep Apnea Testing) is considered a best practice and is supported by the Office of Specialty Care Services, Telehealth Service, and Office of Veteran Access to Care. Home Sleep Apnea Testing is sharply increasing to meet Veteran demands.  Implementation of a home sleep apnea testing program has become an intragal part of the Sleep Medicine Program Office as a way to address access issues.  Implementation of a home sleep testing program bring many beneifts to sleep programs such as reduced costs over Community Care and Veteran travel.  It also opens opportunities to partner with another VA through inter and intrafacility agreements for scoring and interpretation.</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -16405,6 +16782,11 @@
       <c r="MB29" t="inlineStr">
         <is>
           <t>Respiratory Therapist\ Sleep Tech\Telehealth Technician</t>
+        </is>
+      </c>
+      <c r="MC29" t="inlineStr">
+        <is>
+          <t>TeleHealth Sleep Apnea Placeholder384x216.jpg</t>
         </is>
       </c>
       <c r="ML29" t="inlineStr">
@@ -16426,10 +16808,10 @@
         <v>241758028</v>
       </c>
       <c r="C30" s="1">
-        <v>43676.40510416667</v>
+        <v>43676.53010416667</v>
       </c>
       <c r="D30" s="1">
-        <v>43744.894375</v>
+        <v>43745.019375</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -16836,10 +17218,10 @@
         <v>226101601</v>
       </c>
       <c r="C31" s="1">
-        <v>43621.13875</v>
+        <v>43621.26375</v>
       </c>
       <c r="D31" s="1">
-        <v>43661.91153935185</v>
+        <v>43759.041967592595</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -16903,7 +17285,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Long Beach VA Health Care System</t>
+          <t>vha_600</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -17294,10 +17676,10 @@
         <v>226101601</v>
       </c>
       <c r="C32" s="1">
-        <v>43620.515173611115</v>
+        <v>43620.640173611115</v>
       </c>
       <c r="D32" s="1">
-        <v>43642.424791666665</v>
+        <v>43642.549791666665</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -17668,10 +18050,10 @@
         <v>226101601</v>
       </c>
       <c r="C33" s="1">
-        <v>43613.30701388889</v>
+        <v>43613.43201388889</v>
       </c>
       <c r="D33" s="1">
-        <v>43620.64811342592</v>
+        <v>43620.77311342592</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -18145,10 +18527,10 @@
         <v>226101601</v>
       </c>
       <c r="C34" s="1">
-        <v>43609.363969907405</v>
+        <v>43609.488969907405</v>
       </c>
       <c r="D34" s="1">
-        <v>43619.38792824074</v>
+        <v>43619.51292824074</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -18501,10 +18883,10 @@
         <v>233326486</v>
       </c>
       <c r="C35" s="1">
-        <v>43607.5493287037</v>
+        <v>43607.6743287037</v>
       </c>
       <c r="D35" s="1">
-        <v>43627.494791666664</v>
+        <v>43627.619791666664</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -19132,10 +19514,10 @@
         <v>226101601</v>
       </c>
       <c r="C36" s="1">
-        <v>43605.433842592596</v>
+        <v>43605.558842592596</v>
       </c>
       <c r="D36" s="1">
-        <v>43728.30571759259</v>
+        <v>43728.43071759259</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -19496,10 +19878,10 @@
         <v>233326486</v>
       </c>
       <c r="C37" s="1">
-        <v>43603.492210648146</v>
+        <v>43603.617210648146</v>
       </c>
       <c r="D37" s="1">
-        <v>43671.48233796296</v>
+        <v>43671.60733796296</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -20066,10 +20448,10 @@
         <v>233326486</v>
       </c>
       <c r="C38" s="1">
-        <v>43602.46909722222</v>
+        <v>43602.59409722222</v>
       </c>
       <c r="D38" s="1">
-        <v>43671.491435185184</v>
+        <v>43671.616435185184</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -20726,10 +21108,10 @@
         <v>226101601</v>
       </c>
       <c r="C39" s="1">
-        <v>43602.236655092594</v>
+        <v>43602.361655092594</v>
       </c>
       <c r="D39" s="1">
-        <v>43628.58248842593</v>
+        <v>43628.70748842593</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -21276,10 +21658,10 @@
         <v>226101601</v>
       </c>
       <c r="C40" s="1">
-        <v>43602.20869212963</v>
+        <v>43602.33369212963</v>
       </c>
       <c r="D40" s="1">
-        <v>43622.58247685185</v>
+        <v>43622.70747685185</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -21616,10 +21998,10 @@
         <v>233326486</v>
       </c>
       <c r="C41" s="1">
-        <v>43601.2716087963</v>
+        <v>43601.3966087963</v>
       </c>
       <c r="D41" s="1">
-        <v>43627.49894675926</v>
+        <v>43627.62394675926</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -22054,10 +22436,10 @@
         <v>226101601</v>
       </c>
       <c r="C42" s="1">
-        <v>43601.179976851854</v>
+        <v>43601.304976851854</v>
       </c>
       <c r="D42" s="1">
-        <v>43619.450208333335</v>
+        <v>43619.575208333335</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -22740,10 +23122,10 @@
         <v>233326486</v>
       </c>
       <c r="C43" s="1">
-        <v>43600.57394675926</v>
+        <v>43600.69894675926</v>
       </c>
       <c r="D43" s="1">
-        <v>43622.558020833334</v>
+        <v>43622.683020833334</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -23185,10 +23567,10 @@
         <v>233326486</v>
       </c>
       <c r="C44" s="1">
-        <v>43600.448275462964</v>
+        <v>43600.573275462964</v>
       </c>
       <c r="D44" s="1">
-        <v>43619.446064814816</v>
+        <v>43619.571064814816</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -23503,10 +23885,10 @@
         <v>226101601</v>
       </c>
       <c r="C45" s="1">
-        <v>43599.483715277776</v>
+        <v>43599.608715277776</v>
       </c>
       <c r="D45" s="1">
-        <v>43616.412824074076</v>
+        <v>43616.537824074076</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -24088,10 +24470,10 @@
         <v>233318351</v>
       </c>
       <c r="C46" s="1">
-        <v>43594.368946759256</v>
+        <v>43594.493946759256</v>
       </c>
       <c r="D46" s="1">
-        <v>43619.38875</v>
+        <v>43619.51375</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -24496,10 +24878,10 @@
         <v>233326486</v>
       </c>
       <c r="C47" s="1">
-        <v>43594.36887731482</v>
+        <v>43594.49387731482</v>
       </c>
       <c r="D47" s="1">
-        <v>43628.41805555556</v>
+        <v>43628.54305555556</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -25059,10 +25441,10 @@
         <v>233318351</v>
       </c>
       <c r="C48" s="1">
-        <v>43594.27174768518</v>
+        <v>43594.39674768518</v>
       </c>
       <c r="D48" s="1">
-        <v>43628.197592592594</v>
+        <v>43628.322592592594</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -25644,10 +26026,10 @@
         <v>233158854</v>
       </c>
       <c r="C49" s="1">
-        <v>43593.47342592593</v>
+        <v>43593.59842592593</v>
       </c>
       <c r="D49" s="1">
-        <v>43628.56653935185</v>
+        <v>43628.69153935185</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -26374,10 +26756,10 @@
         <v>231929806</v>
       </c>
       <c r="C50" s="1">
-        <v>43581.388773148145</v>
+        <v>43581.513773148145</v>
       </c>
       <c r="D50" s="1">
-        <v>43628.2221875</v>
+        <v>43628.3471875</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -26774,10 +27156,10 @@
         <v>228637564</v>
       </c>
       <c r="C51" s="1">
-        <v>43556.49988425926</v>
+        <v>43556.62488425926</v>
       </c>
       <c r="D51" s="1">
-        <v>43628.70988425926</v>
+        <v>43628.83488425926</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -27254,10 +27636,10 @@
         <v>228637564</v>
       </c>
       <c r="C52" s="1">
-        <v>43556.35381944444</v>
+        <v>43556.47881944444</v>
       </c>
       <c r="D52" s="1">
-        <v>43628.51689814815</v>
+        <v>43628.64189814815</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -28044,10 +28426,10 @@
         <v>228637564</v>
       </c>
       <c r="C53" s="1">
-        <v>43552.51997685185</v>
+        <v>43552.64497685185</v>
       </c>
       <c r="D53" s="1">
-        <v>43692.390555555554</v>
+        <v>43692.515555555554</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -28535,10 +28917,10 @@
         <v>226101601</v>
       </c>
       <c r="C54" s="1">
-        <v>43520.390914351854</v>
+        <v>43520.515914351854</v>
       </c>
       <c r="D54" s="1">
-        <v>43739.358877314815</v>
+        <v>43739.483877314815</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -29039,10 +29421,10 @@
         <v>226208327</v>
       </c>
       <c r="C55" s="1">
-        <v>43518.48881944444</v>
+        <v>43518.61381944444</v>
       </c>
       <c r="D55" s="1">
-        <v>43655.5522337963</v>
+        <v>43655.6772337963</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
